--- a/all-in-one(May.9).xlsx
+++ b/all-in-one(May.9).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tliu\Documents\tami\ITSS_Contract_resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tliu\Documents\tami\myDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="132" windowWidth="20112" windowHeight="12072" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="132" windowWidth="20112" windowHeight="12072" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Use-Cases" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="data" sheetId="4" r:id="rId4"/>
     <sheet name="process-role" sheetId="5" r:id="rId5"/>
     <sheet name="process" sheetId="6" r:id="rId6"/>
+    <sheet name="actions" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="438">
   <si>
     <t>Use Case ID</t>
   </si>
@@ -1295,6 +1297,498 @@
   <si>
     <t>Contract.Agree(finalized)</t>
   </si>
+  <si>
+    <t>from_state</t>
+  </si>
+  <si>
+    <t>to_state</t>
+  </si>
+  <si>
+    <t>action_name</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>ui_actions</t>
+  </si>
+  <si>
+    <t>Prepare Template</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>templatePreparing</t>
+  </si>
+  <si>
+    <t>templatePrepare</t>
+  </si>
+  <si>
+    <t>templatePrepared</t>
+  </si>
+  <si>
+    <t>templatePendingApprovalBySupervisor</t>
+  </si>
+  <si>
+    <t>templatePartAApprove</t>
+  </si>
+  <si>
+    <t>templatePartAApproved</t>
+  </si>
+  <si>
+    <t>templatePartADecline</t>
+  </si>
+  <si>
+    <t>templatePartADeclined</t>
+  </si>
+  <si>
+    <t>pendingTemplateCorrectionFromPartA</t>
+  </si>
+  <si>
+    <t>templateCorrectionForPartA</t>
+  </si>
+  <si>
+    <t>templateCorrectedForPartA</t>
+  </si>
+  <si>
+    <t>templatePendingAcceptanceByVendor</t>
+  </si>
+  <si>
+    <t>templatePartBApprove</t>
+  </si>
+  <si>
+    <t>templatePartBApproved</t>
+  </si>
+  <si>
+    <t>templatePartBDecline</t>
+  </si>
+  <si>
+    <t>templatePartBDeclined</t>
+  </si>
+  <si>
+    <t>pendingTemplateCorrectionFromPartB</t>
+  </si>
+  <si>
+    <t>templateCorrectionForPartB</t>
+  </si>
+  <si>
+    <t>templateCorrectedForPartB</t>
+  </si>
+  <si>
+    <t>templateFixed</t>
+  </si>
+  <si>
+    <t>contractPreparing</t>
+  </si>
+  <si>
+    <t>contractPrepare</t>
+  </si>
+  <si>
+    <t>contractPrepared</t>
+  </si>
+  <si>
+    <t>PendingL1Approval</t>
+  </si>
+  <si>
+    <t>level1Approve</t>
+  </si>
+  <si>
+    <t>level1Approved</t>
+  </si>
+  <si>
+    <t>level1Decline</t>
+  </si>
+  <si>
+    <t>level1Declined</t>
+  </si>
+  <si>
+    <t>contractPendingCorrection</t>
+  </si>
+  <si>
+    <t>contractCorrectionL1</t>
+  </si>
+  <si>
+    <t>contractCorrectedL1Issue</t>
+  </si>
+  <si>
+    <t>PendingL2Approval</t>
+  </si>
+  <si>
+    <t>level2Approve</t>
+  </si>
+  <si>
+    <t>level2Approved</t>
+  </si>
+  <si>
+    <t>level2Decline</t>
+  </si>
+  <si>
+    <t>level2Declined</t>
+  </si>
+  <si>
+    <t>contractPendingCorrectionL2Issue</t>
+  </si>
+  <si>
+    <t>contractCorrectionL2</t>
+  </si>
+  <si>
+    <t>contractCorrectedL2Issue</t>
+  </si>
+  <si>
+    <t>PendingL3Approval</t>
+  </si>
+  <si>
+    <t>level3Approve</t>
+  </si>
+  <si>
+    <t>level3Approved</t>
+  </si>
+  <si>
+    <t>level3Decline</t>
+  </si>
+  <si>
+    <t>level3Declined</t>
+  </si>
+  <si>
+    <t>contractPendingCorrectionL3Issue</t>
+  </si>
+  <si>
+    <t>contractCorrectionL3</t>
+  </si>
+  <si>
+    <t>contractCorrectedL3Issue</t>
+  </si>
+  <si>
+    <t>PendingL4Approval</t>
+  </si>
+  <si>
+    <t>level4Approve</t>
+  </si>
+  <si>
+    <t>level4Approved</t>
+  </si>
+  <si>
+    <t>level4Decline</t>
+  </si>
+  <si>
+    <t>level4Declined</t>
+  </si>
+  <si>
+    <t>level4ApproveWithCondition</t>
+  </si>
+  <si>
+    <t>contractPendingCorrectionL4IssueWithApproval</t>
+  </si>
+  <si>
+    <t>contractCorrectionL4WithApproval</t>
+  </si>
+  <si>
+    <t>contractCorrectedL4IssueWithApproval</t>
+  </si>
+  <si>
+    <t>PendingL5Approval</t>
+  </si>
+  <si>
+    <t>contractPendingCorrectionL4Issue</t>
+  </si>
+  <si>
+    <t>contractCorrectionL4</t>
+  </si>
+  <si>
+    <t>contractCorrectedL4Issue</t>
+  </si>
+  <si>
+    <t>level5Approve</t>
+  </si>
+  <si>
+    <t>level5Approved</t>
+  </si>
+  <si>
+    <t>level5Decline</t>
+  </si>
+  <si>
+    <t>level5Declined</t>
+  </si>
+  <si>
+    <t>level5ApproveWithCondition</t>
+  </si>
+  <si>
+    <t>contractPendingCorrectionL5IssueWithApproval</t>
+  </si>
+  <si>
+    <t>contractCorrectionL5WithApproval</t>
+  </si>
+  <si>
+    <t>contractCorrectedL5IssueWithApproval</t>
+  </si>
+  <si>
+    <t>PreparingPartBSign</t>
+  </si>
+  <si>
+    <t>contractPendingCorrectionL5Issue</t>
+  </si>
+  <si>
+    <t>contractCorrectionL5</t>
+  </si>
+  <si>
+    <t>contractCorrectedL5Issue</t>
+  </si>
+  <si>
+    <t>preparePartBSign</t>
+  </si>
+  <si>
+    <t>PendingPartBSign</t>
+  </si>
+  <si>
+    <t>partBSign</t>
+  </si>
+  <si>
+    <t>PartBSigned</t>
+  </si>
+  <si>
+    <t>partBSignDecline</t>
+  </si>
+  <si>
+    <t>PartBDeclined</t>
+  </si>
+  <si>
+    <t>contractPendingCorrectionL100Issue</t>
+  </si>
+  <si>
+    <t>contractCorrectionL100</t>
+  </si>
+  <si>
+    <t>contractCorrectedL100Issue</t>
+  </si>
+  <si>
+    <t>PreparingPartASign</t>
+  </si>
+  <si>
+    <t>preparePartASign</t>
+  </si>
+  <si>
+    <t>PendingPartASign</t>
+  </si>
+  <si>
+    <t>partASign</t>
+  </si>
+  <si>
+    <t>PartASigned</t>
+  </si>
+  <si>
+    <t>finalize</t>
+  </si>
+  <si>
+    <t>Finalized</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Approve Template as Part A</t>
+  </si>
+  <si>
+    <t>Decline Template as Part A</t>
+  </si>
+  <si>
+    <t>Template Correction for Part A</t>
+  </si>
+  <si>
+    <t>Template Correction for Part B</t>
+  </si>
+  <si>
+    <t>Approve Template as Part B</t>
+  </si>
+  <si>
+    <t>Decline Template as Part B</t>
+  </si>
+  <si>
+    <t>Prepare Contract</t>
+  </si>
+  <si>
+    <t>Contract Correction L1</t>
+  </si>
+  <si>
+    <t>Contract Correction L2</t>
+  </si>
+  <si>
+    <t>Approve as Level 2 staff</t>
+  </si>
+  <si>
+    <t>Decline as Level 2 staff</t>
+  </si>
+  <si>
+    <t>Approve as Level 1 staff</t>
+  </si>
+  <si>
+    <t>Decline as Level 1 staff</t>
+  </si>
+  <si>
+    <t>Contract Correction L3</t>
+  </si>
+  <si>
+    <t>Approve as Level 3 staff</t>
+  </si>
+  <si>
+    <t>Decline as Level 3 staff</t>
+  </si>
+  <si>
+    <t>Approve as Level 4 staff</t>
+  </si>
+  <si>
+    <t>Decline as Level 4 staff</t>
+  </si>
+  <si>
+    <t>Conditional Approve as Level 4 staff</t>
+  </si>
+  <si>
+    <t>Contract Correction L4</t>
+  </si>
+  <si>
+    <t>Contract Correction L4 Pre-Approved</t>
+  </si>
+  <si>
+    <t>Approve as Level 5 staff</t>
+  </si>
+  <si>
+    <t>Decline as Level 5 staff</t>
+  </si>
+  <si>
+    <t>Conditional Approve as Level 5 staff</t>
+  </si>
+  <si>
+    <t>Contract Correction L5 Pre-Approved</t>
+  </si>
+  <si>
+    <t>Contract Correction L5</t>
+  </si>
+  <si>
+    <t>Prepare Part B Sign</t>
+  </si>
+  <si>
+    <t>Prepare Part A Sign</t>
+  </si>
+  <si>
+    <t>Sign Contract as Part B</t>
+  </si>
+  <si>
+    <t>Decline Sign Contract as Part B</t>
+  </si>
+  <si>
+    <t>Contract Correction for Part B</t>
+  </si>
+  <si>
+    <t>Sign Contract as Part A</t>
+  </si>
+  <si>
+    <t>Finalize</t>
+  </si>
+  <si>
+    <t>Process.Auto</t>
+  </si>
+  <si>
+    <t>Process.Template.Prepare</t>
+  </si>
+  <si>
+    <t>Process.Contract.Prepare</t>
+  </si>
+  <si>
+    <t>Process.Contract.Approval</t>
+  </si>
+  <si>
+    <t>Process.Contract.Sign</t>
+  </si>
+  <si>
+    <t>Process.Contract.Finalize</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>template.cru</t>
+  </si>
+  <si>
+    <t>template.approve</t>
+  </si>
+  <si>
+    <t>template.decline</t>
+  </si>
+  <si>
+    <t>template.ru</t>
+  </si>
+  <si>
+    <t>contract.cru</t>
+  </si>
+  <si>
+    <t>contract.approve</t>
+  </si>
+  <si>
+    <t>contract.decline</t>
+  </si>
+  <si>
+    <t>contract.ru</t>
+  </si>
+  <si>
+    <t>contract.conditonalApprove</t>
+  </si>
+  <si>
+    <t>contract.sign</t>
+  </si>
+  <si>
+    <t>contract.prepareSign</t>
+  </si>
+  <si>
+    <t>contract.declineSign</t>
+  </si>
+  <si>
+    <t>contract.finalize</t>
+  </si>
+  <si>
+    <t>2019-06-26 edited</t>
+  </si>
+  <si>
+    <t>('</t>
+  </si>
+  <si>
+    <t>", "display": "</t>
+  </si>
+  <si>
+    <t>", "transformations": [{ "from": "</t>
+  </si>
+  <si>
+    <t>", "to": "</t>
+  </si>
+  <si>
+    <t>"}], "ui_actions": ["</t>
+  </si>
+  <si>
+    <t>"], "category": "</t>
+  </si>
+  <si>
+    <t>", "version": "</t>
+  </si>
+  <si>
+    <t>,'{"head": { "code": "</t>
+  </si>
+  <si>
+    <t>"}}'),</t>
+  </si>
 </sst>
 </file>
 
@@ -1303,7 +1797,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,8 +1968,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,8 +2103,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1802,11 +2326,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1898,6 +2434,29 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1949,40 +2508,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="4" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="4" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2302,11 +2864,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2318,10 +2880,10 @@
       <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -2646,36 +3208,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
       <c r="L2" s="15" t="s">
         <v>79</v>
       </c>
@@ -2684,18 +3246,18 @@
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="14" t="s">
         <v>59</v>
       </c>
@@ -2704,18 +3266,18 @@
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="14" t="s">
         <v>57</v>
       </c>
@@ -2724,18 +3286,18 @@
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="14" t="s">
         <v>58</v>
       </c>
@@ -2744,18 +3306,18 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="14" t="s">
         <v>66</v>
       </c>
@@ -2764,18 +3326,18 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
       <c r="L7" s="14" t="s">
         <v>60</v>
       </c>
@@ -2784,18 +3346,18 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="14" t="s">
         <v>61</v>
       </c>
@@ -2804,18 +3366,18 @@
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
       <c r="L9" s="14" t="s">
         <v>68</v>
       </c>
@@ -2824,18 +3386,18 @@
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="14" t="s">
         <v>69</v>
       </c>
@@ -2844,36 +3406,36 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="14" t="s">
         <v>74</v>
       </c>
@@ -2882,18 +3444,18 @@
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="14" t="s">
         <v>75</v>
       </c>
@@ -2902,18 +3464,18 @@
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="14" t="s">
         <v>76</v>
       </c>
@@ -2922,18 +3484,18 @@
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
       <c r="L15" s="14" t="s">
         <v>77</v>
       </c>
@@ -2942,18 +3504,18 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="14" t="s">
         <v>78</v>
       </c>
@@ -3003,19 +3565,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -3026,7 +3588,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="68" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -3034,37 +3596,37 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="68" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -3072,19 +3634,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="68" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -3092,7 +3654,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="22" t="s">
         <v>108</v>
       </c>
@@ -3143,28 +3705,28 @@
       <c r="B1" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
       <c r="I1" s="23" t="s">
         <v>128</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
@@ -3426,22 +3988,22 @@
       <c r="E15" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="77">
         <v>1</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="N15" s="58"/>
+      <c r="N15" s="77"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K16" s="59"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="59"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="78"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
@@ -3590,8 +4152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3612,378 +4174,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="43" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="44" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="44" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="44" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="44" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="44" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="44" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="44" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="44"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="G18" s="67" t="s">
+      <c r="G18" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="K18" s="67" t="s">
+      <c r="K18" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="L18" s="67" t="s">
+      <c r="L18" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="M18" s="67" t="s">
+      <c r="M18" s="46" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62" t="s">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="I22" s="62" t="s">
+      <c r="I22" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="K22" s="62" t="s">
+      <c r="K22" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="L22" s="62" t="s">
+      <c r="L22" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="M22" s="62"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63" t="s">
+      <c r="G23" s="42"/>
+      <c r="H23" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="I23" s="63" t="s">
+      <c r="I23" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="K23" s="63" t="s">
+      <c r="K23" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="L23" s="63" t="s">
+      <c r="L23" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="M23" s="63"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62" t="s">
+      <c r="G24" s="41"/>
+      <c r="H24" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="I24" s="62" t="s">
+      <c r="I24" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="L24" s="62" t="s">
+      <c r="L24" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="M24" s="62"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="G27" s="63" t="s">
+      <c r="G27" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="K27" s="63" t="s">
+      <c r="K27" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="L27" s="63" t="s">
+      <c r="L27" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="M27" s="63"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="G28" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="J28" s="62" t="s">
+      <c r="J28" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="L28" s="62" t="s">
+      <c r="L28" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="M28" s="62" t="s">
+      <c r="M28" s="41" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
     </row>
     <row r="30" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62" t="s">
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
     </row>
     <row r="31" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3996,8 +4558,8 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4014,1075 +4576,1069 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="68" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="47" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48">
         <v>1000</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="82" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48">
         <v>91000</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48">
         <v>92000</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48">
         <v>93000</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48">
         <v>94000</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="75">
+      <c r="B7" s="48"/>
+      <c r="C7" s="51">
         <v>95000</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74" t="s">
+      <c r="H7" s="81"/>
+      <c r="I7" s="81" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="75">
+      <c r="B8" s="48"/>
+      <c r="C8" s="51">
         <v>95000</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48">
         <v>2900</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="77" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="77" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="78"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48">
         <v>1300</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71" t="s">
+      <c r="F10" s="48"/>
+      <c r="G10" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="I10" s="78"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48">
         <v>2000</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="79" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="79" t="s">
+      <c r="F11" s="48"/>
+      <c r="G11" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="81" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48">
         <v>2100</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="79" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="79" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48">
         <v>2200</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="79" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="79" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48">
         <v>2300</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="79" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="79" t="s">
+      <c r="F14" s="48"/>
+      <c r="G14" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48">
         <v>2400</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="79" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="79" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48">
         <v>2500</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="79" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="79" t="s">
+      <c r="F16" s="48"/>
+      <c r="G16" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="75">
+      <c r="B17" s="48"/>
+      <c r="C17" s="51">
         <v>2600</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="80" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="80" t="s">
+      <c r="F17" s="51"/>
+      <c r="G17" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74" t="s">
+      <c r="H17" s="81"/>
+      <c r="I17" s="81" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="75">
+      <c r="B18" s="48"/>
+      <c r="C18" s="51">
         <v>2700</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="80" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="80" t="s">
+      <c r="F18" s="51"/>
+      <c r="G18" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="75">
+      <c r="B19" s="48"/>
+      <c r="C19" s="51">
         <v>2800</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="80" t="s">
+      <c r="D19" s="51"/>
+      <c r="E19" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="80" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48">
         <v>3000</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="81" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="81" t="s">
+      <c r="F20" s="48"/>
+      <c r="G20" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H20" s="74" t="s">
+      <c r="H20" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="82" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48">
         <v>3100</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="81" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="81" t="s">
+      <c r="F21" s="48"/>
+      <c r="G21" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48">
         <v>3200</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="81" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="81" t="s">
+      <c r="F22" s="48"/>
+      <c r="G22" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70">
+      <c r="B23" s="48"/>
+      <c r="C23" s="48">
         <v>3300</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="81" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="81" t="s">
+      <c r="F23" s="48"/>
+      <c r="G23" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70">
+      <c r="B24" s="48"/>
+      <c r="C24" s="48">
         <v>3400</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="81" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="81" t="s">
+      <c r="F24" s="48"/>
+      <c r="G24" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48">
         <v>4000</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="82" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="82" t="s">
+      <c r="F25" s="48"/>
+      <c r="G25" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H25" s="74" t="s">
+      <c r="H25" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="74"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48">
         <v>4100</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="82" t="s">
+      <c r="D26" s="48"/>
+      <c r="E26" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="82" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48">
         <v>4200</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="82" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="82" t="s">
+      <c r="F27" s="48"/>
+      <c r="G27" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48">
         <v>4300</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="82" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="82" t="s">
+      <c r="F28" s="48"/>
+      <c r="G28" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70">
+      <c r="B29" s="48"/>
+      <c r="C29" s="48">
         <v>4400</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="82" t="s">
+      <c r="D29" s="48"/>
+      <c r="E29" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="82" t="s">
+      <c r="F29" s="48"/>
+      <c r="G29" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48">
         <v>5000</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="81" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="81" t="s">
+      <c r="F30" s="48"/>
+      <c r="G30" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H30" s="74" t="s">
+      <c r="H30" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="74"/>
+      <c r="I30" s="81"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48">
         <v>5100</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="81" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="81" t="s">
+      <c r="F31" s="48"/>
+      <c r="G31" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48">
         <v>5200</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="81" t="s">
+      <c r="D32" s="48"/>
+      <c r="E32" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="81" t="s">
+      <c r="F32" s="48"/>
+      <c r="G32" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48">
         <v>5300</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="81" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="G33" s="81" t="s">
+      <c r="F33" s="48"/>
+      <c r="G33" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70">
+      <c r="B34" s="48"/>
+      <c r="C34" s="48">
         <v>5400</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="81" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="81" t="s">
+      <c r="F34" s="48"/>
+      <c r="G34" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="75">
+      <c r="B35" s="48"/>
+      <c r="C35" s="51">
         <v>5500</v>
       </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="83" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="83" t="s">
+      <c r="F35" s="51"/>
+      <c r="G35" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="75">
+      <c r="B36" s="48"/>
+      <c r="C36" s="51">
         <v>5600</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="83" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="83" t="s">
+      <c r="F36" s="51"/>
+      <c r="G36" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="75">
+      <c r="B37" s="48"/>
+      <c r="C37" s="51">
         <v>5700</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="83" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="75"/>
-      <c r="G37" s="83" t="s">
+      <c r="F37" s="51"/>
+      <c r="G37" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="75">
+      <c r="B38" s="48"/>
+      <c r="C38" s="51">
         <v>5800</v>
       </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="83" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="83" t="s">
+      <c r="F38" s="51"/>
+      <c r="G38" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="75">
+      <c r="B39" s="48"/>
+      <c r="C39" s="51">
         <v>5900</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="83" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="83" t="s">
+      <c r="F39" s="51"/>
+      <c r="G39" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70">
+      <c r="B40" s="48"/>
+      <c r="C40" s="48">
         <v>6000</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="82" t="s">
+      <c r="D40" s="48"/>
+      <c r="E40" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="82" t="s">
+      <c r="F40" s="48"/>
+      <c r="G40" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H40" s="74" t="s">
+      <c r="H40" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="74"/>
+      <c r="I40" s="81"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70">
+      <c r="B41" s="48"/>
+      <c r="C41" s="48">
         <v>6100</v>
       </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="82" t="s">
+      <c r="D41" s="48"/>
+      <c r="E41" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="82" t="s">
+      <c r="F41" s="48"/>
+      <c r="G41" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70">
+      <c r="B42" s="48"/>
+      <c r="C42" s="48">
         <v>6200</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="82" t="s">
+      <c r="D42" s="48"/>
+      <c r="E42" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="82" t="s">
+      <c r="F42" s="48"/>
+      <c r="G42" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70">
+      <c r="B43" s="48"/>
+      <c r="C43" s="48">
         <v>6300</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="82" t="s">
+      <c r="D43" s="48"/>
+      <c r="E43" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="82" t="s">
+      <c r="F43" s="48"/>
+      <c r="G43" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="70" t="s">
+      <c r="A44" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70">
+      <c r="B44" s="48"/>
+      <c r="C44" s="48">
         <v>6400</v>
       </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="82" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="82" t="s">
+      <c r="F44" s="48"/>
+      <c r="G44" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="75">
+      <c r="B45" s="48"/>
+      <c r="C45" s="51">
         <v>5500</v>
       </c>
-      <c r="D45" s="75"/>
-      <c r="E45" s="83" t="s">
+      <c r="D45" s="51"/>
+      <c r="E45" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="F45" s="75"/>
-      <c r="G45" s="83" t="s">
+      <c r="F45" s="51"/>
+      <c r="G45" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="H45" s="74" t="s">
+      <c r="H45" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="I45" s="74"/>
+      <c r="I45" s="81"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="75">
+      <c r="B46" s="48"/>
+      <c r="C46" s="51">
         <v>5600</v>
       </c>
-      <c r="D46" s="75"/>
-      <c r="E46" s="83" t="s">
+      <c r="D46" s="51"/>
+      <c r="E46" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="F46" s="75"/>
-      <c r="G46" s="83" t="s">
+      <c r="F46" s="51"/>
+      <c r="G46" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70">
+      <c r="B47" s="48"/>
+      <c r="C47" s="48">
         <v>7000</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="81" t="s">
+      <c r="D47" s="48"/>
+      <c r="E47" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="81" t="s">
+      <c r="F47" s="48"/>
+      <c r="G47" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70">
+      <c r="B48" s="48"/>
+      <c r="C48" s="48">
         <v>7100</v>
       </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="81" t="s">
+      <c r="D48" s="48"/>
+      <c r="E48" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="81" t="s">
+      <c r="F48" s="48"/>
+      <c r="G48" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="70" t="s">
+      <c r="A49" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48">
         <v>7200</v>
       </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="81" t="s">
+      <c r="D49" s="48"/>
+      <c r="E49" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="81" t="s">
+      <c r="F49" s="48"/>
+      <c r="G49" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="70" t="s">
+      <c r="A50" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70">
+      <c r="B50" s="48"/>
+      <c r="C50" s="48">
         <v>7300</v>
       </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="81" t="s">
+      <c r="D50" s="48"/>
+      <c r="E50" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F50" s="70"/>
-      <c r="G50" s="81" t="s">
+      <c r="F50" s="48"/>
+      <c r="G50" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="70" t="s">
+      <c r="A51" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70">
+      <c r="B51" s="48"/>
+      <c r="C51" s="48">
         <v>7400</v>
       </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="81" t="s">
+      <c r="D51" s="48"/>
+      <c r="E51" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="F51" s="70"/>
-      <c r="G51" s="81" t="s">
+      <c r="F51" s="48"/>
+      <c r="G51" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="75">
+      <c r="B52" s="48"/>
+      <c r="C52" s="51">
         <v>8000</v>
       </c>
-      <c r="D52" s="75"/>
-      <c r="E52" s="83" t="s">
+      <c r="D52" s="51"/>
+      <c r="E52" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="F52" s="75"/>
-      <c r="G52" s="83" t="s">
+      <c r="F52" s="51"/>
+      <c r="G52" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="H52" s="74" t="s">
+      <c r="H52" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="I52" s="70"/>
+      <c r="I52" s="48"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="75">
+      <c r="B53" s="48"/>
+      <c r="C53" s="51">
         <v>8100</v>
       </c>
-      <c r="D53" s="75"/>
-      <c r="E53" s="83" t="s">
+      <c r="D53" s="51"/>
+      <c r="E53" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="F53" s="75"/>
-      <c r="G53" s="83" t="s">
+      <c r="F53" s="51"/>
+      <c r="G53" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="H53" s="74"/>
-      <c r="I53" s="70"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="48"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="70"/>
-      <c r="C54" s="75">
+      <c r="B54" s="48"/>
+      <c r="C54" s="51">
         <v>8200</v>
       </c>
-      <c r="D54" s="75"/>
-      <c r="E54" s="83" t="s">
+      <c r="D54" s="51"/>
+      <c r="E54" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="F54" s="75"/>
-      <c r="G54" s="83" t="s">
+      <c r="F54" s="51"/>
+      <c r="G54" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="H54" s="74"/>
-      <c r="I54" s="70"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H45:H51"/>
-    <mergeCell ref="H30:H39"/>
-    <mergeCell ref="H11:H19"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="I17:I19"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="H40:H44"/>
@@ -5091,8 +5647,4597 @@
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="H20:H24"/>
     <mergeCell ref="H25:H29"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H45:H51"/>
+    <mergeCell ref="H30:H39"/>
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" style="88" customWidth="1"/>
+    <col min="6" max="6" width="37.21875" style="94" customWidth="1"/>
+    <col min="7" max="7" width="45.88671875" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" s="98"/>
+    </row>
+    <row r="2" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H3" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="96" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>416</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>417</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>418</v>
+      </c>
+      <c r="G9" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>416</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>417</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="96" t="s">
+        <v>418</v>
+      </c>
+      <c r="G15" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" s="88" t="s">
+        <v>380</v>
+      </c>
+      <c r="F19" s="96" t="s">
+        <v>419</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H20" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21" s="88" t="s">
+        <v>385</v>
+      </c>
+      <c r="F21" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="G21" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" t="s">
+        <v>312</v>
+      </c>
+      <c r="E22" s="88" t="s">
+        <v>386</v>
+      </c>
+      <c r="F22" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H22" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G23" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>381</v>
+      </c>
+      <c r="F24" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="G24" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H24" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G25" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H25" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G26" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="88" t="s">
+        <v>383</v>
+      </c>
+      <c r="F27" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="G27" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H27" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="88" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="G28" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H28" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G29" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H29" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" t="s">
+        <v>323</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>382</v>
+      </c>
+      <c r="F30" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H30" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F31" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G31" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H31" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H32" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C33" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" t="s">
+        <v>326</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>388</v>
+      </c>
+      <c r="F33" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="G33" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H33" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" t="s">
+        <v>328</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>389</v>
+      </c>
+      <c r="F34" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="G34" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H34" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D35" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G35" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H35" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>330</v>
+      </c>
+      <c r="B36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" t="s">
+        <v>331</v>
+      </c>
+      <c r="E36" s="88" t="s">
+        <v>387</v>
+      </c>
+      <c r="F36" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="G36" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H36" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" t="s">
+        <v>324</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F37" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G37" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H37" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>283</v>
+      </c>
+      <c r="B38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D38" t="s">
+        <v>332</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F38" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G38" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H38" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>333</v>
+      </c>
+      <c r="B39" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" t="s">
+        <v>334</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>390</v>
+      </c>
+      <c r="F39" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="G39" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H39" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" t="s">
+        <v>335</v>
+      </c>
+      <c r="C40" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" t="s">
+        <v>336</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>391</v>
+      </c>
+      <c r="F40" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="G40" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H40" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" t="s">
+        <v>337</v>
+      </c>
+      <c r="C41" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" t="s">
+        <v>338</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>392</v>
+      </c>
+      <c r="F41" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="G41" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H41" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" t="s">
+        <v>339</v>
+      </c>
+      <c r="C42" t="s">
+        <v>338</v>
+      </c>
+      <c r="D42" t="s">
+        <v>340</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>394</v>
+      </c>
+      <c r="F42" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="G42" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H42" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" t="s">
+        <v>340</v>
+      </c>
+      <c r="D43" t="s">
+        <v>341</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G43" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H43" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" t="s">
+        <v>342</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G44" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H44" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" t="s">
+        <v>343</v>
+      </c>
+      <c r="C45" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" t="s">
+        <v>344</v>
+      </c>
+      <c r="E45" s="88" t="s">
+        <v>393</v>
+      </c>
+      <c r="F45" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="G45" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H45" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46" t="s">
+        <v>324</v>
+      </c>
+      <c r="E46" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G46" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H46" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" t="s">
+        <v>334</v>
+      </c>
+      <c r="D47" t="s">
+        <v>341</v>
+      </c>
+      <c r="E47" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F47" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G47" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H47" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" t="s">
+        <v>346</v>
+      </c>
+      <c r="E48" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="F48" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="G48" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H48" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" t="s">
+        <v>348</v>
+      </c>
+      <c r="E49" s="88" t="s">
+        <v>396</v>
+      </c>
+      <c r="F49" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="G49" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H49" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" t="s">
+        <v>341</v>
+      </c>
+      <c r="D50" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50" s="88" t="s">
+        <v>397</v>
+      </c>
+      <c r="F50" s="96" t="s">
+        <v>423</v>
+      </c>
+      <c r="G50" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="H50" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>351</v>
+      </c>
+      <c r="B51" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" t="s">
+        <v>350</v>
+      </c>
+      <c r="D51" t="s">
+        <v>352</v>
+      </c>
+      <c r="E51" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="F51" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="G51" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H51" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" t="s">
+        <v>352</v>
+      </c>
+      <c r="D52" t="s">
+        <v>353</v>
+      </c>
+      <c r="E52" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F52" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H52" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" t="s">
+        <v>348</v>
+      </c>
+      <c r="D53" t="s">
+        <v>354</v>
+      </c>
+      <c r="E53" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F53" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G53" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H53" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" t="s">
+        <v>355</v>
+      </c>
+      <c r="C54" t="s">
+        <v>354</v>
+      </c>
+      <c r="D54" t="s">
+        <v>356</v>
+      </c>
+      <c r="E54" s="88" t="s">
+        <v>399</v>
+      </c>
+      <c r="F54" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="G54" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H54" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" t="s">
+        <v>356</v>
+      </c>
+      <c r="D55" t="s">
+        <v>324</v>
+      </c>
+      <c r="E55" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F55" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G55" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H55" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" t="s">
+        <v>346</v>
+      </c>
+      <c r="D56" t="s">
+        <v>353</v>
+      </c>
+      <c r="E56" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F56" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G56" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H56" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>357</v>
+      </c>
+      <c r="B57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" t="s">
+        <v>353</v>
+      </c>
+      <c r="D57" t="s">
+        <v>358</v>
+      </c>
+      <c r="E57" s="88" t="s">
+        <v>400</v>
+      </c>
+      <c r="F57" s="96" t="s">
+        <v>425</v>
+      </c>
+      <c r="G57" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="H57" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>359</v>
+      </c>
+      <c r="B58" t="s">
+        <v>359</v>
+      </c>
+      <c r="C58" t="s">
+        <v>358</v>
+      </c>
+      <c r="D58" t="s">
+        <v>360</v>
+      </c>
+      <c r="E58" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="F58" s="96" t="s">
+        <v>424</v>
+      </c>
+      <c r="G58" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="H58" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>361</v>
+      </c>
+      <c r="B59" t="s">
+        <v>361</v>
+      </c>
+      <c r="C59" t="s">
+        <v>358</v>
+      </c>
+      <c r="D59" t="s">
+        <v>362</v>
+      </c>
+      <c r="E59" s="88" t="s">
+        <v>403</v>
+      </c>
+      <c r="F59" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G59" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="H59" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>283</v>
+      </c>
+      <c r="B60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" t="s">
+        <v>362</v>
+      </c>
+      <c r="D60" t="s">
+        <v>363</v>
+      </c>
+      <c r="E60" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F60" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G60" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H60" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>364</v>
+      </c>
+      <c r="B61" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61" t="s">
+        <v>363</v>
+      </c>
+      <c r="D61" t="s">
+        <v>365</v>
+      </c>
+      <c r="E61" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="F61" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="G61" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="H61" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" t="s">
+        <v>365</v>
+      </c>
+      <c r="D62" t="s">
+        <v>324</v>
+      </c>
+      <c r="E62" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F62" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G62" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H62" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>283</v>
+      </c>
+      <c r="B63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>360</v>
+      </c>
+      <c r="D63" t="s">
+        <v>366</v>
+      </c>
+      <c r="E63" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F63" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G63" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H63" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>367</v>
+      </c>
+      <c r="B64" t="s">
+        <v>367</v>
+      </c>
+      <c r="C64" t="s">
+        <v>366</v>
+      </c>
+      <c r="D64" t="s">
+        <v>368</v>
+      </c>
+      <c r="E64" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="F64" s="96" t="s">
+        <v>425</v>
+      </c>
+      <c r="G64" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="H64" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65" t="s">
+        <v>369</v>
+      </c>
+      <c r="C65" t="s">
+        <v>368</v>
+      </c>
+      <c r="D65" t="s">
+        <v>370</v>
+      </c>
+      <c r="E65" s="88" t="s">
+        <v>405</v>
+      </c>
+      <c r="F65" s="96" t="s">
+        <v>424</v>
+      </c>
+      <c r="G65" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="H65" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" t="s">
+        <v>370</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F66" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G66" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H66" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" t="s">
+        <v>371</v>
+      </c>
+      <c r="C67" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" t="s">
+        <v>372</v>
+      </c>
+      <c r="E67" s="88" t="s">
+        <v>406</v>
+      </c>
+      <c r="F67" s="96" t="s">
+        <v>427</v>
+      </c>
+      <c r="G67" s="88" t="s">
+        <v>412</v>
+      </c>
+      <c r="H67" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" t="s">
+        <v>372</v>
+      </c>
+      <c r="D68" t="s">
+        <v>373</v>
+      </c>
+      <c r="E68" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="F68" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="G68" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="H68" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="93"/>
+      <c r="F69" s="94"/>
+    </row>
+    <row r="70" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="93"/>
+      <c r="F70" s="94"/>
+    </row>
+    <row r="71" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="93"/>
+      <c r="F71" s="94"/>
+    </row>
+    <row r="72" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="93"/>
+      <c r="F72" s="94"/>
+    </row>
+    <row r="73" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="93"/>
+      <c r="F73" s="94"/>
+    </row>
+    <row r="74" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="93"/>
+      <c r="F74" s="94"/>
+    </row>
+    <row r="75" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="93"/>
+      <c r="F75" s="94"/>
+    </row>
+    <row r="76" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="93"/>
+      <c r="F76" s="94"/>
+    </row>
+    <row r="77" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="93"/>
+      <c r="F77" s="94"/>
+    </row>
+    <row r="78" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="93"/>
+      <c r="F78" s="94"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="107" customWidth="1"/>
+    <col min="4" max="5" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" style="88" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="102" customWidth="1"/>
+    <col min="8" max="8" width="43.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="94" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" style="94" customWidth="1"/>
+    <col min="14" max="14" width="24.21875" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="101"/>
+      <c r="H1" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="M1" s="94"/>
+      <c r="N1" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="P1" s="84" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K2" t="s">
+        <v>433</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>422</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>409</v>
+      </c>
+      <c r="O2" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P2" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I3" t="s">
+        <v>432</v>
+      </c>
+      <c r="J3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K3" t="s">
+        <v>433</v>
+      </c>
+      <c r="L3" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="M3" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N3" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="O3" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P3" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I4" t="s">
+        <v>432</v>
+      </c>
+      <c r="J4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K4" t="s">
+        <v>433</v>
+      </c>
+      <c r="L4" s="95" t="s">
+        <v>422</v>
+      </c>
+      <c r="M4" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N4" s="87" t="s">
+        <v>409</v>
+      </c>
+      <c r="O4" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P4" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J5" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" t="s">
+        <v>433</v>
+      </c>
+      <c r="L5" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="M5" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N5" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="O5" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P5" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" t="s">
+        <v>430</v>
+      </c>
+      <c r="F6" s="88" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6" t="s">
+        <v>432</v>
+      </c>
+      <c r="J6" t="s">
+        <v>344</v>
+      </c>
+      <c r="K6" t="s">
+        <v>433</v>
+      </c>
+      <c r="L6" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="M6" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N6" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="O6" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P6" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I7" t="s">
+        <v>432</v>
+      </c>
+      <c r="J7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L7" s="95" t="s">
+        <v>422</v>
+      </c>
+      <c r="M7" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N7" s="87" t="s">
+        <v>409</v>
+      </c>
+      <c r="O7" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P7" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I8" t="s">
+        <v>432</v>
+      </c>
+      <c r="J8" t="s">
+        <v>356</v>
+      </c>
+      <c r="K8" t="s">
+        <v>433</v>
+      </c>
+      <c r="L8" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="M8" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N8" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="O8" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P8" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H9" t="s">
+        <v>350</v>
+      </c>
+      <c r="I9" t="s">
+        <v>432</v>
+      </c>
+      <c r="J9" t="s">
+        <v>352</v>
+      </c>
+      <c r="K9" t="s">
+        <v>433</v>
+      </c>
+      <c r="L9" s="95" t="s">
+        <v>422</v>
+      </c>
+      <c r="M9" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N9" s="87" t="s">
+        <v>409</v>
+      </c>
+      <c r="O9" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P9" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>380</v>
+      </c>
+      <c r="G10" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" t="s">
+        <v>305</v>
+      </c>
+      <c r="I10" t="s">
+        <v>432</v>
+      </c>
+      <c r="J10" t="s">
+        <v>307</v>
+      </c>
+      <c r="K10" t="s">
+        <v>433</v>
+      </c>
+      <c r="L10" s="95" t="s">
+        <v>419</v>
+      </c>
+      <c r="M10" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N10" s="87" t="s">
+        <v>409</v>
+      </c>
+      <c r="O10" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P10" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>406</v>
+      </c>
+      <c r="G11" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" t="s">
+        <v>432</v>
+      </c>
+      <c r="J11" t="s">
+        <v>372</v>
+      </c>
+      <c r="K11" t="s">
+        <v>433</v>
+      </c>
+      <c r="L11" s="96" t="s">
+        <v>427</v>
+      </c>
+      <c r="M11" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N11" s="88" t="s">
+        <v>412</v>
+      </c>
+      <c r="O11" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P11" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>430</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" t="s">
+        <v>308</v>
+      </c>
+      <c r="I12" t="s">
+        <v>432</v>
+      </c>
+      <c r="J12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K12" t="s">
+        <v>433</v>
+      </c>
+      <c r="L12" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="M12" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N12" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="O12" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P12" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>386</v>
+      </c>
+      <c r="G13" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H13" t="s">
+        <v>308</v>
+      </c>
+      <c r="I13" t="s">
+        <v>432</v>
+      </c>
+      <c r="J13" t="s">
+        <v>312</v>
+      </c>
+      <c r="K13" t="s">
+        <v>433</v>
+      </c>
+      <c r="L13" s="95" t="s">
+        <v>421</v>
+      </c>
+      <c r="M13" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N13" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="O13" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P13" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" t="s">
+        <v>430</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>383</v>
+      </c>
+      <c r="G14" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I14" t="s">
+        <v>432</v>
+      </c>
+      <c r="J14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" t="s">
+        <v>433</v>
+      </c>
+      <c r="L14" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="M14" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N14" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="O14" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P14" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D15" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" t="s">
+        <v>430</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>384</v>
+      </c>
+      <c r="G15" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H15" t="s">
+        <v>316</v>
+      </c>
+      <c r="I15" t="s">
+        <v>432</v>
+      </c>
+      <c r="J15" t="s">
+        <v>320</v>
+      </c>
+      <c r="K15" t="s">
+        <v>433</v>
+      </c>
+      <c r="L15" s="95" t="s">
+        <v>421</v>
+      </c>
+      <c r="M15" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N15" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="O15" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P15" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D16" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" t="s">
+        <v>430</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H16" t="s">
+        <v>324</v>
+      </c>
+      <c r="I16" t="s">
+        <v>432</v>
+      </c>
+      <c r="J16" t="s">
+        <v>326</v>
+      </c>
+      <c r="K16" t="s">
+        <v>433</v>
+      </c>
+      <c r="L16" s="95" t="s">
+        <v>420</v>
+      </c>
+      <c r="M16" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N16" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="O16" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P16" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>429</v>
+      </c>
+      <c r="B17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D17" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" t="s">
+        <v>430</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>389</v>
+      </c>
+      <c r="G17" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H17" t="s">
+        <v>324</v>
+      </c>
+      <c r="I17" t="s">
+        <v>432</v>
+      </c>
+      <c r="J17" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" t="s">
+        <v>433</v>
+      </c>
+      <c r="L17" s="95" t="s">
+        <v>421</v>
+      </c>
+      <c r="M17" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N17" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="O17" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P17" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D18" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" t="s">
+        <v>430</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>390</v>
+      </c>
+      <c r="G18" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H18" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" t="s">
+        <v>432</v>
+      </c>
+      <c r="J18" t="s">
+        <v>334</v>
+      </c>
+      <c r="K18" t="s">
+        <v>433</v>
+      </c>
+      <c r="L18" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="M18" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N18" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="O18" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P18" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>429</v>
+      </c>
+      <c r="B19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" t="s">
+        <v>430</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H19" t="s">
+        <v>332</v>
+      </c>
+      <c r="I19" t="s">
+        <v>432</v>
+      </c>
+      <c r="J19" t="s">
+        <v>338</v>
+      </c>
+      <c r="K19" t="s">
+        <v>433</v>
+      </c>
+      <c r="L19" s="95" t="s">
+        <v>423</v>
+      </c>
+      <c r="M19" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N19" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="O19" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P19" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" t="s">
+        <v>430</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>391</v>
+      </c>
+      <c r="G20" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H20" t="s">
+        <v>332</v>
+      </c>
+      <c r="I20" t="s">
+        <v>432</v>
+      </c>
+      <c r="J20" t="s">
+        <v>336</v>
+      </c>
+      <c r="K20" t="s">
+        <v>433</v>
+      </c>
+      <c r="L20" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="M20" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N20" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="O20" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P20" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D21" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" t="s">
+        <v>430</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="G21" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H21" t="s">
+        <v>341</v>
+      </c>
+      <c r="I21" t="s">
+        <v>432</v>
+      </c>
+      <c r="J21" t="s">
+        <v>346</v>
+      </c>
+      <c r="K21" t="s">
+        <v>433</v>
+      </c>
+      <c r="L21" s="96" t="s">
+        <v>420</v>
+      </c>
+      <c r="M21" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N21" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="O21" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P21" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D22" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>397</v>
+      </c>
+      <c r="G22" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H22" t="s">
+        <v>341</v>
+      </c>
+      <c r="I22" t="s">
+        <v>432</v>
+      </c>
+      <c r="J22" t="s">
+        <v>350</v>
+      </c>
+      <c r="K22" t="s">
+        <v>433</v>
+      </c>
+      <c r="L22" s="95" t="s">
+        <v>423</v>
+      </c>
+      <c r="M22" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N22" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="O22" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P22" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D23" t="s">
+        <v>347</v>
+      </c>
+      <c r="E23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F23" s="88" t="s">
+        <v>396</v>
+      </c>
+      <c r="G23" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H23" t="s">
+        <v>341</v>
+      </c>
+      <c r="I23" t="s">
+        <v>432</v>
+      </c>
+      <c r="J23" t="s">
+        <v>348</v>
+      </c>
+      <c r="K23" t="s">
+        <v>433</v>
+      </c>
+      <c r="L23" s="96" t="s">
+        <v>421</v>
+      </c>
+      <c r="M23" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N23" s="88" t="s">
+        <v>410</v>
+      </c>
+      <c r="O23" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P23" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E24" t="s">
+        <v>430</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>405</v>
+      </c>
+      <c r="G24" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H24" t="s">
+        <v>368</v>
+      </c>
+      <c r="I24" t="s">
+        <v>432</v>
+      </c>
+      <c r="J24" t="s">
+        <v>370</v>
+      </c>
+      <c r="K24" t="s">
+        <v>433</v>
+      </c>
+      <c r="L24" s="96" t="s">
+        <v>424</v>
+      </c>
+      <c r="M24" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N24" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="O24" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P24" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>429</v>
+      </c>
+      <c r="B25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D25" t="s">
+        <v>359</v>
+      </c>
+      <c r="E25" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="G25" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H25" t="s">
+        <v>358</v>
+      </c>
+      <c r="I25" t="s">
+        <v>432</v>
+      </c>
+      <c r="J25" t="s">
+        <v>360</v>
+      </c>
+      <c r="K25" t="s">
+        <v>433</v>
+      </c>
+      <c r="L25" s="96" t="s">
+        <v>424</v>
+      </c>
+      <c r="M25" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N25" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="O25" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P25" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D26" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>403</v>
+      </c>
+      <c r="G26" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H26" t="s">
+        <v>358</v>
+      </c>
+      <c r="I26" t="s">
+        <v>432</v>
+      </c>
+      <c r="J26" t="s">
+        <v>362</v>
+      </c>
+      <c r="K26" t="s">
+        <v>433</v>
+      </c>
+      <c r="L26" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="M26" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N26" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="O26" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P26" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>429</v>
+      </c>
+      <c r="B27" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E27" t="s">
+        <v>430</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="G27" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H27" t="s">
+        <v>366</v>
+      </c>
+      <c r="I27" t="s">
+        <v>432</v>
+      </c>
+      <c r="J27" t="s">
+        <v>368</v>
+      </c>
+      <c r="K27" t="s">
+        <v>433</v>
+      </c>
+      <c r="L27" s="95" t="s">
+        <v>425</v>
+      </c>
+      <c r="M27" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N27" s="87" t="s">
+        <v>411</v>
+      </c>
+      <c r="O27" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P27" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E28" t="s">
+        <v>430</v>
+      </c>
+      <c r="F28" s="88" t="s">
+        <v>400</v>
+      </c>
+      <c r="G28" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H28" t="s">
+        <v>353</v>
+      </c>
+      <c r="I28" t="s">
+        <v>432</v>
+      </c>
+      <c r="J28" t="s">
+        <v>358</v>
+      </c>
+      <c r="K28" t="s">
+        <v>433</v>
+      </c>
+      <c r="L28" s="96" t="s">
+        <v>425</v>
+      </c>
+      <c r="M28" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N28" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="O28" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P28" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>429</v>
+      </c>
+      <c r="B29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E29" t="s">
+        <v>430</v>
+      </c>
+      <c r="F29" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H29" t="s">
+        <v>293</v>
+      </c>
+      <c r="I29" t="s">
+        <v>432</v>
+      </c>
+      <c r="J29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K29" t="s">
+        <v>433</v>
+      </c>
+      <c r="L29" s="95" t="s">
+        <v>418</v>
+      </c>
+      <c r="M29" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N29" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="O29" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P29" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>429</v>
+      </c>
+      <c r="B30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E30" t="s">
+        <v>430</v>
+      </c>
+      <c r="F30" s="88" t="s">
+        <v>377</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H30" t="s">
+        <v>301</v>
+      </c>
+      <c r="I30" t="s">
+        <v>432</v>
+      </c>
+      <c r="J30" t="s">
+        <v>303</v>
+      </c>
+      <c r="K30" t="s">
+        <v>433</v>
+      </c>
+      <c r="L30" s="95" t="s">
+        <v>418</v>
+      </c>
+      <c r="M30" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N30" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="O30" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P30" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>429</v>
+      </c>
+      <c r="B31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D31" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" t="s">
+        <v>430</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>374</v>
+      </c>
+      <c r="G31" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H31" t="s">
+        <v>288</v>
+      </c>
+      <c r="I31" t="s">
+        <v>432</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>433</v>
+      </c>
+      <c r="L31" s="97" t="s">
+        <v>416</v>
+      </c>
+      <c r="M31" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N31" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="O31" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P31" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>429</v>
+      </c>
+      <c r="B32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D32" t="s">
+        <v>291</v>
+      </c>
+      <c r="E32" t="s">
+        <v>430</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>375</v>
+      </c>
+      <c r="G32" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H32" t="s">
+        <v>288</v>
+      </c>
+      <c r="I32" t="s">
+        <v>432</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" t="s">
+        <v>433</v>
+      </c>
+      <c r="L32" s="97" t="s">
+        <v>417</v>
+      </c>
+      <c r="M32" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N32" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="O32" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P32" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>429</v>
+      </c>
+      <c r="B33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33" t="s">
+        <v>430</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H33" t="s">
+        <v>296</v>
+      </c>
+      <c r="I33" t="s">
+        <v>432</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>433</v>
+      </c>
+      <c r="L33" s="100" t="s">
+        <v>416</v>
+      </c>
+      <c r="M33" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N33" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="O33" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P33" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>429</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D34" t="s">
+        <v>299</v>
+      </c>
+      <c r="E34" t="s">
+        <v>430</v>
+      </c>
+      <c r="F34" s="88" t="s">
+        <v>379</v>
+      </c>
+      <c r="G34" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H34" t="s">
+        <v>296</v>
+      </c>
+      <c r="I34" t="s">
+        <v>432</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>433</v>
+      </c>
+      <c r="L34" s="97" t="s">
+        <v>417</v>
+      </c>
+      <c r="M34" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N34" s="88" t="s">
+        <v>408</v>
+      </c>
+      <c r="O34" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P34" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>429</v>
+      </c>
+      <c r="B35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" t="s">
+        <v>430</v>
+      </c>
+      <c r="F35" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" s="102" t="s">
+        <v>431</v>
+      </c>
+      <c r="H35" t="s">
+        <v>285</v>
+      </c>
+      <c r="I35" t="s">
+        <v>432</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>433</v>
+      </c>
+      <c r="L35" s="95" t="s">
+        <v>415</v>
+      </c>
+      <c r="M35" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="N35" s="87" t="s">
+        <v>408</v>
+      </c>
+      <c r="O35" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="P35" s="85" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="108"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="103"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J37" t="s">
+        <v>285</v>
+      </c>
+      <c r="L37" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O37" s="104"/>
+      <c r="P37" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F38" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H38" t="s">
+        <v>287</v>
+      </c>
+      <c r="J38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O38" s="104"/>
+      <c r="P38" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>283</v>
+      </c>
+      <c r="D39" t="s">
+        <v>283</v>
+      </c>
+      <c r="F39" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H39" t="s">
+        <v>292</v>
+      </c>
+      <c r="J39" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M39" s="99"/>
+      <c r="N39" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O39" s="104"/>
+      <c r="P39" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" t="s">
+        <v>283</v>
+      </c>
+      <c r="F40" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H40" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O40" s="104"/>
+      <c r="P40" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O41" s="104"/>
+      <c r="P41" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" t="s">
+        <v>283</v>
+      </c>
+      <c r="F42" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H42" t="s">
+        <v>300</v>
+      </c>
+      <c r="J42" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O42" s="104"/>
+      <c r="P42" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H43" t="s">
+        <v>303</v>
+      </c>
+      <c r="J43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L43" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M43" s="91"/>
+      <c r="N43" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O43" s="104"/>
+      <c r="P43" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H44" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" t="s">
+        <v>304</v>
+      </c>
+      <c r="L44" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O44" s="104"/>
+      <c r="P44" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" t="s">
+        <v>283</v>
+      </c>
+      <c r="F45" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H45" t="s">
+        <v>304</v>
+      </c>
+      <c r="J45" t="s">
+        <v>305</v>
+      </c>
+      <c r="L45" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O45" s="104"/>
+      <c r="P45" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H46" t="s">
+        <v>307</v>
+      </c>
+      <c r="J46" t="s">
+        <v>308</v>
+      </c>
+      <c r="L46" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O46" s="104"/>
+      <c r="P46" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" t="s">
+        <v>283</v>
+      </c>
+      <c r="F47" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H47" t="s">
+        <v>312</v>
+      </c>
+      <c r="J47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L47" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O47" s="104"/>
+      <c r="P47" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>283</v>
+      </c>
+      <c r="D48" t="s">
+        <v>283</v>
+      </c>
+      <c r="F48" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H48" t="s">
+        <v>315</v>
+      </c>
+      <c r="J48" t="s">
+        <v>308</v>
+      </c>
+      <c r="L48" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O48" s="104"/>
+      <c r="P48" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H49" t="s">
+        <v>310</v>
+      </c>
+      <c r="J49" t="s">
+        <v>316</v>
+      </c>
+      <c r="L49" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M49" s="91"/>
+      <c r="N49" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O49" s="104"/>
+      <c r="P49" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>283</v>
+      </c>
+      <c r="D50" t="s">
+        <v>283</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" t="s">
+        <v>321</v>
+      </c>
+      <c r="L50" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M50" s="91"/>
+      <c r="N50" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O50" s="104"/>
+      <c r="P50" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>283</v>
+      </c>
+      <c r="D51" t="s">
+        <v>283</v>
+      </c>
+      <c r="F51" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H51" t="s">
+        <v>323</v>
+      </c>
+      <c r="J51" t="s">
+        <v>308</v>
+      </c>
+      <c r="L51" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O51" s="104"/>
+      <c r="P51" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" t="s">
+        <v>283</v>
+      </c>
+      <c r="F52" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H52" t="s">
+        <v>318</v>
+      </c>
+      <c r="J52" t="s">
+        <v>324</v>
+      </c>
+      <c r="L52" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M52" s="99"/>
+      <c r="N52" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O52" s="104"/>
+      <c r="P52" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>283</v>
+      </c>
+      <c r="D53" t="s">
+        <v>283</v>
+      </c>
+      <c r="F53" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H53" t="s">
+        <v>328</v>
+      </c>
+      <c r="J53" t="s">
+        <v>329</v>
+      </c>
+      <c r="L53" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O53" s="104"/>
+      <c r="P53" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" t="s">
+        <v>283</v>
+      </c>
+      <c r="F54" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H54" t="s">
+        <v>331</v>
+      </c>
+      <c r="J54" t="s">
+        <v>324</v>
+      </c>
+      <c r="L54" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O54" s="104"/>
+      <c r="P54" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>283</v>
+      </c>
+      <c r="D55" t="s">
+        <v>283</v>
+      </c>
+      <c r="F55" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H55" t="s">
+        <v>326</v>
+      </c>
+      <c r="J55" t="s">
+        <v>332</v>
+      </c>
+      <c r="L55" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M55" s="91"/>
+      <c r="N55" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O55" s="104"/>
+      <c r="P55" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>283</v>
+      </c>
+      <c r="D56" t="s">
+        <v>283</v>
+      </c>
+      <c r="F56" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H56" t="s">
+        <v>340</v>
+      </c>
+      <c r="J56" t="s">
+        <v>341</v>
+      </c>
+      <c r="L56" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M56" s="91"/>
+      <c r="N56" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O56" s="104"/>
+      <c r="P56" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" t="s">
+        <v>283</v>
+      </c>
+      <c r="F57" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H57" t="s">
+        <v>336</v>
+      </c>
+      <c r="J57" t="s">
+        <v>342</v>
+      </c>
+      <c r="L57" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M57" s="99"/>
+      <c r="N57" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O57" s="104"/>
+      <c r="P57" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58" t="s">
+        <v>283</v>
+      </c>
+      <c r="F58" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H58" t="s">
+        <v>344</v>
+      </c>
+      <c r="J58" t="s">
+        <v>324</v>
+      </c>
+      <c r="L58" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M58" s="91"/>
+      <c r="N58" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O58" s="104"/>
+      <c r="P58" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" t="s">
+        <v>283</v>
+      </c>
+      <c r="F59" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H59" t="s">
+        <v>334</v>
+      </c>
+      <c r="J59" t="s">
+        <v>341</v>
+      </c>
+      <c r="L59" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M59" s="91"/>
+      <c r="N59" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O59" s="104"/>
+      <c r="P59" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" t="s">
+        <v>283</v>
+      </c>
+      <c r="F60" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H60" t="s">
+        <v>352</v>
+      </c>
+      <c r="J60" t="s">
+        <v>353</v>
+      </c>
+      <c r="L60" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O60" s="104"/>
+      <c r="P60" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>283</v>
+      </c>
+      <c r="D61" t="s">
+        <v>283</v>
+      </c>
+      <c r="F61" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H61" t="s">
+        <v>348</v>
+      </c>
+      <c r="J61" t="s">
+        <v>354</v>
+      </c>
+      <c r="L61" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M61" s="99"/>
+      <c r="N61" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O61" s="104"/>
+      <c r="P61" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" t="s">
+        <v>283</v>
+      </c>
+      <c r="F62" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H62" t="s">
+        <v>356</v>
+      </c>
+      <c r="J62" t="s">
+        <v>324</v>
+      </c>
+      <c r="L62" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M62" s="99"/>
+      <c r="N62" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O62" s="104"/>
+      <c r="P62" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" t="s">
+        <v>283</v>
+      </c>
+      <c r="F63" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H63" t="s">
+        <v>346</v>
+      </c>
+      <c r="J63" t="s">
+        <v>353</v>
+      </c>
+      <c r="L63" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M63" s="99"/>
+      <c r="N63" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O63" s="104"/>
+      <c r="P63" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>283</v>
+      </c>
+      <c r="D64" t="s">
+        <v>283</v>
+      </c>
+      <c r="F64" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H64" t="s">
+        <v>362</v>
+      </c>
+      <c r="J64" t="s">
+        <v>363</v>
+      </c>
+      <c r="L64" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M64" s="91"/>
+      <c r="N64" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O64" s="104"/>
+      <c r="P64" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65" t="s">
+        <v>283</v>
+      </c>
+      <c r="F65" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H65" t="s">
+        <v>365</v>
+      </c>
+      <c r="J65" t="s">
+        <v>324</v>
+      </c>
+      <c r="L65" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M65" s="91"/>
+      <c r="N65" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O65" s="104"/>
+      <c r="P65" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" t="s">
+        <v>283</v>
+      </c>
+      <c r="F66" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H66" t="s">
+        <v>360</v>
+      </c>
+      <c r="J66" t="s">
+        <v>366</v>
+      </c>
+      <c r="L66" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="M66" s="99"/>
+      <c r="N66" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="O66" s="104"/>
+      <c r="P66" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67" t="s">
+        <v>283</v>
+      </c>
+      <c r="F67" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H67" t="s">
+        <v>370</v>
+      </c>
+      <c r="J67" t="s">
+        <v>269</v>
+      </c>
+      <c r="L67" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M67" s="91"/>
+      <c r="N67" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O67" s="104"/>
+      <c r="P67" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F68" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="H68" t="s">
+        <v>372</v>
+      </c>
+      <c r="J68" t="s">
+        <v>373</v>
+      </c>
+      <c r="L68" s="91" t="s">
+        <v>414</v>
+      </c>
+      <c r="M68" s="91"/>
+      <c r="N68" s="91" t="s">
+        <v>407</v>
+      </c>
+      <c r="O68" s="104"/>
+      <c r="P68" s="85" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:I78">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/all-in-one(May.9).xlsx
+++ b/all-in-one(May.9).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="360" yWindow="132" windowWidth="20112" windowHeight="12072" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="132" windowWidth="20112" windowHeight="12072" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Use-Cases" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="states" sheetId="11" r:id="rId9"/>
     <sheet name="t_transitions" sheetId="9" r:id="rId10"/>
     <sheet name="next_rel" sheetId="10" r:id="rId11"/>
+    <sheet name="actions_new" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="569">
   <si>
     <t>Use Case ID</t>
   </si>
@@ -2040,6 +2041,150 @@
   </si>
   <si>
     <t>{}'),</t>
+  </si>
+  <si>
+    <t>name_key</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>workflow.start</t>
+  </si>
+  <si>
+    <t>Process.Workflow</t>
+  </si>
+  <si>
+    <t>ContractPendingCorrectionL1Issue</t>
+  </si>
+  <si>
+    <t>Workflow started</t>
+  </si>
+  <si>
+    <t>Template was Prepared</t>
+  </si>
+  <si>
+    <t>Template has been Approved by PartA</t>
+  </si>
+  <si>
+    <t>Template has been Approved by PartB and Template is Fixed</t>
+  </si>
+  <si>
+    <t>Contract has been Prepared</t>
+  </si>
+  <si>
+    <t>Contract Level1 Approved</t>
+  </si>
+  <si>
+    <t>Template issue was Corrected based on PartA's requirement</t>
+  </si>
+  <si>
+    <t>Template issue was Corrected based on PartB's requirement</t>
+  </si>
+  <si>
+    <t>Contract Level2 Approved</t>
+  </si>
+  <si>
+    <t>Contract Level3 Approved</t>
+  </si>
+  <si>
+    <t>Contract Level4 Approved</t>
+  </si>
+  <si>
+    <t>Contract Level4 Approved, but with condition of correction</t>
+  </si>
+  <si>
+    <t>Contract issue that reported from Level4 staff has been corrected</t>
+  </si>
+  <si>
+    <t>Contract issue that reported from Level3 staff has been corrected</t>
+  </si>
+  <si>
+    <t>Contract issue that reported from Level2 staff has been corrected</t>
+  </si>
+  <si>
+    <t>Contract issue that reported from Level1 staff has been corrected</t>
+  </si>
+  <si>
+    <t>Contract pre-approved issue that reported from Level4 staff has been corrected</t>
+  </si>
+  <si>
+    <t>Contract Level5 Approved</t>
+  </si>
+  <si>
+    <t>Contract Level5 Approved, but with condition of correction</t>
+  </si>
+  <si>
+    <t>Contract issue that reported from Level5 staff has been corrected</t>
+  </si>
+  <si>
+    <t>Contract pre-approved issue that reported from Level5 staff has been corrected</t>
+  </si>
+  <si>
+    <t>PartB has been Signed</t>
+  </si>
+  <si>
+    <t>PartB has been Declined Sign, modification required</t>
+  </si>
+  <si>
+    <t>Contract issue that reported from Part-B staff has been corrected</t>
+  </si>
+  <si>
+    <t>Finalized (backup...)</t>
+  </si>
+  <si>
+    <t>PartA has been Signed</t>
+  </si>
+  <si>
+    <t>Decline Sign Contract as Part A</t>
+  </si>
+  <si>
+    <t>ContractPendingCorrectionSignIssueFromPartA</t>
+  </si>
+  <si>
+    <t>Contract Correction for Part A</t>
+  </si>
+  <si>
+    <t>Contract issue that reported from Part-A staff has been corrected</t>
+  </si>
+  <si>
+    <t>PartA has been Declined Sign, modification required</t>
+  </si>
+  <si>
+    <t>Contract Level5 Declined, modification required</t>
+  </si>
+  <si>
+    <t>Contract Level4 Declined, modification required</t>
+  </si>
+  <si>
+    <t>Contract Level3 Declined, modification required</t>
+  </si>
+  <si>
+    <t>Contract Level2 Declined, modification required</t>
+  </si>
+  <si>
+    <t>Contract Level1 Declined, modification required</t>
+  </si>
+  <si>
+    <t>Template has been Declined by PartB, modification required</t>
+  </si>
+  <si>
+    <t>Template has been Declined by PartA, modification required</t>
+  </si>
+  <si>
+    <t>partASignDecline</t>
+  </si>
+  <si>
+    <t>contractCorrectionSignPartA</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +2387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2395,6 +2540,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,7 +2765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2754,6 +2905,12 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,12 +2971,43 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="4" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -3142,11 +3330,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3158,10 +3346,10 @@
       <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="87"/>
+      <c r="E2" s="93"/>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -3473,8 +3661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3495,13 +3683,13 @@
       <c r="C2" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="86" t="s">
         <v>437</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="F2" s="89" t="s">
         <v>462</v>
       </c>
       <c r="G2" s="61" t="s">
@@ -3524,13 +3712,13 @@
       <c r="C3" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="86" t="s">
         <v>438</v>
       </c>
       <c r="E3" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="89" t="s">
         <v>478</v>
       </c>
       <c r="G3" s="61" t="s">
@@ -3553,13 +3741,13 @@
       <c r="C4" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="86" t="s">
         <v>439</v>
       </c>
       <c r="E4" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F4" s="113" t="s">
+      <c r="F4" s="89" t="s">
         <v>465</v>
       </c>
       <c r="G4" s="61" t="s">
@@ -3582,13 +3770,13 @@
       <c r="C5" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="86" t="s">
         <v>440</v>
       </c>
       <c r="E5" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="89" t="s">
         <v>468</v>
       </c>
       <c r="G5" s="61" t="s">
@@ -3611,13 +3799,13 @@
       <c r="C6" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="86" t="s">
         <v>441</v>
       </c>
       <c r="E6" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="89" t="s">
         <v>472</v>
       </c>
       <c r="G6" s="61" t="s">
@@ -3640,13 +3828,13 @@
       <c r="C7" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="86" t="s">
         <v>442</v>
       </c>
       <c r="E7" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="89" t="s">
         <v>470</v>
       </c>
       <c r="G7" s="61" t="s">
@@ -3669,13 +3857,13 @@
       <c r="C8" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="86" t="s">
         <v>443</v>
       </c>
       <c r="E8" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="89" t="s">
         <v>476</v>
       </c>
       <c r="G8" s="61" t="s">
@@ -3698,13 +3886,13 @@
       <c r="C9" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="86" t="s">
         <v>444</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="89" t="s">
         <v>474</v>
       </c>
       <c r="G9" s="61" t="s">
@@ -3727,13 +3915,13 @@
       <c r="C10" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="86" t="s">
         <v>445</v>
       </c>
       <c r="E10" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F10" s="113" t="s">
+      <c r="F10" s="89" t="s">
         <v>460</v>
       </c>
       <c r="G10" s="61" t="s">
@@ -3756,13 +3944,13 @@
       <c r="C11" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="86" t="s">
         <v>269</v>
       </c>
       <c r="E11" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="89" t="s">
         <v>372</v>
       </c>
       <c r="G11" s="61" t="s">
@@ -3785,13 +3973,13 @@
       <c r="C12" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="86" t="s">
         <v>308</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="89" t="s">
         <v>463</v>
       </c>
       <c r="G12" s="61" t="s">
@@ -3814,13 +4002,13 @@
       <c r="C13" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="86" t="s">
         <v>308</v>
       </c>
       <c r="E13" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F13" s="113" t="s">
+      <c r="F13" s="89" t="s">
         <v>461</v>
       </c>
       <c r="G13" s="61" t="s">
@@ -3843,13 +4031,13 @@
       <c r="C14" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="86" t="s">
         <v>316</v>
       </c>
       <c r="E14" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F14" s="113" t="s">
+      <c r="F14" s="89" t="s">
         <v>466</v>
       </c>
       <c r="G14" s="61" t="s">
@@ -3872,13 +4060,13 @@
       <c r="C15" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="86" t="s">
         <v>316</v>
       </c>
       <c r="E15" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F15" s="113" t="s">
+      <c r="F15" s="89" t="s">
         <v>464</v>
       </c>
       <c r="G15" s="61" t="s">
@@ -3901,13 +4089,13 @@
       <c r="C16" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="86" t="s">
         <v>324</v>
       </c>
       <c r="E16" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="89" t="s">
         <v>469</v>
       </c>
       <c r="G16" s="61" t="s">
@@ -3930,13 +4118,13 @@
       <c r="C17" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="86" t="s">
         <v>324</v>
       </c>
       <c r="E17" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F17" s="113" t="s">
+      <c r="F17" s="89" t="s">
         <v>467</v>
       </c>
       <c r="G17" s="61" t="s">
@@ -3959,13 +4147,13 @@
       <c r="C18" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="86" t="s">
         <v>332</v>
       </c>
       <c r="E18" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="89" t="s">
         <v>473</v>
       </c>
       <c r="G18" s="61" t="s">
@@ -3988,13 +4176,13 @@
       <c r="C19" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="86" t="s">
         <v>332</v>
       </c>
       <c r="E19" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F19" s="113" t="s">
+      <c r="F19" s="89" t="s">
         <v>442</v>
       </c>
       <c r="G19" s="61" t="s">
@@ -4017,13 +4205,13 @@
       <c r="C20" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="86" t="s">
         <v>332</v>
       </c>
       <c r="E20" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F20" s="113" t="s">
+      <c r="F20" s="89" t="s">
         <v>471</v>
       </c>
       <c r="G20" s="61" t="s">
@@ -4046,13 +4234,13 @@
       <c r="C21" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="86" t="s">
         <v>341</v>
       </c>
       <c r="E21" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="89" t="s">
         <v>477</v>
       </c>
       <c r="G21" s="61" t="s">
@@ -4075,13 +4263,13 @@
       <c r="C22" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="86" t="s">
         <v>341</v>
       </c>
       <c r="E22" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F22" s="113" t="s">
+      <c r="F22" s="89" t="s">
         <v>444</v>
       </c>
       <c r="G22" s="61" t="s">
@@ -4104,13 +4292,13 @@
       <c r="C23" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="86" t="s">
         <v>341</v>
       </c>
       <c r="E23" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F23" s="113" t="s">
+      <c r="F23" s="89" t="s">
         <v>475</v>
       </c>
       <c r="G23" s="61" t="s">
@@ -4133,13 +4321,13 @@
       <c r="C24" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="86" t="s">
         <v>368</v>
       </c>
       <c r="E24" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F24" s="113" t="s">
+      <c r="F24" s="89" t="s">
         <v>370</v>
       </c>
       <c r="G24" s="61" t="s">
@@ -4162,13 +4350,13 @@
       <c r="C25" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="86" t="s">
         <v>358</v>
       </c>
       <c r="E25" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F25" s="113" t="s">
+      <c r="F25" s="89" t="s">
         <v>360</v>
       </c>
       <c r="G25" s="61" t="s">
@@ -4191,13 +4379,13 @@
       <c r="C26" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="86" t="s">
         <v>358</v>
       </c>
       <c r="E26" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F26" s="113" t="s">
+      <c r="F26" s="89" t="s">
         <v>362</v>
       </c>
       <c r="G26" s="61" t="s">
@@ -4220,13 +4408,13 @@
       <c r="C27" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D27" s="110" t="s">
+      <c r="D27" s="86" t="s">
         <v>366</v>
       </c>
       <c r="E27" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F27" s="113" t="s">
+      <c r="F27" s="89" t="s">
         <v>368</v>
       </c>
       <c r="G27" s="61" t="s">
@@ -4249,13 +4437,13 @@
       <c r="C28" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D28" s="110" t="s">
+      <c r="D28" s="86" t="s">
         <v>353</v>
       </c>
       <c r="E28" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F28" s="113" t="s">
+      <c r="F28" s="89" t="s">
         <v>358</v>
       </c>
       <c r="G28" s="61" t="s">
@@ -4278,13 +4466,13 @@
       <c r="C29" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="86" t="s">
         <v>446</v>
       </c>
       <c r="E29" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F29" s="113" t="s">
+      <c r="F29" s="89" t="s">
         <v>454</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -4307,13 +4495,13 @@
       <c r="C30" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D30" s="110" t="s">
+      <c r="D30" s="86" t="s">
         <v>447</v>
       </c>
       <c r="E30" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="89" t="s">
         <v>457</v>
       </c>
       <c r="G30" s="61" t="s">
@@ -4336,13 +4524,13 @@
       <c r="C31" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="86" t="s">
         <v>448</v>
       </c>
       <c r="E31" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F31" s="113" t="s">
+      <c r="F31" s="89" t="s">
         <v>455</v>
       </c>
       <c r="G31" s="61" t="s">
@@ -4365,13 +4553,13 @@
       <c r="C32" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="86" t="s">
         <v>448</v>
       </c>
       <c r="E32" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F32" s="113" t="s">
+      <c r="F32" s="89" t="s">
         <v>453</v>
       </c>
       <c r="G32" s="61" t="s">
@@ -4394,13 +4582,13 @@
       <c r="C33" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="86" t="s">
         <v>449</v>
       </c>
       <c r="E33" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F33" s="113" t="s">
+      <c r="F33" s="89" t="s">
         <v>458</v>
       </c>
       <c r="G33" s="61" t="s">
@@ -4423,13 +4611,13 @@
       <c r="C34" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="86" t="s">
         <v>449</v>
       </c>
       <c r="E34" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F34" s="113" t="s">
+      <c r="F34" s="89" t="s">
         <v>456</v>
       </c>
       <c r="G34" s="61" t="s">
@@ -4452,13 +4640,13 @@
       <c r="C35" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="86" t="s">
         <v>450</v>
       </c>
       <c r="E35" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F35" s="113" t="s">
+      <c r="F35" s="89" t="s">
         <v>452</v>
       </c>
       <c r="G35" s="61" t="s">
@@ -4481,13 +4669,13 @@
       <c r="C36" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="86" t="s">
         <v>451</v>
       </c>
       <c r="E36" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F36" s="113" t="s">
+      <c r="F36" s="89" t="s">
         <v>450</v>
       </c>
       <c r="G36" s="61" t="s">
@@ -4510,13 +4698,13 @@
       <c r="C37" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="86" t="s">
         <v>452</v>
       </c>
       <c r="E37" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F37" s="113" t="s">
+      <c r="F37" s="89" t="s">
         <v>448</v>
       </c>
       <c r="G37" s="61" t="s">
@@ -4539,13 +4727,13 @@
       <c r="C38" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D38" s="86" t="s">
         <v>453</v>
       </c>
       <c r="E38" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F38" s="113" t="s">
+      <c r="F38" s="89" t="s">
         <v>446</v>
       </c>
       <c r="G38" s="61" t="s">
@@ -4568,13 +4756,13 @@
       <c r="C39" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D39" s="110" t="s">
+      <c r="D39" s="86" t="s">
         <v>454</v>
       </c>
       <c r="E39" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F39" s="113" t="s">
+      <c r="F39" s="89" t="s">
         <v>448</v>
       </c>
       <c r="G39" s="61" t="s">
@@ -4597,13 +4785,13 @@
       <c r="C40" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="86" t="s">
         <v>455</v>
       </c>
       <c r="E40" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F40" s="113" t="s">
+      <c r="F40" s="89" t="s">
         <v>449</v>
       </c>
       <c r="G40" s="61" t="s">
@@ -4626,13 +4814,13 @@
       <c r="C41" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D41" s="86" t="s">
         <v>456</v>
       </c>
       <c r="E41" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F41" s="113" t="s">
+      <c r="F41" s="89" t="s">
         <v>447</v>
       </c>
       <c r="G41" s="61" t="s">
@@ -4655,13 +4843,13 @@
       <c r="C42" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="D42" s="86" t="s">
         <v>457</v>
       </c>
       <c r="E42" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F42" s="113" t="s">
+      <c r="F42" s="89" t="s">
         <v>449</v>
       </c>
       <c r="G42" s="61" t="s">
@@ -4684,13 +4872,13 @@
       <c r="C43" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="86" t="s">
         <v>458</v>
       </c>
       <c r="E43" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F43" s="113" t="s">
+      <c r="F43" s="89" t="s">
         <v>459</v>
       </c>
       <c r="G43" s="61" t="s">
@@ -4713,13 +4901,13 @@
       <c r="C44" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D44" s="110" t="s">
+      <c r="D44" s="86" t="s">
         <v>459</v>
       </c>
       <c r="E44" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F44" s="113" t="s">
+      <c r="F44" s="89" t="s">
         <v>445</v>
       </c>
       <c r="G44" s="61" t="s">
@@ -4742,13 +4930,13 @@
       <c r="C45" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="86" t="s">
         <v>460</v>
       </c>
       <c r="E45" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F45" s="113" t="s">
+      <c r="F45" s="89" t="s">
         <v>308</v>
       </c>
       <c r="G45" s="61" t="s">
@@ -4771,13 +4959,13 @@
       <c r="C46" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D46" s="110" t="s">
+      <c r="D46" s="86" t="s">
         <v>461</v>
       </c>
       <c r="E46" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F46" s="113" t="s">
+      <c r="F46" s="89" t="s">
         <v>437</v>
       </c>
       <c r="G46" s="61" t="s">
@@ -4800,13 +4988,13 @@
       <c r="C47" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D47" s="110" t="s">
+      <c r="D47" s="86" t="s">
         <v>462</v>
       </c>
       <c r="E47" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F47" s="113" t="s">
+      <c r="F47" s="89" t="s">
         <v>308</v>
       </c>
       <c r="G47" s="61" t="s">
@@ -4829,13 +5017,13 @@
       <c r="C48" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="D48" s="86" t="s">
         <v>463</v>
       </c>
       <c r="E48" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F48" s="113" t="s">
+      <c r="F48" s="89" t="s">
         <v>316</v>
       </c>
       <c r="G48" s="61" t="s">
@@ -4858,13 +5046,13 @@
       <c r="C49" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="86" t="s">
         <v>464</v>
       </c>
       <c r="E49" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F49" s="113" t="s">
+      <c r="F49" s="89" t="s">
         <v>439</v>
       </c>
       <c r="G49" s="61" t="s">
@@ -4887,13 +5075,13 @@
       <c r="C50" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D50" s="110" t="s">
+      <c r="D50" s="86" t="s">
         <v>465</v>
       </c>
       <c r="E50" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F50" s="113" t="s">
+      <c r="F50" s="89" t="s">
         <v>308</v>
       </c>
       <c r="G50" s="61" t="s">
@@ -4916,13 +5104,13 @@
       <c r="C51" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D51" s="110" t="s">
+      <c r="D51" s="86" t="s">
         <v>466</v>
       </c>
       <c r="E51" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F51" s="113" t="s">
+      <c r="F51" s="89" t="s">
         <v>324</v>
       </c>
       <c r="G51" s="61" t="s">
@@ -4945,13 +5133,13 @@
       <c r="C52" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D52" s="110" t="s">
+      <c r="D52" s="86" t="s">
         <v>467</v>
       </c>
       <c r="E52" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F52" s="113" t="s">
+      <c r="F52" s="89" t="s">
         <v>440</v>
       </c>
       <c r="G52" s="61" t="s">
@@ -4974,13 +5162,13 @@
       <c r="C53" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D53" s="110" t="s">
+      <c r="D53" s="86" t="s">
         <v>468</v>
       </c>
       <c r="E53" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F53" s="113" t="s">
+      <c r="F53" s="89" t="s">
         <v>324</v>
       </c>
       <c r="G53" s="61" t="s">
@@ -5003,13 +5191,13 @@
       <c r="C54" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D54" s="110" t="s">
+      <c r="D54" s="86" t="s">
         <v>469</v>
       </c>
       <c r="E54" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F54" s="113" t="s">
+      <c r="F54" s="89" t="s">
         <v>332</v>
       </c>
       <c r="G54" s="61" t="s">
@@ -5032,13 +5220,13 @@
       <c r="C55" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D55" s="110" t="s">
+      <c r="D55" s="86" t="s">
         <v>470</v>
       </c>
       <c r="E55" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F55" s="113" t="s">
+      <c r="F55" s="89" t="s">
         <v>341</v>
       </c>
       <c r="G55" s="61" t="s">
@@ -5061,13 +5249,13 @@
       <c r="C56" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D56" s="110" t="s">
+      <c r="D56" s="86" t="s">
         <v>471</v>
       </c>
       <c r="E56" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F56" s="113" t="s">
+      <c r="F56" s="89" t="s">
         <v>441</v>
       </c>
       <c r="G56" s="61" t="s">
@@ -5090,13 +5278,13 @@
       <c r="C57" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D57" s="110" t="s">
+      <c r="D57" s="86" t="s">
         <v>472</v>
       </c>
       <c r="E57" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F57" s="113" t="s">
+      <c r="F57" s="89" t="s">
         <v>324</v>
       </c>
       <c r="G57" s="61" t="s">
@@ -5119,13 +5307,13 @@
       <c r="C58" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D58" s="110" t="s">
+      <c r="D58" s="86" t="s">
         <v>473</v>
       </c>
       <c r="E58" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F58" s="113" t="s">
+      <c r="F58" s="89" t="s">
         <v>341</v>
       </c>
       <c r="G58" s="61" t="s">
@@ -5148,13 +5336,13 @@
       <c r="C59" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D59" s="110" t="s">
+      <c r="D59" s="86" t="s">
         <v>474</v>
       </c>
       <c r="E59" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F59" s="113" t="s">
+      <c r="F59" s="89" t="s">
         <v>353</v>
       </c>
       <c r="G59" s="61" t="s">
@@ -5177,13 +5365,13 @@
       <c r="C60" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D60" s="110" t="s">
+      <c r="D60" s="86" t="s">
         <v>475</v>
       </c>
       <c r="E60" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F60" s="113" t="s">
+      <c r="F60" s="89" t="s">
         <v>443</v>
       </c>
       <c r="G60" s="61" t="s">
@@ -5206,13 +5394,13 @@
       <c r="C61" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D61" s="110" t="s">
+      <c r="D61" s="86" t="s">
         <v>476</v>
       </c>
       <c r="E61" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F61" s="113" t="s">
+      <c r="F61" s="89" t="s">
         <v>324</v>
       </c>
       <c r="G61" s="61" t="s">
@@ -5235,13 +5423,13 @@
       <c r="C62" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D62" s="110" t="s">
+      <c r="D62" s="86" t="s">
         <v>477</v>
       </c>
       <c r="E62" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F62" s="113" t="s">
+      <c r="F62" s="89" t="s">
         <v>353</v>
       </c>
       <c r="G62" s="61" t="s">
@@ -5264,13 +5452,13 @@
       <c r="C63" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D63" s="110" t="s">
+      <c r="D63" s="86" t="s">
         <v>362</v>
       </c>
       <c r="E63" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F63" s="113" t="s">
+      <c r="F63" s="89" t="s">
         <v>438</v>
       </c>
       <c r="G63" s="61" t="s">
@@ -5293,13 +5481,13 @@
       <c r="C64" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D64" s="110" t="s">
+      <c r="D64" s="86" t="s">
         <v>478</v>
       </c>
       <c r="E64" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F64" s="113" t="s">
+      <c r="F64" s="89" t="s">
         <v>324</v>
       </c>
       <c r="G64" s="61" t="s">
@@ -5322,13 +5510,13 @@
       <c r="C65" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D65" s="110" t="s">
+      <c r="D65" s="86" t="s">
         <v>360</v>
       </c>
       <c r="E65" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F65" s="113" t="s">
+      <c r="F65" s="89" t="s">
         <v>366</v>
       </c>
       <c r="G65" s="61" t="s">
@@ -5351,13 +5539,13 @@
       <c r="C66" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D66" s="110" t="s">
+      <c r="D66" s="86" t="s">
         <v>370</v>
       </c>
       <c r="E66" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F66" s="113" t="s">
+      <c r="F66" s="89" t="s">
         <v>269</v>
       </c>
       <c r="G66" s="61" t="s">
@@ -5380,13 +5568,13 @@
       <c r="C67" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="D67" s="110" t="s">
+      <c r="D67" s="86" t="s">
         <v>372</v>
       </c>
       <c r="E67" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="F67" s="113" t="s">
+      <c r="F67" s="89" t="s">
         <v>373</v>
       </c>
       <c r="G67" s="61" t="s">
@@ -5425,13 +5613,13 @@
       <c r="A1" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="86" t="s">
         <v>451</v>
       </c>
       <c r="C1" t="s">
         <v>431</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="89" t="s">
         <v>450</v>
       </c>
       <c r="E1" t="s">
@@ -5442,13 +5630,13 @@
       <c r="A2" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="86" t="s">
         <v>452</v>
       </c>
       <c r="C2" t="s">
         <v>431</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="89" t="s">
         <v>448</v>
       </c>
       <c r="E2" t="s">
@@ -5459,13 +5647,13 @@
       <c r="A3" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="86" t="s">
         <v>453</v>
       </c>
       <c r="C3" t="s">
         <v>431</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="89" t="s">
         <v>446</v>
       </c>
       <c r="E3" t="s">
@@ -5476,13 +5664,13 @@
       <c r="A4" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="86" t="s">
         <v>454</v>
       </c>
       <c r="C4" t="s">
         <v>431</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="89" t="s">
         <v>448</v>
       </c>
       <c r="E4" t="s">
@@ -5493,13 +5681,13 @@
       <c r="A5" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="86" t="s">
         <v>455</v>
       </c>
       <c r="C5" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="89" t="s">
         <v>449</v>
       </c>
       <c r="E5" t="s">
@@ -5510,13 +5698,13 @@
       <c r="A6" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="86" t="s">
         <v>456</v>
       </c>
       <c r="C6" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="89" t="s">
         <v>447</v>
       </c>
       <c r="E6" t="s">
@@ -5527,13 +5715,13 @@
       <c r="A7" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="86" t="s">
         <v>457</v>
       </c>
       <c r="C7" t="s">
         <v>431</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="89" t="s">
         <v>449</v>
       </c>
       <c r="E7" t="s">
@@ -5544,13 +5732,13 @@
       <c r="A8" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="86" t="s">
         <v>458</v>
       </c>
       <c r="C8" t="s">
         <v>431</v>
       </c>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="89" t="s">
         <v>459</v>
       </c>
       <c r="E8" t="s">
@@ -5561,13 +5749,13 @@
       <c r="A9" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="86" t="s">
         <v>459</v>
       </c>
       <c r="C9" t="s">
         <v>431</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="89" t="s">
         <v>445</v>
       </c>
       <c r="E9" t="s">
@@ -5578,13 +5766,13 @@
       <c r="A10" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="86" t="s">
         <v>460</v>
       </c>
       <c r="C10" t="s">
         <v>431</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="89" t="s">
         <v>308</v>
       </c>
       <c r="E10" t="s">
@@ -5595,13 +5783,13 @@
       <c r="A11" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="86" t="s">
         <v>461</v>
       </c>
       <c r="C11" t="s">
         <v>431</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="89" t="s">
         <v>437</v>
       </c>
       <c r="E11" t="s">
@@ -5612,13 +5800,13 @@
       <c r="A12" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="86" t="s">
         <v>462</v>
       </c>
       <c r="C12" t="s">
         <v>431</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="89" t="s">
         <v>308</v>
       </c>
       <c r="E12" t="s">
@@ -5629,13 +5817,13 @@
       <c r="A13" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="86" t="s">
         <v>463</v>
       </c>
       <c r="C13" t="s">
         <v>431</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="89" t="s">
         <v>316</v>
       </c>
       <c r="E13" t="s">
@@ -5646,13 +5834,13 @@
       <c r="A14" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="86" t="s">
         <v>464</v>
       </c>
       <c r="C14" t="s">
         <v>431</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="89" t="s">
         <v>439</v>
       </c>
       <c r="E14" t="s">
@@ -5663,13 +5851,13 @@
       <c r="A15" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="86" t="s">
         <v>465</v>
       </c>
       <c r="C15" t="s">
         <v>431</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="89" t="s">
         <v>308</v>
       </c>
       <c r="E15" t="s">
@@ -5680,13 +5868,13 @@
       <c r="A16" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="86" t="s">
         <v>466</v>
       </c>
       <c r="C16" t="s">
         <v>431</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="89" t="s">
         <v>324</v>
       </c>
       <c r="E16" t="s">
@@ -5697,13 +5885,13 @@
       <c r="A17" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="86" t="s">
         <v>467</v>
       </c>
       <c r="C17" t="s">
         <v>431</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="89" t="s">
         <v>440</v>
       </c>
       <c r="E17" t="s">
@@ -5714,13 +5902,13 @@
       <c r="A18" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="86" t="s">
         <v>468</v>
       </c>
       <c r="C18" t="s">
         <v>431</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="89" t="s">
         <v>324</v>
       </c>
       <c r="E18" t="s">
@@ -5731,13 +5919,13 @@
       <c r="A19" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="86" t="s">
         <v>469</v>
       </c>
       <c r="C19" t="s">
         <v>431</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="89" t="s">
         <v>332</v>
       </c>
       <c r="E19" t="s">
@@ -5748,13 +5936,13 @@
       <c r="A20" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="86" t="s">
         <v>470</v>
       </c>
       <c r="C20" t="s">
         <v>431</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="89" t="s">
         <v>341</v>
       </c>
       <c r="E20" t="s">
@@ -5765,13 +5953,13 @@
       <c r="A21" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="86" t="s">
         <v>471</v>
       </c>
       <c r="C21" t="s">
         <v>431</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="89" t="s">
         <v>441</v>
       </c>
       <c r="E21" t="s">
@@ -5782,13 +5970,13 @@
       <c r="A22" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="86" t="s">
         <v>472</v>
       </c>
       <c r="C22" t="s">
         <v>431</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="D22" s="89" t="s">
         <v>324</v>
       </c>
       <c r="E22" t="s">
@@ -5799,13 +5987,13 @@
       <c r="A23" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="86" t="s">
         <v>473</v>
       </c>
       <c r="C23" t="s">
         <v>431</v>
       </c>
-      <c r="D23" s="113" t="s">
+      <c r="D23" s="89" t="s">
         <v>341</v>
       </c>
       <c r="E23" t="s">
@@ -5816,13 +6004,13 @@
       <c r="A24" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="86" t="s">
         <v>474</v>
       </c>
       <c r="C24" t="s">
         <v>431</v>
       </c>
-      <c r="D24" s="113" t="s">
+      <c r="D24" s="89" t="s">
         <v>353</v>
       </c>
       <c r="E24" t="s">
@@ -5833,13 +6021,13 @@
       <c r="A25" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="86" t="s">
         <v>475</v>
       </c>
       <c r="C25" t="s">
         <v>431</v>
       </c>
-      <c r="D25" s="113" t="s">
+      <c r="D25" s="89" t="s">
         <v>443</v>
       </c>
       <c r="E25" t="s">
@@ -5850,13 +6038,13 @@
       <c r="A26" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="86" t="s">
         <v>476</v>
       </c>
       <c r="C26" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="89" t="s">
         <v>324</v>
       </c>
       <c r="E26" t="s">
@@ -5867,13 +6055,13 @@
       <c r="A27" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="86" t="s">
         <v>477</v>
       </c>
       <c r="C27" t="s">
         <v>431</v>
       </c>
-      <c r="D27" s="113" t="s">
+      <c r="D27" s="89" t="s">
         <v>353</v>
       </c>
       <c r="E27" t="s">
@@ -5884,13 +6072,13 @@
       <c r="A28" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="86" t="s">
         <v>362</v>
       </c>
       <c r="C28" t="s">
         <v>431</v>
       </c>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="89" t="s">
         <v>438</v>
       </c>
       <c r="E28" t="s">
@@ -5901,13 +6089,13 @@
       <c r="A29" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="86" t="s">
         <v>478</v>
       </c>
       <c r="C29" t="s">
         <v>431</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="89" t="s">
         <v>324</v>
       </c>
       <c r="E29" t="s">
@@ -5918,13 +6106,13 @@
       <c r="A30" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="86" t="s">
         <v>360</v>
       </c>
       <c r="C30" t="s">
         <v>431</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="89" t="s">
         <v>366</v>
       </c>
       <c r="E30" t="s">
@@ -5935,13 +6123,13 @@
       <c r="A31" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="86" t="s">
         <v>370</v>
       </c>
       <c r="C31" t="s">
         <v>431</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="89" t="s">
         <v>269</v>
       </c>
       <c r="E31" t="s">
@@ -5952,13 +6140,13 @@
       <c r="A32" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="86" t="s">
         <v>372</v>
       </c>
       <c r="C32" t="s">
         <v>431</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="89" t="s">
         <v>373</v>
       </c>
       <c r="E32" t="s">
@@ -5967,6 +6155,1536 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" customWidth="1"/>
+    <col min="4" max="4" width="3.77734375" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="67.33203125" customWidth="1"/>
+    <col min="10" max="11" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="116" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="115" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1" s="115" t="s">
+        <v>523</v>
+      </c>
+      <c r="J1" s="115" t="s">
+        <v>522</v>
+      </c>
+      <c r="K1" s="115" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>451</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="123" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="124" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2" s="125" t="s">
+        <v>526</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>527</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="126" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="129" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="148"/>
+      <c r="E3" s="127" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="128" t="s">
+        <v>448</v>
+      </c>
+      <c r="G3" s="134" t="s">
+        <v>415</v>
+      </c>
+      <c r="H3" s="134" t="s">
+        <v>408</v>
+      </c>
+      <c r="I3" s="128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="149"/>
+      <c r="E4" s="123" t="s">
+        <v>448</v>
+      </c>
+      <c r="F4" s="124" t="s">
+        <v>449</v>
+      </c>
+      <c r="G4" s="131" t="s">
+        <v>416</v>
+      </c>
+      <c r="H4" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="I4" s="124" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="149"/>
+      <c r="E5" s="123" t="s">
+        <v>448</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>446</v>
+      </c>
+      <c r="G5" s="131" t="s">
+        <v>417</v>
+      </c>
+      <c r="H5" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="I5" s="124" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="150"/>
+      <c r="E6" s="119" t="s">
+        <v>449</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="135" t="s">
+        <v>416</v>
+      </c>
+      <c r="H6" s="121" t="s">
+        <v>408</v>
+      </c>
+      <c r="I6" s="120" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="119" t="s">
+        <v>449</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>447</v>
+      </c>
+      <c r="G7" s="130" t="s">
+        <v>417</v>
+      </c>
+      <c r="H7" s="118" t="s">
+        <v>408</v>
+      </c>
+      <c r="I7" s="120" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="117" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="118" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="150"/>
+      <c r="E8" s="119" t="s">
+        <v>446</v>
+      </c>
+      <c r="F8" s="120" t="s">
+        <v>448</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="121" t="s">
+        <v>408</v>
+      </c>
+      <c r="I8" s="120" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="117" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" s="150"/>
+      <c r="E9" s="119" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="120" t="s">
+        <v>449</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>418</v>
+      </c>
+      <c r="H9" s="121" t="s">
+        <v>408</v>
+      </c>
+      <c r="I9" s="120" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="117" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="117" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>380</v>
+      </c>
+      <c r="D10" s="150"/>
+      <c r="E10" s="119" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="H10" s="121" t="s">
+        <v>409</v>
+      </c>
+      <c r="I10" s="120" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="147"/>
+      <c r="E11" s="123" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="124" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>420</v>
+      </c>
+      <c r="H11" s="122" t="s">
+        <v>410</v>
+      </c>
+      <c r="I11" s="124" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="147"/>
+      <c r="E12" s="123" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="124" t="s">
+        <v>528</v>
+      </c>
+      <c r="G12" s="125" t="s">
+        <v>421</v>
+      </c>
+      <c r="H12" s="125" t="s">
+        <v>410</v>
+      </c>
+      <c r="I12" s="124" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="141" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="142" t="s">
+        <v>381</v>
+      </c>
+      <c r="D13" s="151"/>
+      <c r="E13" s="143" t="s">
+        <v>528</v>
+      </c>
+      <c r="F13" s="143" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="142" t="s">
+        <v>422</v>
+      </c>
+      <c r="H13" s="142" t="s">
+        <v>409</v>
+      </c>
+      <c r="I13" s="143" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="126" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="129" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" s="148"/>
+      <c r="E14" s="127" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="128" t="s">
+        <v>324</v>
+      </c>
+      <c r="G14" s="129" t="s">
+        <v>420</v>
+      </c>
+      <c r="H14" s="129" t="s">
+        <v>410</v>
+      </c>
+      <c r="I14" s="128" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="126" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="129" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="148"/>
+      <c r="E15" s="127" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" s="128" t="s">
+        <v>439</v>
+      </c>
+      <c r="G15" s="134" t="s">
+        <v>421</v>
+      </c>
+      <c r="H15" s="134" t="s">
+        <v>410</v>
+      </c>
+      <c r="I15" s="128" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="141" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="144" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="151"/>
+      <c r="E16" s="145" t="s">
+        <v>439</v>
+      </c>
+      <c r="F16" s="143" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" s="142" t="s">
+        <v>422</v>
+      </c>
+      <c r="H16" s="142" t="s">
+        <v>409</v>
+      </c>
+      <c r="I16" s="143" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="126" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="129" t="s">
+        <v>388</v>
+      </c>
+      <c r="D17" s="148"/>
+      <c r="E17" s="127" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G17" s="134" t="s">
+        <v>420</v>
+      </c>
+      <c r="H17" s="134" t="s">
+        <v>410</v>
+      </c>
+      <c r="I17" s="128" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="126" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="129" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="148"/>
+      <c r="E18" s="127" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="128" t="s">
+        <v>440</v>
+      </c>
+      <c r="G18" s="134" t="s">
+        <v>421</v>
+      </c>
+      <c r="H18" s="134" t="s">
+        <v>410</v>
+      </c>
+      <c r="I18" s="128" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="141" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="144" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="151"/>
+      <c r="E19" s="145" t="s">
+        <v>440</v>
+      </c>
+      <c r="F19" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="G19" s="144" t="s">
+        <v>422</v>
+      </c>
+      <c r="H19" s="144" t="s">
+        <v>409</v>
+      </c>
+      <c r="I19" s="143" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="126" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="129" t="s">
+        <v>390</v>
+      </c>
+      <c r="D20" s="148"/>
+      <c r="E20" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="G20" s="129" t="s">
+        <v>420</v>
+      </c>
+      <c r="H20" s="129" t="s">
+        <v>410</v>
+      </c>
+      <c r="I20" s="128" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="126" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="129" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="148"/>
+      <c r="E21" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="F21" s="128" t="s">
+        <v>442</v>
+      </c>
+      <c r="G21" s="134" t="s">
+        <v>423</v>
+      </c>
+      <c r="H21" s="134" t="s">
+        <v>410</v>
+      </c>
+      <c r="I21" s="128" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="126" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="129" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" s="148"/>
+      <c r="E22" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="128" t="s">
+        <v>441</v>
+      </c>
+      <c r="G22" s="129" t="s">
+        <v>421</v>
+      </c>
+      <c r="H22" s="129" t="s">
+        <v>410</v>
+      </c>
+      <c r="I22" s="128" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="141" t="s">
+        <v>343</v>
+      </c>
+      <c r="C23" s="144" t="s">
+        <v>393</v>
+      </c>
+      <c r="D23" s="151"/>
+      <c r="E23" s="145" t="s">
+        <v>441</v>
+      </c>
+      <c r="F23" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" s="144" t="s">
+        <v>422</v>
+      </c>
+      <c r="H23" s="144" t="s">
+        <v>409</v>
+      </c>
+      <c r="I23" s="143" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="136" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="137" t="s">
+        <v>394</v>
+      </c>
+      <c r="D24" s="146"/>
+      <c r="E24" s="138" t="s">
+        <v>442</v>
+      </c>
+      <c r="F24" s="139" t="s">
+        <v>341</v>
+      </c>
+      <c r="G24" s="140" t="s">
+        <v>422</v>
+      </c>
+      <c r="H24" s="140" t="s">
+        <v>409</v>
+      </c>
+      <c r="I24" s="143" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="126" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" s="129" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" s="148"/>
+      <c r="E25" s="127" t="s">
+        <v>341</v>
+      </c>
+      <c r="F25" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" s="129" t="s">
+        <v>420</v>
+      </c>
+      <c r="H25" s="129" t="s">
+        <v>410</v>
+      </c>
+      <c r="I25" s="128" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="126" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="129" t="s">
+        <v>397</v>
+      </c>
+      <c r="D26" s="148"/>
+      <c r="E26" s="127" t="s">
+        <v>341</v>
+      </c>
+      <c r="F26" s="128" t="s">
+        <v>444</v>
+      </c>
+      <c r="G26" s="134" t="s">
+        <v>423</v>
+      </c>
+      <c r="H26" s="134" t="s">
+        <v>410</v>
+      </c>
+      <c r="I26" s="128" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="126" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="129" t="s">
+        <v>396</v>
+      </c>
+      <c r="D27" s="148"/>
+      <c r="E27" s="127" t="s">
+        <v>341</v>
+      </c>
+      <c r="F27" s="128" t="s">
+        <v>443</v>
+      </c>
+      <c r="G27" s="129" t="s">
+        <v>421</v>
+      </c>
+      <c r="H27" s="129" t="s">
+        <v>410</v>
+      </c>
+      <c r="I27" s="128" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="141" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="144" t="s">
+        <v>399</v>
+      </c>
+      <c r="D28" s="151"/>
+      <c r="E28" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="F28" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" s="144" t="s">
+        <v>422</v>
+      </c>
+      <c r="H28" s="144" t="s">
+        <v>409</v>
+      </c>
+      <c r="I28" s="143" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="136" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="136" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="137" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" s="146"/>
+      <c r="E29" s="138" t="s">
+        <v>444</v>
+      </c>
+      <c r="F29" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="G29" s="140" t="s">
+        <v>422</v>
+      </c>
+      <c r="H29" s="140" t="s">
+        <v>409</v>
+      </c>
+      <c r="I29" s="143" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="126" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="129" t="s">
+        <v>402</v>
+      </c>
+      <c r="D30" s="148"/>
+      <c r="E30" s="127" t="s">
+        <v>358</v>
+      </c>
+      <c r="F30" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="G30" s="129" t="s">
+        <v>424</v>
+      </c>
+      <c r="H30" s="129" t="s">
+        <v>411</v>
+      </c>
+      <c r="I30" s="128" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="126" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" s="129" t="s">
+        <v>403</v>
+      </c>
+      <c r="D31" s="148"/>
+      <c r="E31" s="127" t="s">
+        <v>358</v>
+      </c>
+      <c r="F31" s="128" t="s">
+        <v>438</v>
+      </c>
+      <c r="G31" s="129" t="s">
+        <v>426</v>
+      </c>
+      <c r="H31" s="129" t="s">
+        <v>411</v>
+      </c>
+      <c r="I31" s="128" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="141" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="144" t="s">
+        <v>404</v>
+      </c>
+      <c r="D32" s="151"/>
+      <c r="E32" s="145" t="s">
+        <v>438</v>
+      </c>
+      <c r="F32" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="G32" s="144" t="s">
+        <v>422</v>
+      </c>
+      <c r="H32" s="144" t="s">
+        <v>409</v>
+      </c>
+      <c r="I32" s="143" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="C33" s="129" t="s">
+        <v>405</v>
+      </c>
+      <c r="D33" s="148"/>
+      <c r="E33" s="127" t="s">
+        <v>368</v>
+      </c>
+      <c r="F33" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" s="129" t="s">
+        <v>424</v>
+      </c>
+      <c r="H33" s="129" t="s">
+        <v>411</v>
+      </c>
+      <c r="I33" s="128" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="141" t="s">
+        <v>568</v>
+      </c>
+      <c r="C34" s="144" t="s">
+        <v>557</v>
+      </c>
+      <c r="D34" s="151"/>
+      <c r="E34" s="145" t="s">
+        <v>556</v>
+      </c>
+      <c r="F34" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="G34" s="144" t="s">
+        <v>422</v>
+      </c>
+      <c r="H34" s="144" t="s">
+        <v>409</v>
+      </c>
+      <c r="I34" s="143" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="126" t="s">
+        <v>567</v>
+      </c>
+      <c r="C35" s="129" t="s">
+        <v>555</v>
+      </c>
+      <c r="D35" s="148"/>
+      <c r="E35" s="127" t="s">
+        <v>368</v>
+      </c>
+      <c r="F35" s="128" t="s">
+        <v>556</v>
+      </c>
+      <c r="G35" s="129" t="s">
+        <v>426</v>
+      </c>
+      <c r="H35" s="129" t="s">
+        <v>411</v>
+      </c>
+      <c r="I35" s="128" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="126" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="129" t="s">
+        <v>406</v>
+      </c>
+      <c r="D36" s="148"/>
+      <c r="E36" s="127" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="128" t="s">
+        <v>373</v>
+      </c>
+      <c r="G36" s="129" t="s">
+        <v>427</v>
+      </c>
+      <c r="H36" s="129" t="s">
+        <v>412</v>
+      </c>
+      <c r="I36" s="128" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" s="77"/>
+      <c r="E96" s="85" t="s">
+        <v>453</v>
+      </c>
+      <c r="F96" s="88" t="s">
+        <v>446</v>
+      </c>
+      <c r="G96" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H96" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D97" s="77"/>
+      <c r="E97" s="85" t="s">
+        <v>454</v>
+      </c>
+      <c r="F97" s="88" t="s">
+        <v>448</v>
+      </c>
+      <c r="G97" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H97" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D98" s="77"/>
+      <c r="E98" s="85" t="s">
+        <v>455</v>
+      </c>
+      <c r="F98" s="88" t="s">
+        <v>449</v>
+      </c>
+      <c r="G98" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H98" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="77"/>
+      <c r="E99" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="F99" s="88" t="s">
+        <v>447</v>
+      </c>
+      <c r="G99" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H99" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" s="77"/>
+      <c r="E100" s="85" t="s">
+        <v>457</v>
+      </c>
+      <c r="F100" s="88" t="s">
+        <v>449</v>
+      </c>
+      <c r="G100" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H100" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="77"/>
+      <c r="E101" s="85" t="s">
+        <v>458</v>
+      </c>
+      <c r="F101" s="88" t="s">
+        <v>459</v>
+      </c>
+      <c r="G101" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H101" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" s="77"/>
+      <c r="E102" s="85" t="s">
+        <v>459</v>
+      </c>
+      <c r="F102" s="88" t="s">
+        <v>445</v>
+      </c>
+      <c r="G102" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H102" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" s="77"/>
+      <c r="E103" s="85" t="s">
+        <v>460</v>
+      </c>
+      <c r="F103" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="G103" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H103" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" s="77"/>
+      <c r="E104" s="85" t="s">
+        <v>461</v>
+      </c>
+      <c r="F104" s="88" t="s">
+        <v>528</v>
+      </c>
+      <c r="G104" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H104" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D105" s="77"/>
+      <c r="E105" s="85" t="s">
+        <v>462</v>
+      </c>
+      <c r="F105" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="G105" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H105" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D106" s="77"/>
+      <c r="E106" s="85" t="s">
+        <v>463</v>
+      </c>
+      <c r="F106" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="G106" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H106" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D107" s="77"/>
+      <c r="E107" s="85" t="s">
+        <v>464</v>
+      </c>
+      <c r="F107" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="G107" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H107" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D108" s="77"/>
+      <c r="E108" s="85" t="s">
+        <v>465</v>
+      </c>
+      <c r="F108" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="G108" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H108" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D109" s="77"/>
+      <c r="E109" s="85" t="s">
+        <v>466</v>
+      </c>
+      <c r="F109" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="G109" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H109" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C110" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D110" s="77"/>
+      <c r="E110" s="85" t="s">
+        <v>467</v>
+      </c>
+      <c r="F110" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="G110" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H110" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D111" s="77"/>
+      <c r="E111" s="85" t="s">
+        <v>468</v>
+      </c>
+      <c r="F111" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="G111" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H111" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C112" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D112" s="77"/>
+      <c r="E112" s="85" t="s">
+        <v>469</v>
+      </c>
+      <c r="F112" s="88" t="s">
+        <v>332</v>
+      </c>
+      <c r="G112" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H112" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C113" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D113" s="77"/>
+      <c r="E113" s="85" t="s">
+        <v>470</v>
+      </c>
+      <c r="F113" s="88" t="s">
+        <v>341</v>
+      </c>
+      <c r="G113" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H113" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C114" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D114" s="77"/>
+      <c r="E114" s="85" t="s">
+        <v>471</v>
+      </c>
+      <c r="F114" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="G114" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H114" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C115" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D115" s="77"/>
+      <c r="E115" s="85" t="s">
+        <v>472</v>
+      </c>
+      <c r="F115" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="G115" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H115" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D116" s="77"/>
+      <c r="E116" s="85" t="s">
+        <v>473</v>
+      </c>
+      <c r="F116" s="88" t="s">
+        <v>341</v>
+      </c>
+      <c r="G116" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H116" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D117" s="77"/>
+      <c r="E117" s="85" t="s">
+        <v>474</v>
+      </c>
+      <c r="F117" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="G117" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H117" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D118" s="77"/>
+      <c r="E118" s="85" t="s">
+        <v>475</v>
+      </c>
+      <c r="F118" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="G118" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H118" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D119" s="77"/>
+      <c r="E119" s="85" t="s">
+        <v>476</v>
+      </c>
+      <c r="F119" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="G119" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H119" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D120" s="77"/>
+      <c r="E120" s="85" t="s">
+        <v>477</v>
+      </c>
+      <c r="F120" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="G120" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H120" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D121" s="77"/>
+      <c r="E121" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="F121" s="88" t="s">
+        <v>438</v>
+      </c>
+      <c r="G121" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H121" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C122" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D122" s="77"/>
+      <c r="E122" s="85" t="s">
+        <v>478</v>
+      </c>
+      <c r="F122" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="G122" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H122" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C123" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D123" s="77"/>
+      <c r="E123" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="F123" s="88" t="s">
+        <v>366</v>
+      </c>
+      <c r="G123" s="132" t="s">
+        <v>414</v>
+      </c>
+      <c r="H123" s="132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C124" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D124" s="77"/>
+      <c r="E124" s="85" t="s">
+        <v>370</v>
+      </c>
+      <c r="F124" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="G124" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H124" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C125" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D125" s="77"/>
+      <c r="E125" s="85" t="s">
+        <v>372</v>
+      </c>
+      <c r="F125" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="G125" s="133" t="s">
+        <v>414</v>
+      </c>
+      <c r="H125" s="133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5987,36 +7705,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
       <c r="L2" s="15" t="s">
         <v>79</v>
       </c>
@@ -6025,18 +7743,18 @@
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="14" t="s">
         <v>59</v>
       </c>
@@ -6045,18 +7763,18 @@
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
       <c r="L4" s="14" t="s">
         <v>57</v>
       </c>
@@ -6065,18 +7783,18 @@
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
       <c r="L5" s="14" t="s">
         <v>58</v>
       </c>
@@ -6085,18 +7803,18 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
       <c r="L6" s="14" t="s">
         <v>66</v>
       </c>
@@ -6105,18 +7823,18 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
       <c r="L7" s="14" t="s">
         <v>60</v>
       </c>
@@ -6125,18 +7843,18 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
       <c r="L8" s="14" t="s">
         <v>61</v>
       </c>
@@ -6145,18 +7863,18 @@
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
       <c r="L9" s="14" t="s">
         <v>68</v>
       </c>
@@ -6165,18 +7883,18 @@
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
       <c r="L10" s="14" t="s">
         <v>69</v>
       </c>
@@ -6185,36 +7903,36 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
       <c r="L12" s="14" t="s">
         <v>74</v>
       </c>
@@ -6223,18 +7941,18 @@
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
       <c r="L13" s="14" t="s">
         <v>75</v>
       </c>
@@ -6243,18 +7961,18 @@
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
       <c r="L14" s="14" t="s">
         <v>76</v>
       </c>
@@ -6263,18 +7981,18 @@
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
       <c r="L15" s="14" t="s">
         <v>77</v>
       </c>
@@ -6283,18 +8001,18 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
       <c r="L16" s="14" t="s">
         <v>78</v>
       </c>
@@ -6344,19 +8062,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -6367,7 +8085,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="99" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -6375,37 +8093,37 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="94"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="94"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="95"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="99" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -6413,19 +8131,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="95"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="99" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -6433,7 +8151,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="95"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="22" t="s">
         <v>108</v>
       </c>
@@ -6484,28 +8202,28 @@
       <c r="B1" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="23" t="s">
         <v>128</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
@@ -6767,22 +8485,22 @@
       <c r="E15" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="108">
         <v>1</v>
       </c>
-      <c r="L15" s="100" t="s">
+      <c r="L15" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="M15" s="104" t="s">
+      <c r="M15" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="N15" s="102"/>
+      <c r="N15" s="108"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K16" s="103"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="103"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="109"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
@@ -7371,10 +9089,10 @@
       <c r="F1" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="108"/>
+      <c r="H1" s="114"/>
       <c r="I1" s="47" t="s">
         <v>270</v>
       </c>
@@ -7398,7 +9116,7 @@
       <c r="H2" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="113" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7418,10 +9136,10 @@
       <c r="G3" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="107"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
@@ -7439,8 +9157,8 @@
       <c r="G4" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
@@ -7458,8 +9176,8 @@
       <c r="G5" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
@@ -7477,8 +9195,8 @@
       <c r="G6" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H6" s="106"/>
-      <c r="I6" s="107"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
@@ -7496,8 +9214,8 @@
       <c r="G7" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106" t="s">
+      <c r="H7" s="112"/>
+      <c r="I7" s="112" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7517,8 +9235,8 @@
       <c r="G8" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
@@ -7576,10 +9294,10 @@
       <c r="G11" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="112" t="s">
         <v>241</v>
       </c>
-      <c r="I11" s="106" t="s">
+      <c r="I11" s="112" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7599,8 +9317,8 @@
       <c r="G12" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
@@ -7618,8 +9336,8 @@
       <c r="G13" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
@@ -7637,8 +9355,8 @@
       <c r="G14" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
@@ -7656,8 +9374,8 @@
       <c r="G15" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
@@ -7675,8 +9393,8 @@
       <c r="G16" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
@@ -7694,8 +9412,8 @@
       <c r="G17" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106" t="s">
+      <c r="H17" s="112"/>
+      <c r="I17" s="112" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7715,8 +9433,8 @@
       <c r="G18" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
@@ -7734,8 +9452,8 @@
       <c r="G19" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
@@ -7753,10 +9471,10 @@
       <c r="G20" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H20" s="106" t="s">
+      <c r="H20" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="I20" s="107" t="s">
+      <c r="I20" s="113" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7776,8 +9494,8 @@
       <c r="G21" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
@@ -7795,8 +9513,8 @@
       <c r="G22" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
@@ -7814,8 +9532,8 @@
       <c r="G23" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
@@ -7833,8 +9551,8 @@
       <c r="G24" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
@@ -7852,10 +9570,10 @@
       <c r="G25" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H25" s="106" t="s">
+      <c r="H25" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="106"/>
+      <c r="I25" s="112"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
@@ -7873,8 +9591,8 @@
       <c r="G26" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
@@ -7892,8 +9610,8 @@
       <c r="G27" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
@@ -7911,8 +9629,8 @@
       <c r="G28" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
@@ -7930,8 +9648,8 @@
       <c r="G29" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
@@ -7949,10 +9667,10 @@
       <c r="G30" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H30" s="106" t="s">
+      <c r="H30" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="106"/>
+      <c r="I30" s="112"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
@@ -7970,8 +9688,8 @@
       <c r="G31" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
@@ -7989,8 +9707,8 @@
       <c r="G32" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
@@ -8008,8 +9726,8 @@
       <c r="G33" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -8027,8 +9745,8 @@
       <c r="G34" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
@@ -8046,8 +9764,8 @@
       <c r="G35" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
@@ -8065,8 +9783,8 @@
       <c r="G36" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
@@ -8084,8 +9802,8 @@
       <c r="G37" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
@@ -8103,8 +9821,8 @@
       <c r="G38" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
@@ -8122,8 +9840,8 @@
       <c r="G39" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="112"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="48" t="s">
@@ -8141,10 +9859,10 @@
       <c r="G40" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H40" s="106" t="s">
+      <c r="H40" s="112" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="106"/>
+      <c r="I40" s="112"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
@@ -8162,8 +9880,8 @@
       <c r="G41" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
@@ -8181,8 +9899,8 @@
       <c r="G42" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
@@ -8200,8 +9918,8 @@
       <c r="G43" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="112"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
@@ -8219,8 +9937,8 @@
       <c r="G44" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
@@ -8238,10 +9956,10 @@
       <c r="G45" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="H45" s="106" t="s">
+      <c r="H45" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="I45" s="106"/>
+      <c r="I45" s="112"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
@@ -8259,8 +9977,8 @@
       <c r="G46" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
@@ -8278,8 +9996,8 @@
       <c r="G47" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
@@ -8297,8 +10015,8 @@
       <c r="G48" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
@@ -8316,8 +10034,8 @@
       <c r="G49" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
@@ -8335,8 +10053,8 @@
       <c r="G50" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
@@ -8354,8 +10072,8 @@
       <c r="G51" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
@@ -8373,7 +10091,7 @@
       <c r="G52" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="H52" s="106" t="s">
+      <c r="H52" s="112" t="s">
         <v>268</v>
       </c>
       <c r="I52" s="48"/>
@@ -8394,7 +10112,7 @@
       <c r="G53" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="H53" s="106"/>
+      <c r="H53" s="112"/>
       <c r="I53" s="48"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -8413,11 +10131,17 @@
       <c r="G54" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="H54" s="106"/>
+      <c r="H54" s="112"/>
       <c r="I54" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H45:H51"/>
+    <mergeCell ref="H30:H39"/>
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="I17:I19"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="H40:H44"/>
@@ -8426,12 +10150,6 @@
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="H20:H24"/>
     <mergeCell ref="H25:H29"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H45:H51"/>
-    <mergeCell ref="H30:H39"/>
-    <mergeCell ref="H11:H19"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10256,8 +11974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10267,9 +11985,9 @@
     <col min="4" max="5" width="29.88671875" customWidth="1"/>
     <col min="6" max="6" width="35.77734375" style="64" customWidth="1"/>
     <col min="7" max="7" width="27.44140625" style="78" customWidth="1"/>
-    <col min="8" max="8" width="43.5546875" style="110" customWidth="1"/>
+    <col min="8" max="8" width="43.5546875" style="86" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="41.6640625" style="113" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" style="89" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" customWidth="1"/>
     <col min="12" max="12" width="24" style="70" customWidth="1"/>
     <col min="13" max="13" width="26.88671875" style="70" customWidth="1"/>
@@ -10290,10 +12008,10 @@
         <v>277</v>
       </c>
       <c r="G1" s="77"/>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="88" t="s">
         <v>275</v>
       </c>
       <c r="L1" s="70" t="s">
@@ -10329,13 +12047,13 @@
       <c r="G2" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="H2" s="86" t="s">
         <v>437</v>
       </c>
       <c r="I2" t="s">
         <v>431</v>
       </c>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="89" t="s">
         <v>462</v>
       </c>
       <c r="K2" t="s">
@@ -10382,13 +12100,13 @@
       <c r="G3" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H3" s="110" t="s">
+      <c r="H3" s="86" t="s">
         <v>438</v>
       </c>
       <c r="I3" t="s">
         <v>431</v>
       </c>
-      <c r="J3" s="113" t="s">
+      <c r="J3" s="89" t="s">
         <v>478</v>
       </c>
       <c r="K3" t="s">
@@ -10435,13 +12153,13 @@
       <c r="G4" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="86" t="s">
         <v>439</v>
       </c>
       <c r="I4" t="s">
         <v>431</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="89" t="s">
         <v>465</v>
       </c>
       <c r="K4" t="s">
@@ -10488,13 +12206,13 @@
       <c r="G5" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="86" t="s">
         <v>440</v>
       </c>
       <c r="I5" t="s">
         <v>431</v>
       </c>
-      <c r="J5" s="113" t="s">
+      <c r="J5" s="89" t="s">
         <v>468</v>
       </c>
       <c r="K5" t="s">
@@ -10541,13 +12259,13 @@
       <c r="G6" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="86" t="s">
         <v>441</v>
       </c>
       <c r="I6" t="s">
         <v>431</v>
       </c>
-      <c r="J6" s="113" t="s">
+      <c r="J6" s="89" t="s">
         <v>472</v>
       </c>
       <c r="K6" t="s">
@@ -10594,13 +12312,13 @@
       <c r="G7" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="86" t="s">
         <v>442</v>
       </c>
       <c r="I7" t="s">
         <v>431</v>
       </c>
-      <c r="J7" s="113" t="s">
+      <c r="J7" s="89" t="s">
         <v>470</v>
       </c>
       <c r="K7" t="s">
@@ -10647,13 +12365,13 @@
       <c r="G8" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="86" t="s">
         <v>443</v>
       </c>
       <c r="I8" t="s">
         <v>431</v>
       </c>
-      <c r="J8" s="113" t="s">
+      <c r="J8" s="89" t="s">
         <v>476</v>
       </c>
       <c r="K8" t="s">
@@ -10700,13 +12418,13 @@
       <c r="G9" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H9" s="110" t="s">
+      <c r="H9" s="86" t="s">
         <v>444</v>
       </c>
       <c r="I9" t="s">
         <v>431</v>
       </c>
-      <c r="J9" s="113" t="s">
+      <c r="J9" s="89" t="s">
         <v>474</v>
       </c>
       <c r="K9" t="s">
@@ -10753,13 +12471,13 @@
       <c r="G10" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H10" s="110" t="s">
+      <c r="H10" s="86" t="s">
         <v>445</v>
       </c>
       <c r="I10" t="s">
         <v>431</v>
       </c>
-      <c r="J10" s="113" t="s">
+      <c r="J10" s="89" t="s">
         <v>460</v>
       </c>
       <c r="K10" t="s">
@@ -10806,13 +12524,13 @@
       <c r="G11" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H11" s="110" t="s">
+      <c r="H11" s="86" t="s">
         <v>269</v>
       </c>
       <c r="I11" t="s">
         <v>431</v>
       </c>
-      <c r="J11" s="113" t="s">
+      <c r="J11" s="89" t="s">
         <v>372</v>
       </c>
       <c r="K11" t="s">
@@ -10859,13 +12577,13 @@
       <c r="G12" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="86" t="s">
         <v>308</v>
       </c>
       <c r="I12" t="s">
         <v>431</v>
       </c>
-      <c r="J12" s="113" t="s">
+      <c r="J12" s="89" t="s">
         <v>463</v>
       </c>
       <c r="K12" t="s">
@@ -10912,13 +12630,13 @@
       <c r="G13" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H13" s="110" t="s">
+      <c r="H13" s="86" t="s">
         <v>308</v>
       </c>
       <c r="I13" t="s">
         <v>431</v>
       </c>
-      <c r="J13" s="113" t="s">
+      <c r="J13" s="89" t="s">
         <v>461</v>
       </c>
       <c r="K13" t="s">
@@ -10965,13 +12683,13 @@
       <c r="G14" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H14" s="110" t="s">
+      <c r="H14" s="86" t="s">
         <v>316</v>
       </c>
       <c r="I14" t="s">
         <v>431</v>
       </c>
-      <c r="J14" s="113" t="s">
+      <c r="J14" s="89" t="s">
         <v>466</v>
       </c>
       <c r="K14" t="s">
@@ -11018,13 +12736,13 @@
       <c r="G15" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H15" s="110" t="s">
+      <c r="H15" s="86" t="s">
         <v>316</v>
       </c>
       <c r="I15" t="s">
         <v>431</v>
       </c>
-      <c r="J15" s="113" t="s">
+      <c r="J15" s="89" t="s">
         <v>464</v>
       </c>
       <c r="K15" t="s">
@@ -11071,13 +12789,13 @@
       <c r="G16" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H16" s="110" t="s">
+      <c r="H16" s="86" t="s">
         <v>324</v>
       </c>
       <c r="I16" t="s">
         <v>431</v>
       </c>
-      <c r="J16" s="113" t="s">
+      <c r="J16" s="89" t="s">
         <v>469</v>
       </c>
       <c r="K16" t="s">
@@ -11124,13 +12842,13 @@
       <c r="G17" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="86" t="s">
         <v>324</v>
       </c>
       <c r="I17" t="s">
         <v>431</v>
       </c>
-      <c r="J17" s="113" t="s">
+      <c r="J17" s="89" t="s">
         <v>467</v>
       </c>
       <c r="K17" t="s">
@@ -11177,13 +12895,13 @@
       <c r="G18" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H18" s="110" t="s">
+      <c r="H18" s="86" t="s">
         <v>332</v>
       </c>
       <c r="I18" t="s">
         <v>431</v>
       </c>
-      <c r="J18" s="113" t="s">
+      <c r="J18" s="89" t="s">
         <v>473</v>
       </c>
       <c r="K18" t="s">
@@ -11230,13 +12948,13 @@
       <c r="G19" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H19" s="110" t="s">
+      <c r="H19" s="86" t="s">
         <v>332</v>
       </c>
       <c r="I19" t="s">
         <v>431</v>
       </c>
-      <c r="J19" s="113" t="s">
+      <c r="J19" s="89" t="s">
         <v>442</v>
       </c>
       <c r="K19" t="s">
@@ -11283,13 +13001,13 @@
       <c r="G20" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H20" s="110" t="s">
+      <c r="H20" s="86" t="s">
         <v>332</v>
       </c>
       <c r="I20" t="s">
         <v>431</v>
       </c>
-      <c r="J20" s="113" t="s">
+      <c r="J20" s="89" t="s">
         <v>471</v>
       </c>
       <c r="K20" t="s">
@@ -11336,13 +13054,13 @@
       <c r="G21" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="86" t="s">
         <v>341</v>
       </c>
       <c r="I21" t="s">
         <v>431</v>
       </c>
-      <c r="J21" s="113" t="s">
+      <c r="J21" s="89" t="s">
         <v>477</v>
       </c>
       <c r="K21" t="s">
@@ -11389,13 +13107,13 @@
       <c r="G22" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H22" s="110" t="s">
+      <c r="H22" s="86" t="s">
         <v>341</v>
       </c>
       <c r="I22" t="s">
         <v>431</v>
       </c>
-      <c r="J22" s="113" t="s">
+      <c r="J22" s="89" t="s">
         <v>444</v>
       </c>
       <c r="K22" t="s">
@@ -11442,13 +13160,13 @@
       <c r="G23" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H23" s="110" t="s">
+      <c r="H23" s="86" t="s">
         <v>341</v>
       </c>
       <c r="I23" t="s">
         <v>431</v>
       </c>
-      <c r="J23" s="113" t="s">
+      <c r="J23" s="89" t="s">
         <v>475</v>
       </c>
       <c r="K23" t="s">
@@ -11495,13 +13213,13 @@
       <c r="G24" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H24" s="110" t="s">
+      <c r="H24" s="86" t="s">
         <v>368</v>
       </c>
       <c r="I24" t="s">
         <v>431</v>
       </c>
-      <c r="J24" s="113" t="s">
+      <c r="J24" s="89" t="s">
         <v>370</v>
       </c>
       <c r="K24" t="s">
@@ -11548,13 +13266,13 @@
       <c r="G25" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H25" s="110" t="s">
+      <c r="H25" s="86" t="s">
         <v>358</v>
       </c>
       <c r="I25" t="s">
         <v>431</v>
       </c>
-      <c r="J25" s="113" t="s">
+      <c r="J25" s="89" t="s">
         <v>360</v>
       </c>
       <c r="K25" t="s">
@@ -11601,13 +13319,13 @@
       <c r="G26" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H26" s="110" t="s">
+      <c r="H26" s="86" t="s">
         <v>358</v>
       </c>
       <c r="I26" t="s">
         <v>431</v>
       </c>
-      <c r="J26" s="113" t="s">
+      <c r="J26" s="89" t="s">
         <v>362</v>
       </c>
       <c r="K26" t="s">
@@ -11654,13 +13372,13 @@
       <c r="G27" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H27" s="110" t="s">
+      <c r="H27" s="86" t="s">
         <v>366</v>
       </c>
       <c r="I27" t="s">
         <v>431</v>
       </c>
-      <c r="J27" s="113" t="s">
+      <c r="J27" s="89" t="s">
         <v>368</v>
       </c>
       <c r="K27" t="s">
@@ -11707,13 +13425,13 @@
       <c r="G28" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H28" s="110" t="s">
+      <c r="H28" s="86" t="s">
         <v>353</v>
       </c>
       <c r="I28" t="s">
         <v>431</v>
       </c>
-      <c r="J28" s="113" t="s">
+      <c r="J28" s="89" t="s">
         <v>358</v>
       </c>
       <c r="K28" t="s">
@@ -11760,13 +13478,13 @@
       <c r="G29" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H29" s="110" t="s">
+      <c r="H29" s="86" t="s">
         <v>446</v>
       </c>
       <c r="I29" t="s">
         <v>431</v>
       </c>
-      <c r="J29" s="113" t="s">
+      <c r="J29" s="89" t="s">
         <v>454</v>
       </c>
       <c r="K29" t="s">
@@ -11813,13 +13531,13 @@
       <c r="G30" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H30" s="110" t="s">
+      <c r="H30" s="86" t="s">
         <v>447</v>
       </c>
       <c r="I30" t="s">
         <v>431</v>
       </c>
-      <c r="J30" s="113" t="s">
+      <c r="J30" s="89" t="s">
         <v>457</v>
       </c>
       <c r="K30" t="s">
@@ -11866,13 +13584,13 @@
       <c r="G31" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H31" s="110" t="s">
+      <c r="H31" s="86" t="s">
         <v>448</v>
       </c>
       <c r="I31" t="s">
         <v>431</v>
       </c>
-      <c r="J31" s="113" t="s">
+      <c r="J31" s="89" t="s">
         <v>455</v>
       </c>
       <c r="K31" t="s">
@@ -11919,13 +13637,13 @@
       <c r="G32" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H32" s="110" t="s">
+      <c r="H32" s="86" t="s">
         <v>448</v>
       </c>
       <c r="I32" t="s">
         <v>431</v>
       </c>
-      <c r="J32" s="113" t="s">
+      <c r="J32" s="89" t="s">
         <v>453</v>
       </c>
       <c r="K32" t="s">
@@ -11972,13 +13690,13 @@
       <c r="G33" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H33" s="110" t="s">
+      <c r="H33" s="86" t="s">
         <v>449</v>
       </c>
       <c r="I33" t="s">
         <v>431</v>
       </c>
-      <c r="J33" s="113" t="s">
+      <c r="J33" s="89" t="s">
         <v>458</v>
       </c>
       <c r="K33" t="s">
@@ -12025,13 +13743,13 @@
       <c r="G34" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H34" s="110" t="s">
+      <c r="H34" s="86" t="s">
         <v>449</v>
       </c>
       <c r="I34" t="s">
         <v>431</v>
       </c>
-      <c r="J34" s="113" t="s">
+      <c r="J34" s="89" t="s">
         <v>456</v>
       </c>
       <c r="K34" t="s">
@@ -12078,13 +13796,13 @@
       <c r="G35" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H35" s="110" t="s">
+      <c r="H35" s="86" t="s">
         <v>450</v>
       </c>
       <c r="I35" t="s">
         <v>431</v>
       </c>
-      <c r="J35" s="113" t="s">
+      <c r="J35" s="89" t="s">
         <v>452</v>
       </c>
       <c r="K35" t="s">
@@ -12113,8 +13831,8 @@
       <c r="C36" s="80"/>
       <c r="F36" s="83"/>
       <c r="G36" s="84"/>
-      <c r="H36" s="111"/>
-      <c r="J36" s="114"/>
+      <c r="H36" s="87"/>
+      <c r="J36" s="90"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -12138,13 +13856,13 @@
       <c r="G37" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H37" s="110" t="s">
+      <c r="H37" s="86" t="s">
         <v>451</v>
       </c>
       <c r="I37" t="s">
         <v>431</v>
       </c>
-      <c r="J37" s="113" t="s">
+      <c r="J37" s="89" t="s">
         <v>450</v>
       </c>
       <c r="K37" t="s">
@@ -12191,13 +13909,13 @@
       <c r="G38" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H38" s="110" t="s">
+      <c r="H38" s="86" t="s">
         <v>452</v>
       </c>
       <c r="I38" t="s">
         <v>431</v>
       </c>
-      <c r="J38" s="113" t="s">
+      <c r="J38" s="89" t="s">
         <v>448</v>
       </c>
       <c r="K38" t="s">
@@ -12244,13 +13962,13 @@
       <c r="G39" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H39" s="110" t="s">
+      <c r="H39" s="86" t="s">
         <v>453</v>
       </c>
       <c r="I39" t="s">
         <v>431</v>
       </c>
-      <c r="J39" s="113" t="s">
+      <c r="J39" s="89" t="s">
         <v>446</v>
       </c>
       <c r="K39" t="s">
@@ -12297,13 +14015,13 @@
       <c r="G40" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H40" s="110" t="s">
+      <c r="H40" s="86" t="s">
         <v>454</v>
       </c>
       <c r="I40" t="s">
         <v>431</v>
       </c>
-      <c r="J40" s="113" t="s">
+      <c r="J40" s="89" t="s">
         <v>448</v>
       </c>
       <c r="K40" t="s">
@@ -12350,13 +14068,13 @@
       <c r="G41" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H41" s="110" t="s">
+      <c r="H41" s="86" t="s">
         <v>455</v>
       </c>
       <c r="I41" t="s">
         <v>431</v>
       </c>
-      <c r="J41" s="113" t="s">
+      <c r="J41" s="89" t="s">
         <v>449</v>
       </c>
       <c r="K41" t="s">
@@ -12403,13 +14121,13 @@
       <c r="G42" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H42" s="110" t="s">
+      <c r="H42" s="86" t="s">
         <v>456</v>
       </c>
       <c r="I42" t="s">
         <v>431</v>
       </c>
-      <c r="J42" s="113" t="s">
+      <c r="J42" s="89" t="s">
         <v>447</v>
       </c>
       <c r="K42" t="s">
@@ -12456,13 +14174,13 @@
       <c r="G43" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H43" s="110" t="s">
+      <c r="H43" s="86" t="s">
         <v>457</v>
       </c>
       <c r="I43" t="s">
         <v>431</v>
       </c>
-      <c r="J43" s="113" t="s">
+      <c r="J43" s="89" t="s">
         <v>449</v>
       </c>
       <c r="K43" t="s">
@@ -12509,13 +14227,13 @@
       <c r="G44" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H44" s="110" t="s">
+      <c r="H44" s="86" t="s">
         <v>458</v>
       </c>
       <c r="I44" t="s">
         <v>431</v>
       </c>
-      <c r="J44" s="113" t="s">
+      <c r="J44" s="89" t="s">
         <v>459</v>
       </c>
       <c r="K44" t="s">
@@ -12562,13 +14280,13 @@
       <c r="G45" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H45" s="110" t="s">
+      <c r="H45" s="86" t="s">
         <v>459</v>
       </c>
       <c r="I45" t="s">
         <v>431</v>
       </c>
-      <c r="J45" s="113" t="s">
+      <c r="J45" s="89" t="s">
         <v>445</v>
       </c>
       <c r="K45" t="s">
@@ -12615,13 +14333,13 @@
       <c r="G46" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H46" s="110" t="s">
+      <c r="H46" s="86" t="s">
         <v>460</v>
       </c>
       <c r="I46" t="s">
         <v>431</v>
       </c>
-      <c r="J46" s="113" t="s">
+      <c r="J46" s="89" t="s">
         <v>308</v>
       </c>
       <c r="K46" t="s">
@@ -12668,13 +14386,13 @@
       <c r="G47" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H47" s="110" t="s">
+      <c r="H47" s="86" t="s">
         <v>461</v>
       </c>
       <c r="I47" t="s">
         <v>431</v>
       </c>
-      <c r="J47" s="113" t="s">
+      <c r="J47" s="89" t="s">
         <v>437</v>
       </c>
       <c r="K47" t="s">
@@ -12721,13 +14439,13 @@
       <c r="G48" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H48" s="110" t="s">
+      <c r="H48" s="86" t="s">
         <v>462</v>
       </c>
       <c r="I48" t="s">
         <v>431</v>
       </c>
-      <c r="J48" s="113" t="s">
+      <c r="J48" s="89" t="s">
         <v>308</v>
       </c>
       <c r="K48" t="s">
@@ -12774,13 +14492,13 @@
       <c r="G49" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H49" s="110" t="s">
+      <c r="H49" s="86" t="s">
         <v>463</v>
       </c>
       <c r="I49" t="s">
         <v>431</v>
       </c>
-      <c r="J49" s="113" t="s">
+      <c r="J49" s="89" t="s">
         <v>316</v>
       </c>
       <c r="K49" t="s">
@@ -12827,13 +14545,13 @@
       <c r="G50" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H50" s="110" t="s">
+      <c r="H50" s="86" t="s">
         <v>464</v>
       </c>
       <c r="I50" t="s">
         <v>431</v>
       </c>
-      <c r="J50" s="113" t="s">
+      <c r="J50" s="89" t="s">
         <v>439</v>
       </c>
       <c r="K50" t="s">
@@ -12880,13 +14598,13 @@
       <c r="G51" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H51" s="110" t="s">
+      <c r="H51" s="86" t="s">
         <v>465</v>
       </c>
       <c r="I51" t="s">
         <v>431</v>
       </c>
-      <c r="J51" s="113" t="s">
+      <c r="J51" s="89" t="s">
         <v>308</v>
       </c>
       <c r="K51" t="s">
@@ -12933,13 +14651,13 @@
       <c r="G52" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H52" s="110" t="s">
+      <c r="H52" s="86" t="s">
         <v>466</v>
       </c>
       <c r="I52" t="s">
         <v>431</v>
       </c>
-      <c r="J52" s="113" t="s">
+      <c r="J52" s="89" t="s">
         <v>324</v>
       </c>
       <c r="K52" t="s">
@@ -12986,13 +14704,13 @@
       <c r="G53" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H53" s="110" t="s">
+      <c r="H53" s="86" t="s">
         <v>467</v>
       </c>
       <c r="I53" t="s">
         <v>431</v>
       </c>
-      <c r="J53" s="113" t="s">
+      <c r="J53" s="89" t="s">
         <v>440</v>
       </c>
       <c r="K53" t="s">
@@ -13039,13 +14757,13 @@
       <c r="G54" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H54" s="110" t="s">
+      <c r="H54" s="86" t="s">
         <v>468</v>
       </c>
       <c r="I54" t="s">
         <v>431</v>
       </c>
-      <c r="J54" s="113" t="s">
+      <c r="J54" s="89" t="s">
         <v>324</v>
       </c>
       <c r="K54" t="s">
@@ -13092,13 +14810,13 @@
       <c r="G55" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H55" s="110" t="s">
+      <c r="H55" s="86" t="s">
         <v>469</v>
       </c>
       <c r="I55" t="s">
         <v>431</v>
       </c>
-      <c r="J55" s="113" t="s">
+      <c r="J55" s="89" t="s">
         <v>332</v>
       </c>
       <c r="K55" t="s">
@@ -13145,13 +14863,13 @@
       <c r="G56" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H56" s="110" t="s">
+      <c r="H56" s="86" t="s">
         <v>470</v>
       </c>
       <c r="I56" t="s">
         <v>431</v>
       </c>
-      <c r="J56" s="113" t="s">
+      <c r="J56" s="89" t="s">
         <v>341</v>
       </c>
       <c r="K56" t="s">
@@ -13198,13 +14916,13 @@
       <c r="G57" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H57" s="110" t="s">
+      <c r="H57" s="86" t="s">
         <v>471</v>
       </c>
       <c r="I57" t="s">
         <v>431</v>
       </c>
-      <c r="J57" s="113" t="s">
+      <c r="J57" s="89" t="s">
         <v>441</v>
       </c>
       <c r="K57" t="s">
@@ -13251,13 +14969,13 @@
       <c r="G58" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H58" s="110" t="s">
+      <c r="H58" s="86" t="s">
         <v>472</v>
       </c>
       <c r="I58" t="s">
         <v>431</v>
       </c>
-      <c r="J58" s="113" t="s">
+      <c r="J58" s="89" t="s">
         <v>324</v>
       </c>
       <c r="K58" t="s">
@@ -13304,13 +15022,13 @@
       <c r="G59" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H59" s="110" t="s">
+      <c r="H59" s="86" t="s">
         <v>473</v>
       </c>
       <c r="I59" t="s">
         <v>431</v>
       </c>
-      <c r="J59" s="113" t="s">
+      <c r="J59" s="89" t="s">
         <v>341</v>
       </c>
       <c r="K59" t="s">
@@ -13357,13 +15075,13 @@
       <c r="G60" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H60" s="110" t="s">
+      <c r="H60" s="86" t="s">
         <v>474</v>
       </c>
       <c r="I60" t="s">
         <v>431</v>
       </c>
-      <c r="J60" s="113" t="s">
+      <c r="J60" s="89" t="s">
         <v>353</v>
       </c>
       <c r="K60" t="s">
@@ -13410,13 +15128,13 @@
       <c r="G61" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H61" s="110" t="s">
+      <c r="H61" s="86" t="s">
         <v>475</v>
       </c>
       <c r="I61" t="s">
         <v>431</v>
       </c>
-      <c r="J61" s="113" t="s">
+      <c r="J61" s="89" t="s">
         <v>443</v>
       </c>
       <c r="K61" t="s">
@@ -13463,13 +15181,13 @@
       <c r="G62" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H62" s="110" t="s">
+      <c r="H62" s="86" t="s">
         <v>476</v>
       </c>
       <c r="I62" t="s">
         <v>431</v>
       </c>
-      <c r="J62" s="113" t="s">
+      <c r="J62" s="89" t="s">
         <v>324</v>
       </c>
       <c r="K62" t="s">
@@ -13516,13 +15234,13 @@
       <c r="G63" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H63" s="110" t="s">
+      <c r="H63" s="86" t="s">
         <v>477</v>
       </c>
       <c r="I63" t="s">
         <v>431</v>
       </c>
-      <c r="J63" s="113" t="s">
+      <c r="J63" s="89" t="s">
         <v>353</v>
       </c>
       <c r="K63" t="s">
@@ -13569,13 +15287,13 @@
       <c r="G64" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H64" s="110" t="s">
+      <c r="H64" s="86" t="s">
         <v>362</v>
       </c>
       <c r="I64" t="s">
         <v>431</v>
       </c>
-      <c r="J64" s="113" t="s">
+      <c r="J64" s="89" t="s">
         <v>438</v>
       </c>
       <c r="K64" t="s">
@@ -13622,13 +15340,13 @@
       <c r="G65" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H65" s="110" t="s">
+      <c r="H65" s="86" t="s">
         <v>478</v>
       </c>
       <c r="I65" t="s">
         <v>431</v>
       </c>
-      <c r="J65" s="113" t="s">
+      <c r="J65" s="89" t="s">
         <v>324</v>
       </c>
       <c r="K65" t="s">
@@ -13675,13 +15393,13 @@
       <c r="G66" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H66" s="110" t="s">
+      <c r="H66" s="86" t="s">
         <v>360</v>
       </c>
       <c r="I66" t="s">
         <v>431</v>
       </c>
-      <c r="J66" s="113" t="s">
+      <c r="J66" s="89" t="s">
         <v>366</v>
       </c>
       <c r="K66" t="s">
@@ -13728,13 +15446,13 @@
       <c r="G67" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H67" s="110" t="s">
+      <c r="H67" s="86" t="s">
         <v>370</v>
       </c>
       <c r="I67" t="s">
         <v>431</v>
       </c>
-      <c r="J67" s="113" t="s">
+      <c r="J67" s="89" t="s">
         <v>269</v>
       </c>
       <c r="K67" t="s">
@@ -13781,13 +15499,13 @@
       <c r="G68" s="78" t="s">
         <v>436</v>
       </c>
-      <c r="H68" s="110" t="s">
+      <c r="H68" s="86" t="s">
         <v>372</v>
       </c>
       <c r="I68" t="s">
         <v>431</v>
       </c>
-      <c r="J68" s="113" t="s">
+      <c r="J68" s="89" t="s">
         <v>373</v>
       </c>
       <c r="K68" t="s">
@@ -13826,7 +15544,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13840,7 +15558,7 @@
       <c r="A1" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="86" t="s">
         <v>478</v>
       </c>
       <c r="C1" s="61" t="s">
@@ -13854,7 +15572,7 @@
       <c r="A2" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="86" t="s">
         <v>462</v>
       </c>
       <c r="C2" s="61" t="s">
@@ -13868,7 +15586,7 @@
       <c r="A3" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="86" t="s">
         <v>465</v>
       </c>
       <c r="C3" s="61" t="s">
@@ -13882,7 +15600,7 @@
       <c r="A4" t="s">
         <v>429</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="86" t="s">
         <v>468</v>
       </c>
       <c r="C4" s="61" t="s">
@@ -13896,7 +15614,7 @@
       <c r="A5" t="s">
         <v>429</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="86" t="s">
         <v>472</v>
       </c>
       <c r="C5" s="61" t="s">
@@ -13910,7 +15628,7 @@
       <c r="A6" t="s">
         <v>429</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="86" t="s">
         <v>470</v>
       </c>
       <c r="C6" s="61" t="s">
@@ -13924,7 +15642,7 @@
       <c r="A7" t="s">
         <v>429</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="86" t="s">
         <v>476</v>
       </c>
       <c r="C7" s="61" t="s">
@@ -13938,7 +15656,7 @@
       <c r="A8" t="s">
         <v>429</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="86" t="s">
         <v>474</v>
       </c>
       <c r="C8" s="61" t="s">
@@ -13952,7 +15670,7 @@
       <c r="A9" t="s">
         <v>429</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="86" t="s">
         <v>437</v>
       </c>
       <c r="C9" s="61" t="s">
@@ -13966,7 +15684,7 @@
       <c r="A10" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="86" t="s">
         <v>438</v>
       </c>
       <c r="C10" s="61" t="s">
@@ -13980,7 +15698,7 @@
       <c r="A11" t="s">
         <v>429</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="86" t="s">
         <v>439</v>
       </c>
       <c r="C11" s="61" t="s">
@@ -13994,7 +15712,7 @@
       <c r="A12" t="s">
         <v>429</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="86" t="s">
         <v>440</v>
       </c>
       <c r="C12" s="61" t="s">
@@ -14008,7 +15726,7 @@
       <c r="A13" t="s">
         <v>429</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="86" t="s">
         <v>441</v>
       </c>
       <c r="C13" s="61" t="s">
@@ -14022,7 +15740,7 @@
       <c r="A14" t="s">
         <v>429</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="86" t="s">
         <v>442</v>
       </c>
       <c r="C14" s="61" t="s">
@@ -14036,7 +15754,7 @@
       <c r="A15" t="s">
         <v>429</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="86" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="61" t="s">
@@ -14050,7 +15768,7 @@
       <c r="A16" t="s">
         <v>429</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="86" t="s">
         <v>444</v>
       </c>
       <c r="C16" s="61" t="s">
@@ -14064,7 +15782,7 @@
       <c r="A17" t="s">
         <v>429</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="86" t="s">
         <v>460</v>
       </c>
       <c r="C17" s="61" t="s">
@@ -14078,7 +15796,7 @@
       <c r="A18" t="s">
         <v>429</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="86" t="s">
         <v>445</v>
       </c>
       <c r="C18" s="61" t="s">
@@ -14092,7 +15810,7 @@
       <c r="A19" t="s">
         <v>429</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="86" t="s">
         <v>372</v>
       </c>
       <c r="C19" s="61" t="s">
@@ -14106,7 +15824,7 @@
       <c r="A20" t="s">
         <v>429</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="86" t="s">
         <v>269</v>
       </c>
       <c r="C20" s="61" t="s">
@@ -14120,7 +15838,7 @@
       <c r="A21" t="s">
         <v>429</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="89" t="s">
         <v>373</v>
       </c>
       <c r="C21" s="61" t="s">
@@ -14134,7 +15852,7 @@
       <c r="A22" t="s">
         <v>429</v>
       </c>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="86" t="s">
         <v>463</v>
       </c>
       <c r="C22" s="61" t="s">
@@ -14148,7 +15866,7 @@
       <c r="A23" t="s">
         <v>429</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="86" t="s">
         <v>461</v>
       </c>
       <c r="C23" s="61" t="s">
@@ -14162,7 +15880,7 @@
       <c r="A24" t="s">
         <v>429</v>
       </c>
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="86" t="s">
         <v>466</v>
       </c>
       <c r="C24" s="61" t="s">
@@ -14176,7 +15894,7 @@
       <c r="A25" t="s">
         <v>429</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="86" t="s">
         <v>464</v>
       </c>
       <c r="C25" s="61" t="s">
@@ -14190,7 +15908,7 @@
       <c r="A26" t="s">
         <v>429</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="86" t="s">
         <v>469</v>
       </c>
       <c r="C26" s="61" t="s">
@@ -14204,7 +15922,7 @@
       <c r="A27" t="s">
         <v>429</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="86" t="s">
         <v>467</v>
       </c>
       <c r="C27" s="61" t="s">
@@ -14218,7 +15936,7 @@
       <c r="A28" t="s">
         <v>429</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="86" t="s">
         <v>473</v>
       </c>
       <c r="C28" s="61" t="s">
@@ -14232,7 +15950,7 @@
       <c r="A29" t="s">
         <v>429</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="86" t="s">
         <v>471</v>
       </c>
       <c r="C29" s="61" t="s">
@@ -14246,7 +15964,7 @@
       <c r="A30" t="s">
         <v>429</v>
       </c>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="86" t="s">
         <v>477</v>
       </c>
       <c r="C30" s="61" t="s">
@@ -14260,7 +15978,7 @@
       <c r="A31" t="s">
         <v>429</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="86" t="s">
         <v>475</v>
       </c>
       <c r="C31" s="61" t="s">
@@ -14274,7 +15992,7 @@
       <c r="A32" t="s">
         <v>429</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="86" t="s">
         <v>370</v>
       </c>
       <c r="C32" s="61" t="s">
@@ -14288,7 +16006,7 @@
       <c r="A33" t="s">
         <v>429</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="86" t="s">
         <v>362</v>
       </c>
       <c r="C33" s="61" t="s">
@@ -14302,7 +16020,7 @@
       <c r="A34" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="86" t="s">
         <v>360</v>
       </c>
       <c r="C34" s="61" t="s">
@@ -14316,7 +16034,7 @@
       <c r="A35" t="s">
         <v>429</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="86" t="s">
         <v>308</v>
       </c>
       <c r="C35" s="61" t="s">
@@ -14330,7 +16048,7 @@
       <c r="A36" t="s">
         <v>429</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="86" t="s">
         <v>316</v>
       </c>
       <c r="C36" s="61" t="s">
@@ -14344,7 +16062,7 @@
       <c r="A37" t="s">
         <v>429</v>
       </c>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="86" t="s">
         <v>324</v>
       </c>
       <c r="C37" s="61" t="s">
@@ -14358,7 +16076,7 @@
       <c r="A38" t="s">
         <v>429</v>
       </c>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="86" t="s">
         <v>332</v>
       </c>
       <c r="C38" s="61" t="s">
@@ -14372,7 +16090,7 @@
       <c r="A39" t="s">
         <v>429</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="86" t="s">
         <v>341</v>
       </c>
       <c r="C39" s="61" t="s">
@@ -14386,7 +16104,7 @@
       <c r="A40" t="s">
         <v>429</v>
       </c>
-      <c r="B40" s="110" t="s">
+      <c r="B40" s="86" t="s">
         <v>368</v>
       </c>
       <c r="C40" s="61" t="s">
@@ -14400,7 +16118,7 @@
       <c r="A41" t="s">
         <v>429</v>
       </c>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="86" t="s">
         <v>358</v>
       </c>
       <c r="C41" s="61" t="s">
@@ -14414,7 +16132,7 @@
       <c r="A42" t="s">
         <v>429</v>
       </c>
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="86" t="s">
         <v>446</v>
       </c>
       <c r="C42" s="61" t="s">
@@ -14428,7 +16146,7 @@
       <c r="A43" t="s">
         <v>429</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="86" t="s">
         <v>447</v>
       </c>
       <c r="C43" s="61" t="s">
@@ -14442,7 +16160,7 @@
       <c r="A44" t="s">
         <v>429</v>
       </c>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="86" t="s">
         <v>366</v>
       </c>
       <c r="C44" s="61" t="s">
@@ -14456,7 +16174,7 @@
       <c r="A45" t="s">
         <v>429</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="86" t="s">
         <v>353</v>
       </c>
       <c r="C45" s="61" t="s">
@@ -14470,7 +16188,7 @@
       <c r="A46" t="s">
         <v>429</v>
       </c>
-      <c r="B46" s="110" t="s">
+      <c r="B46" s="86" t="s">
         <v>451</v>
       </c>
       <c r="C46" s="61" t="s">
@@ -14484,7 +16202,7 @@
       <c r="A47" t="s">
         <v>429</v>
       </c>
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="86" t="s">
         <v>454</v>
       </c>
       <c r="C47" s="61" t="s">
@@ -14498,7 +16216,7 @@
       <c r="A48" t="s">
         <v>429</v>
       </c>
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="86" t="s">
         <v>457</v>
       </c>
       <c r="C48" s="61" t="s">
@@ -14512,7 +16230,7 @@
       <c r="A49" t="s">
         <v>429</v>
       </c>
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="86" t="s">
         <v>459</v>
       </c>
       <c r="C49" s="61" t="s">
@@ -14526,7 +16244,7 @@
       <c r="A50" t="s">
         <v>429</v>
       </c>
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="86" t="s">
         <v>455</v>
       </c>
       <c r="C50" s="61" t="s">
@@ -14540,7 +16258,7 @@
       <c r="A51" t="s">
         <v>429</v>
       </c>
-      <c r="B51" s="110" t="s">
+      <c r="B51" s="86" t="s">
         <v>453</v>
       </c>
       <c r="C51" s="61" t="s">
@@ -14554,7 +16272,7 @@
       <c r="A52" t="s">
         <v>429</v>
       </c>
-      <c r="B52" s="110" t="s">
+      <c r="B52" s="86" t="s">
         <v>458</v>
       </c>
       <c r="C52" s="61" t="s">
@@ -14568,7 +16286,7 @@
       <c r="A53" t="s">
         <v>429</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="86" t="s">
         <v>456</v>
       </c>
       <c r="C53" s="61" t="s">
@@ -14582,7 +16300,7 @@
       <c r="A54" t="s">
         <v>429</v>
       </c>
-      <c r="B54" s="110" t="s">
+      <c r="B54" s="86" t="s">
         <v>449</v>
       </c>
       <c r="C54" s="61" t="s">
@@ -14596,7 +16314,7 @@
       <c r="A55" t="s">
         <v>429</v>
       </c>
-      <c r="B55" s="110" t="s">
+      <c r="B55" s="86" t="s">
         <v>448</v>
       </c>
       <c r="C55" s="61" t="s">
@@ -14610,7 +16328,7 @@
       <c r="A56" t="s">
         <v>429</v>
       </c>
-      <c r="B56" s="110" t="s">
+      <c r="B56" s="86" t="s">
         <v>452</v>
       </c>
       <c r="C56" s="61" t="s">
@@ -14624,7 +16342,7 @@
       <c r="A57" t="s">
         <v>429</v>
       </c>
-      <c r="B57" s="110" t="s">
+      <c r="B57" s="86" t="s">
         <v>450</v>
       </c>
       <c r="C57" s="61" t="s">

--- a/all-in-one(May.9).xlsx
+++ b/all-in-one(May.9).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="132" windowWidth="20112" windowHeight="12072" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="132" windowWidth="18840" windowHeight="7488" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Use-Cases" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="t_transitions" sheetId="9" r:id="rId10"/>
     <sheet name="next_rel" sheetId="10" r:id="rId11"/>
     <sheet name="actions_new" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet4" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="603">
   <si>
     <t>Use Case ID</t>
   </si>
@@ -2186,6 +2189,108 @@
   <si>
     <t>contractCorrectionSignPartA</t>
   </si>
+  <si>
+    <t>{ name: '</t>
+  </si>
+  <si>
+    <t>', from: '</t>
+  </si>
+  <si>
+    <t>', to : '</t>
+  </si>
+  <si>
+    <t>'},</t>
+  </si>
+  <si>
+    <t>UI.Settings</t>
+  </si>
+  <si>
+    <t>UI.Report</t>
+  </si>
+  <si>
+    <t>UI.Process</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>UI.Settings.Access</t>
+  </si>
+  <si>
+    <t>UI.Report.Access</t>
+  </si>
+  <si>
+    <t>UI.Process.Access</t>
+  </si>
+  <si>
+    <t>contractActions.set('</t>
+  </si>
+  <si>
+    <t>');</t>
+  </si>
+  <si>
+    <t>*updated on Aug.02.2019 =&gt; all UI_action different name, approval on every level, not just approval</t>
+  </si>
+  <si>
+    <t>template.approve.a</t>
+  </si>
+  <si>
+    <t>template.decline.a</t>
+  </si>
+  <si>
+    <t>template.approve.b</t>
+  </si>
+  <si>
+    <t>template.decline.b</t>
+  </si>
+  <si>
+    <t>contract.approve.level1</t>
+  </si>
+  <si>
+    <t>contract.decline.level1</t>
+  </si>
+  <si>
+    <t>contract.approve.level2</t>
+  </si>
+  <si>
+    <t>contract.decline.level2</t>
+  </si>
+  <si>
+    <t>contract.approve.level3</t>
+  </si>
+  <si>
+    <t>contract.decline.level3</t>
+  </si>
+  <si>
+    <t>contract.approve.level4</t>
+  </si>
+  <si>
+    <t>contract.conditonalApprove.level4</t>
+  </si>
+  <si>
+    <t>contract.decline.level4</t>
+  </si>
+  <si>
+    <t>contract.approve.level5</t>
+  </si>
+  <si>
+    <t>contract.conditonalApprove.level5</t>
+  </si>
+  <si>
+    <t>contract.decline.level5</t>
+  </si>
+  <si>
+    <t>contract.sign.b</t>
+  </si>
+  <si>
+    <t>contract.declineSign.b</t>
+  </si>
+  <si>
+    <t>contract.sign.a</t>
+  </si>
+  <si>
+    <t>contract.declineSign.a</t>
+  </si>
 </sst>
 </file>
 
@@ -2194,7 +2299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2382,6 +2487,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2765,7 +2877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2973,6 +3085,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2986,6 +3099,8 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="4" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="4" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
@@ -3002,12 +3117,11 @@
     <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -6160,51 +6274,5111 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" customWidth="1"/>
-    <col min="4" max="4" width="3.77734375" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="44.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" customWidth="1"/>
-    <col min="9" max="9" width="67.33203125" customWidth="1"/>
-    <col min="10" max="11" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="68" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="68" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" style="68" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="68" customWidth="1"/>
+    <col min="8" max="8" width="44.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="68" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="11" max="11" width="8" style="68" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" style="68" customWidth="1"/>
+    <col min="14" max="14" width="67.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="68" customWidth="1"/>
+    <col min="16" max="17" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="116" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="149"/>
+      <c r="B1" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1" s="149"/>
+      <c r="D1" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="149"/>
+      <c r="F1" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" s="149"/>
+      <c r="H1" s="115" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="149"/>
+      <c r="J1" s="115" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" s="149"/>
+      <c r="L1" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="M1" s="149"/>
+      <c r="N1" s="115" t="s">
+        <v>523</v>
+      </c>
+      <c r="O1" s="149"/>
+      <c r="P1" s="115" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q1" s="115" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" s="124" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H2" s="125" t="s">
+        <v>450</v>
+      </c>
+      <c r="I2" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J2" s="126" t="s">
+        <v>526</v>
+      </c>
+      <c r="K2" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L2" s="126" t="s">
+        <v>527</v>
+      </c>
+      <c r="M2" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>529</v>
+      </c>
+      <c r="O2" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F3" s="128" t="s">
+        <v>450</v>
+      </c>
+      <c r="G3" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H3" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="I3" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J3" s="137" t="s">
+        <v>415</v>
+      </c>
+      <c r="K3" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L3" s="137" t="s">
+        <v>408</v>
+      </c>
+      <c r="M3" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N3" s="129" t="s">
+        <v>530</v>
+      </c>
+      <c r="O3" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="134" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="124" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H4" s="125" t="s">
+        <v>449</v>
+      </c>
+      <c r="I4" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J4" s="134" t="s">
+        <v>416</v>
+      </c>
+      <c r="K4" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L4" s="123" t="s">
+        <v>408</v>
+      </c>
+      <c r="M4" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N4" s="125" t="s">
+        <v>531</v>
+      </c>
+      <c r="O4" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="134" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H5" s="125" t="s">
+        <v>446</v>
+      </c>
+      <c r="I5" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J5" s="134" t="s">
+        <v>417</v>
+      </c>
+      <c r="K5" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L5" s="123" t="s">
+        <v>408</v>
+      </c>
+      <c r="M5" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N5" s="125" t="s">
+        <v>566</v>
+      </c>
+      <c r="O5" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H6" s="121" t="s">
+        <v>445</v>
+      </c>
+      <c r="I6" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J6" s="138" t="s">
+        <v>416</v>
+      </c>
+      <c r="K6" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L6" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="M6" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N6" s="121" t="s">
+        <v>532</v>
+      </c>
+      <c r="O6" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F7" s="120" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H7" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="I7" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J7" s="133" t="s">
+        <v>417</v>
+      </c>
+      <c r="K7" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L7" s="119" t="s">
+        <v>408</v>
+      </c>
+      <c r="M7" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N7" s="121" t="s">
+        <v>565</v>
+      </c>
+      <c r="O7" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F8" s="120" t="s">
+        <v>446</v>
+      </c>
+      <c r="G8" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H8" s="121" t="s">
+        <v>448</v>
+      </c>
+      <c r="I8" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J8" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="K8" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L8" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="M8" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N8" s="121" t="s">
+        <v>535</v>
+      </c>
+      <c r="O8" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F9" s="120" t="s">
+        <v>447</v>
+      </c>
+      <c r="G9" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H9" s="121" t="s">
+        <v>449</v>
+      </c>
+      <c r="I9" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J9" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="K9" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L9" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="M9" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N9" s="121" t="s">
+        <v>536</v>
+      </c>
+      <c r="O9" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>380</v>
+      </c>
+      <c r="E10" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>445</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H10" s="121" t="s">
+        <v>308</v>
+      </c>
+      <c r="I10" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J10" s="122" t="s">
+        <v>419</v>
+      </c>
+      <c r="K10" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L10" s="122" t="s">
+        <v>409</v>
+      </c>
+      <c r="M10" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N10" s="121" t="s">
+        <v>533</v>
+      </c>
+      <c r="O10" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F11" s="124" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H11" s="125" t="s">
+        <v>316</v>
+      </c>
+      <c r="I11" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J11" s="123" t="s">
+        <v>420</v>
+      </c>
+      <c r="K11" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L11" s="123" t="s">
+        <v>410</v>
+      </c>
+      <c r="M11" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N11" s="125" t="s">
+        <v>534</v>
+      </c>
+      <c r="O11" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F12" s="124" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H12" s="125" t="s">
+        <v>528</v>
+      </c>
+      <c r="I12" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J12" s="126" t="s">
+        <v>421</v>
+      </c>
+      <c r="K12" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L12" s="126" t="s">
+        <v>410</v>
+      </c>
+      <c r="M12" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N12" s="125" t="s">
+        <v>564</v>
+      </c>
+      <c r="O12" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="144" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" s="145" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F13" s="146" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H13" s="146" t="s">
+        <v>308</v>
+      </c>
+      <c r="I13" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J13" s="145" t="s">
+        <v>422</v>
+      </c>
+      <c r="K13" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="145" t="s">
+        <v>409</v>
+      </c>
+      <c r="M13" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N13" s="146" t="s">
+        <v>544</v>
+      </c>
+      <c r="O13" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D14" s="130" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" s="128" t="s">
+        <v>316</v>
+      </c>
+      <c r="G14" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H14" s="129" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J14" s="130" t="s">
+        <v>420</v>
+      </c>
+      <c r="K14" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L14" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="M14" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N14" s="129" t="s">
+        <v>537</v>
+      </c>
+      <c r="O14" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="130" t="s">
+        <v>384</v>
+      </c>
+      <c r="E15" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F15" s="128" t="s">
+        <v>316</v>
+      </c>
+      <c r="G15" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H15" s="129" t="s">
+        <v>439</v>
+      </c>
+      <c r="I15" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J15" s="137" t="s">
+        <v>421</v>
+      </c>
+      <c r="K15" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L15" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="M15" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N15" s="129" t="s">
+        <v>563</v>
+      </c>
+      <c r="O15" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="144" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="147" t="s">
+        <v>382</v>
+      </c>
+      <c r="E16" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F16" s="148" t="s">
+        <v>439</v>
+      </c>
+      <c r="G16" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H16" s="146" t="s">
+        <v>308</v>
+      </c>
+      <c r="I16" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J16" s="145" t="s">
+        <v>422</v>
+      </c>
+      <c r="K16" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L16" s="145" t="s">
+        <v>409</v>
+      </c>
+      <c r="M16" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N16" s="146" t="s">
+        <v>543</v>
+      </c>
+      <c r="O16" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B17" s="127" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" s="130" t="s">
+        <v>388</v>
+      </c>
+      <c r="E17" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F17" s="128" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H17" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J17" s="137" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L17" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="M17" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N17" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="O17" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="127" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D18" s="130" t="s">
+        <v>389</v>
+      </c>
+      <c r="E18" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F18" s="128" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H18" s="129" t="s">
+        <v>440</v>
+      </c>
+      <c r="I18" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J18" s="137" t="s">
+        <v>421</v>
+      </c>
+      <c r="K18" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L18" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="M18" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N18" s="129" t="s">
+        <v>562</v>
+      </c>
+      <c r="O18" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B19" s="144" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D19" s="147" t="s">
+        <v>387</v>
+      </c>
+      <c r="E19" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="148" t="s">
+        <v>440</v>
+      </c>
+      <c r="G19" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H19" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="I19" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J19" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="K19" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L19" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="M19" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N19" s="146" t="s">
+        <v>542</v>
+      </c>
+      <c r="O19" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D20" s="130" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G20" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H20" s="129" t="s">
+        <v>341</v>
+      </c>
+      <c r="I20" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J20" s="130" t="s">
+        <v>420</v>
+      </c>
+      <c r="K20" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L20" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="M20" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N20" s="129" t="s">
+        <v>539</v>
+      </c>
+      <c r="O20" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" s="130" t="s">
+        <v>392</v>
+      </c>
+      <c r="E21" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G21" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H21" s="129" t="s">
+        <v>442</v>
+      </c>
+      <c r="I21" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J21" s="137" t="s">
+        <v>423</v>
+      </c>
+      <c r="K21" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L21" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="M21" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N21" s="129" t="s">
+        <v>540</v>
+      </c>
+      <c r="O21" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D22" s="130" t="s">
+        <v>391</v>
+      </c>
+      <c r="E22" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G22" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H22" s="129" t="s">
+        <v>441</v>
+      </c>
+      <c r="I22" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J22" s="130" t="s">
+        <v>421</v>
+      </c>
+      <c r="K22" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L22" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="M22" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N22" s="129" t="s">
+        <v>561</v>
+      </c>
+      <c r="O22" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" s="144" t="s">
+        <v>343</v>
+      </c>
+      <c r="C23" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D23" s="147" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F23" s="148" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H23" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="I23" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J23" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="K23" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L23" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="M23" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N23" s="146" t="s">
+        <v>541</v>
+      </c>
+      <c r="O23" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" s="139" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D24" s="140" t="s">
+        <v>394</v>
+      </c>
+      <c r="E24" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F24" s="141" t="s">
+        <v>442</v>
+      </c>
+      <c r="G24" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H24" s="142" t="s">
+        <v>341</v>
+      </c>
+      <c r="I24" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J24" s="143" t="s">
+        <v>422</v>
+      </c>
+      <c r="K24" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L24" s="143" t="s">
+        <v>409</v>
+      </c>
+      <c r="M24" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N24" s="146" t="s">
+        <v>545</v>
+      </c>
+      <c r="O24" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B25" s="127" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D25" s="130" t="s">
+        <v>395</v>
+      </c>
+      <c r="E25" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F25" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="G25" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H25" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="I25" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J25" s="130" t="s">
+        <v>420</v>
+      </c>
+      <c r="K25" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L25" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="M25" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N25" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="O25" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26" s="127" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D26" s="130" t="s">
+        <v>397</v>
+      </c>
+      <c r="E26" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="G26" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H26" s="129" t="s">
+        <v>444</v>
+      </c>
+      <c r="I26" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J26" s="137" t="s">
+        <v>423</v>
+      </c>
+      <c r="K26" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L26" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="M26" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N26" s="129" t="s">
+        <v>547</v>
+      </c>
+      <c r="O26" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B27" s="127" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D27" s="130" t="s">
+        <v>396</v>
+      </c>
+      <c r="E27" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F27" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="G27" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H27" s="129" t="s">
+        <v>443</v>
+      </c>
+      <c r="I27" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J27" s="130" t="s">
+        <v>421</v>
+      </c>
+      <c r="K27" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L27" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="M27" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N27" s="129" t="s">
+        <v>560</v>
+      </c>
+      <c r="O27" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B28" s="144" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D28" s="147" t="s">
+        <v>399</v>
+      </c>
+      <c r="E28" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F28" s="148" t="s">
+        <v>443</v>
+      </c>
+      <c r="G28" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H28" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="I28" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J28" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="K28" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L28" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="M28" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N28" s="146" t="s">
+        <v>548</v>
+      </c>
+      <c r="O28" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B29" s="139" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D29" s="140" t="s">
+        <v>398</v>
+      </c>
+      <c r="E29" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F29" s="141" t="s">
+        <v>444</v>
+      </c>
+      <c r="G29" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H29" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="I29" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J29" s="143" t="s">
+        <v>422</v>
+      </c>
+      <c r="K29" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L29" s="143" t="s">
+        <v>409</v>
+      </c>
+      <c r="M29" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N29" s="146" t="s">
+        <v>549</v>
+      </c>
+      <c r="O29" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B30" s="127" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D30" s="130" t="s">
+        <v>402</v>
+      </c>
+      <c r="E30" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F30" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="G30" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H30" s="129" t="s">
+        <v>368</v>
+      </c>
+      <c r="I30" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J30" s="130" t="s">
+        <v>424</v>
+      </c>
+      <c r="K30" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L30" s="130" t="s">
+        <v>411</v>
+      </c>
+      <c r="M30" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N30" s="129" t="s">
+        <v>550</v>
+      </c>
+      <c r="O30" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B31" s="127" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D31" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="E31" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F31" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="G31" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H31" s="129" t="s">
+        <v>438</v>
+      </c>
+      <c r="I31" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J31" s="130" t="s">
+        <v>426</v>
+      </c>
+      <c r="K31" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L31" s="130" t="s">
+        <v>411</v>
+      </c>
+      <c r="M31" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N31" s="129" t="s">
+        <v>551</v>
+      </c>
+      <c r="O31" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B32" s="144" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D32" s="147" t="s">
+        <v>404</v>
+      </c>
+      <c r="E32" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F32" s="148" t="s">
+        <v>438</v>
+      </c>
+      <c r="G32" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H32" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="I32" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J32" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="K32" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L32" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="M32" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N32" s="146" t="s">
+        <v>552</v>
+      </c>
+      <c r="O32" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B33" s="127" t="s">
+        <v>369</v>
+      </c>
+      <c r="C33" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D33" s="130" t="s">
+        <v>405</v>
+      </c>
+      <c r="E33" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F33" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H33" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="I33" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J33" s="130" t="s">
+        <v>424</v>
+      </c>
+      <c r="K33" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L33" s="130" t="s">
+        <v>411</v>
+      </c>
+      <c r="M33" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N33" s="129" t="s">
+        <v>554</v>
+      </c>
+      <c r="O33" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B34" s="144" t="s">
+        <v>568</v>
+      </c>
+      <c r="C34" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D34" s="147" t="s">
+        <v>557</v>
+      </c>
+      <c r="E34" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F34" s="148" t="s">
+        <v>556</v>
+      </c>
+      <c r="G34" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H34" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="I34" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J34" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="K34" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L34" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="M34" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N34" s="146" t="s">
+        <v>558</v>
+      </c>
+      <c r="O34" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B35" s="127" t="s">
+        <v>567</v>
+      </c>
+      <c r="C35" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D35" s="130" t="s">
+        <v>555</v>
+      </c>
+      <c r="E35" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F35" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="G35" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H35" s="129" t="s">
+        <v>556</v>
+      </c>
+      <c r="I35" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J35" s="130" t="s">
+        <v>426</v>
+      </c>
+      <c r="K35" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L35" s="130" t="s">
+        <v>411</v>
+      </c>
+      <c r="M35" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N35" s="129" t="s">
+        <v>559</v>
+      </c>
+      <c r="O35" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B36" s="127" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D36" s="130" t="s">
+        <v>406</v>
+      </c>
+      <c r="E36" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F36" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H36" s="129" t="s">
+        <v>373</v>
+      </c>
+      <c r="I36" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J36" s="130" t="s">
+        <v>427</v>
+      </c>
+      <c r="K36" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L36" s="130" t="s">
+        <v>412</v>
+      </c>
+      <c r="M36" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N36" s="129" t="s">
+        <v>553</v>
+      </c>
+      <c r="O36" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="153" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="116" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="149"/>
+      <c r="B46" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="C46" s="149"/>
+      <c r="D46" s="115" t="s">
+        <v>277</v>
+      </c>
+      <c r="E46" s="149"/>
+      <c r="F46" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="G46" s="149"/>
+      <c r="H46" s="115" t="s">
+        <v>275</v>
+      </c>
+      <c r="I46" s="149"/>
+      <c r="J46" s="115" t="s">
+        <v>281</v>
+      </c>
+      <c r="K46" s="149"/>
+      <c r="L46" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="M46" s="149"/>
+      <c r="N46" s="115" t="s">
+        <v>523</v>
+      </c>
+      <c r="O46" s="149"/>
+      <c r="P46" s="115" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q46" s="115" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D47" s="123" t="s">
+        <v>451</v>
+      </c>
+      <c r="E47" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F47" s="124" t="s">
+        <v>525</v>
+      </c>
+      <c r="G47" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H47" s="125" t="s">
+        <v>450</v>
+      </c>
+      <c r="I47" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J47" s="126" t="s">
+        <v>526</v>
+      </c>
+      <c r="K47" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L47" s="126" t="s">
+        <v>527</v>
+      </c>
+      <c r="M47" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N47" s="62" t="s">
+        <v>529</v>
+      </c>
+      <c r="O47" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B48" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D48" s="130" t="s">
+        <v>282</v>
+      </c>
+      <c r="E48" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F48" s="128" t="s">
+        <v>450</v>
+      </c>
+      <c r="G48" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H48" s="129" t="s">
+        <v>448</v>
+      </c>
+      <c r="I48" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J48" s="137" t="s">
+        <v>415</v>
+      </c>
+      <c r="K48" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L48" s="137" t="s">
+        <v>408</v>
+      </c>
+      <c r="M48" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N48" s="129" t="s">
+        <v>530</v>
+      </c>
+      <c r="O48" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B49" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D49" s="134" t="s">
+        <v>374</v>
+      </c>
+      <c r="E49" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F49" s="124" t="s">
+        <v>448</v>
+      </c>
+      <c r="G49" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H49" s="125" t="s">
+        <v>449</v>
+      </c>
+      <c r="I49" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J49" s="134" t="s">
+        <v>583</v>
+      </c>
+      <c r="K49" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L49" s="123" t="s">
+        <v>408</v>
+      </c>
+      <c r="M49" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N49" s="125" t="s">
+        <v>531</v>
+      </c>
+      <c r="O49" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B50" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D50" s="134" t="s">
+        <v>375</v>
+      </c>
+      <c r="E50" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F50" s="124" t="s">
+        <v>448</v>
+      </c>
+      <c r="G50" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H50" s="125" t="s">
+        <v>446</v>
+      </c>
+      <c r="I50" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J50" s="134" t="s">
+        <v>584</v>
+      </c>
+      <c r="K50" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L50" s="123" t="s">
+        <v>408</v>
+      </c>
+      <c r="M50" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N50" s="125" t="s">
+        <v>566</v>
+      </c>
+      <c r="O50" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B51" s="118" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D51" s="119" t="s">
+        <v>378</v>
+      </c>
+      <c r="E51" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F51" s="120" t="s">
+        <v>449</v>
+      </c>
+      <c r="G51" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H51" s="121" t="s">
+        <v>445</v>
+      </c>
+      <c r="I51" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J51" s="138" t="s">
+        <v>585</v>
+      </c>
+      <c r="K51" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L51" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="M51" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N51" s="121" t="s">
+        <v>532</v>
+      </c>
+      <c r="O51" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B52" s="118" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D52" s="119" t="s">
+        <v>379</v>
+      </c>
+      <c r="E52" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F52" s="120" t="s">
+        <v>449</v>
+      </c>
+      <c r="G52" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H52" s="121" t="s">
+        <v>447</v>
+      </c>
+      <c r="I52" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J52" s="133" t="s">
+        <v>586</v>
+      </c>
+      <c r="K52" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L52" s="119" t="s">
+        <v>408</v>
+      </c>
+      <c r="M52" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N52" s="121" t="s">
+        <v>565</v>
+      </c>
+      <c r="O52" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B53" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D53" s="119" t="s">
+        <v>376</v>
+      </c>
+      <c r="E53" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F53" s="120" t="s">
+        <v>446</v>
+      </c>
+      <c r="G53" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H53" s="121" t="s">
+        <v>448</v>
+      </c>
+      <c r="I53" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J53" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="K53" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L53" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="M53" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N53" s="121" t="s">
+        <v>535</v>
+      </c>
+      <c r="O53" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B54" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D54" s="119" t="s">
+        <v>377</v>
+      </c>
+      <c r="E54" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F54" s="120" t="s">
+        <v>447</v>
+      </c>
+      <c r="G54" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H54" s="121" t="s">
+        <v>449</v>
+      </c>
+      <c r="I54" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J54" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="K54" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L54" s="122" t="s">
+        <v>408</v>
+      </c>
+      <c r="M54" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N54" s="121" t="s">
+        <v>536</v>
+      </c>
+      <c r="O54" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B55" s="118" t="s">
+        <v>306</v>
+      </c>
+      <c r="C55" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D55" s="119" t="s">
+        <v>380</v>
+      </c>
+      <c r="E55" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F55" s="120" t="s">
+        <v>445</v>
+      </c>
+      <c r="G55" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H55" s="121" t="s">
+        <v>308</v>
+      </c>
+      <c r="I55" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J55" s="122" t="s">
+        <v>419</v>
+      </c>
+      <c r="K55" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L55" s="122" t="s">
+        <v>409</v>
+      </c>
+      <c r="M55" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N55" s="121" t="s">
+        <v>533</v>
+      </c>
+      <c r="O55" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C56" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D56" s="123" t="s">
+        <v>385</v>
+      </c>
+      <c r="E56" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F56" s="124" t="s">
+        <v>308</v>
+      </c>
+      <c r="G56" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H56" s="125" t="s">
+        <v>316</v>
+      </c>
+      <c r="I56" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J56" s="123" t="s">
+        <v>587</v>
+      </c>
+      <c r="K56" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L56" s="123" t="s">
+        <v>410</v>
+      </c>
+      <c r="M56" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N56" s="125" t="s">
+        <v>534</v>
+      </c>
+      <c r="O56" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B57" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="C57" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D57" s="123" t="s">
+        <v>386</v>
+      </c>
+      <c r="E57" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F57" s="124" t="s">
+        <v>308</v>
+      </c>
+      <c r="G57" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H57" s="125" t="s">
+        <v>528</v>
+      </c>
+      <c r="I57" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J57" s="126" t="s">
+        <v>588</v>
+      </c>
+      <c r="K57" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L57" s="126" t="s">
+        <v>410</v>
+      </c>
+      <c r="M57" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N57" s="125" t="s">
+        <v>564</v>
+      </c>
+      <c r="O57" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B58" s="144" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D58" s="145" t="s">
+        <v>381</v>
+      </c>
+      <c r="E58" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F58" s="146" t="s">
+        <v>528</v>
+      </c>
+      <c r="G58" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H58" s="146" t="s">
+        <v>308</v>
+      </c>
+      <c r="I58" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J58" s="145" t="s">
+        <v>422</v>
+      </c>
+      <c r="K58" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L58" s="145" t="s">
+        <v>409</v>
+      </c>
+      <c r="M58" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N58" s="146" t="s">
+        <v>544</v>
+      </c>
+      <c r="O58" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B59" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="C59" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D59" s="130" t="s">
+        <v>383</v>
+      </c>
+      <c r="E59" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F59" s="128" t="s">
+        <v>316</v>
+      </c>
+      <c r="G59" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H59" s="129" t="s">
+        <v>324</v>
+      </c>
+      <c r="I59" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J59" s="130" t="s">
+        <v>589</v>
+      </c>
+      <c r="K59" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L59" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="M59" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N59" s="129" t="s">
+        <v>537</v>
+      </c>
+      <c r="O59" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B60" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="C60" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D60" s="130" t="s">
+        <v>384</v>
+      </c>
+      <c r="E60" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F60" s="128" t="s">
+        <v>316</v>
+      </c>
+      <c r="G60" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H60" s="129" t="s">
+        <v>439</v>
+      </c>
+      <c r="I60" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J60" s="137" t="s">
+        <v>590</v>
+      </c>
+      <c r="K60" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L60" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="M60" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N60" s="129" t="s">
+        <v>563</v>
+      </c>
+      <c r="O60" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B61" s="144" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D61" s="147" t="s">
+        <v>382</v>
+      </c>
+      <c r="E61" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F61" s="148" t="s">
+        <v>439</v>
+      </c>
+      <c r="G61" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H61" s="146" t="s">
+        <v>308</v>
+      </c>
+      <c r="I61" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J61" s="145" t="s">
+        <v>422</v>
+      </c>
+      <c r="K61" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L61" s="145" t="s">
+        <v>409</v>
+      </c>
+      <c r="M61" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N61" s="146" t="s">
+        <v>543</v>
+      </c>
+      <c r="O61" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62" s="127" t="s">
+        <v>325</v>
+      </c>
+      <c r="C62" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D62" s="130" t="s">
+        <v>388</v>
+      </c>
+      <c r="E62" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F62" s="128" t="s">
+        <v>324</v>
+      </c>
+      <c r="G62" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H62" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="I62" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J62" s="137" t="s">
+        <v>591</v>
+      </c>
+      <c r="K62" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L62" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="M62" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N62" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="O62" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B63" s="127" t="s">
+        <v>327</v>
+      </c>
+      <c r="C63" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D63" s="130" t="s">
+        <v>389</v>
+      </c>
+      <c r="E63" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F63" s="128" t="s">
+        <v>324</v>
+      </c>
+      <c r="G63" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H63" s="129" t="s">
+        <v>440</v>
+      </c>
+      <c r="I63" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J63" s="137" t="s">
+        <v>592</v>
+      </c>
+      <c r="K63" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L63" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="M63" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N63" s="129" t="s">
+        <v>562</v>
+      </c>
+      <c r="O63" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" s="144" t="s">
+        <v>330</v>
+      </c>
+      <c r="C64" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D64" s="147" t="s">
+        <v>387</v>
+      </c>
+      <c r="E64" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F64" s="148" t="s">
+        <v>440</v>
+      </c>
+      <c r="G64" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H64" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="I64" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J64" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="K64" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L64" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="M64" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N64" s="146" t="s">
+        <v>542</v>
+      </c>
+      <c r="O64" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B65" s="127" t="s">
+        <v>333</v>
+      </c>
+      <c r="C65" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D65" s="130" t="s">
+        <v>390</v>
+      </c>
+      <c r="E65" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F65" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G65" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H65" s="129" t="s">
+        <v>341</v>
+      </c>
+      <c r="I65" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J65" s="130" t="s">
+        <v>593</v>
+      </c>
+      <c r="K65" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="M65" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N65" s="129" t="s">
+        <v>539</v>
+      </c>
+      <c r="O65" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B66" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D66" s="130" t="s">
+        <v>392</v>
+      </c>
+      <c r="E66" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F66" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G66" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H66" s="129" t="s">
+        <v>442</v>
+      </c>
+      <c r="I66" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J66" s="137" t="s">
+        <v>594</v>
+      </c>
+      <c r="K66" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L66" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="M66" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N66" s="129" t="s">
+        <v>540</v>
+      </c>
+      <c r="O66" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B67" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D67" s="130" t="s">
+        <v>391</v>
+      </c>
+      <c r="E67" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F67" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="G67" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H67" s="129" t="s">
+        <v>441</v>
+      </c>
+      <c r="I67" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J67" s="130" t="s">
+        <v>595</v>
+      </c>
+      <c r="K67" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L67" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="M67" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N67" s="129" t="s">
+        <v>561</v>
+      </c>
+      <c r="O67" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B68" s="144" t="s">
+        <v>343</v>
+      </c>
+      <c r="C68" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D68" s="147" t="s">
+        <v>393</v>
+      </c>
+      <c r="E68" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F68" s="148" t="s">
+        <v>441</v>
+      </c>
+      <c r="G68" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H68" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="I68" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J68" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="K68" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L68" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="M68" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N68" s="146" t="s">
+        <v>541</v>
+      </c>
+      <c r="O68" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B69" s="139" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D69" s="140" t="s">
+        <v>394</v>
+      </c>
+      <c r="E69" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F69" s="141" t="s">
+        <v>442</v>
+      </c>
+      <c r="G69" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H69" s="142" t="s">
+        <v>341</v>
+      </c>
+      <c r="I69" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J69" s="143" t="s">
+        <v>422</v>
+      </c>
+      <c r="K69" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L69" s="143" t="s">
+        <v>409</v>
+      </c>
+      <c r="M69" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N69" s="146" t="s">
+        <v>545</v>
+      </c>
+      <c r="O69" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B70" s="127" t="s">
+        <v>345</v>
+      </c>
+      <c r="C70" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D70" s="130" t="s">
+        <v>395</v>
+      </c>
+      <c r="E70" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F70" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="G70" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H70" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="I70" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J70" s="130" t="s">
+        <v>596</v>
+      </c>
+      <c r="K70" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L70" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="M70" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N70" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="O70" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B71" s="127" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D71" s="130" t="s">
+        <v>397</v>
+      </c>
+      <c r="E71" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F71" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="G71" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H71" s="129" t="s">
+        <v>444</v>
+      </c>
+      <c r="I71" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J71" s="137" t="s">
+        <v>597</v>
+      </c>
+      <c r="K71" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L71" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="M71" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N71" s="129" t="s">
+        <v>547</v>
+      </c>
+      <c r="O71" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B72" s="127" t="s">
+        <v>347</v>
+      </c>
+      <c r="C72" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D72" s="130" t="s">
+        <v>396</v>
+      </c>
+      <c r="E72" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F72" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="G72" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H72" s="129" t="s">
+        <v>443</v>
+      </c>
+      <c r="I72" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J72" s="130" t="s">
+        <v>598</v>
+      </c>
+      <c r="K72" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L72" s="130" t="s">
+        <v>410</v>
+      </c>
+      <c r="M72" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N72" s="129" t="s">
+        <v>560</v>
+      </c>
+      <c r="O72" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B73" s="144" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D73" s="147" t="s">
+        <v>399</v>
+      </c>
+      <c r="E73" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F73" s="148" t="s">
+        <v>443</v>
+      </c>
+      <c r="G73" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H73" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="I73" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J73" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="K73" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L73" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="M73" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N73" s="146" t="s">
+        <v>548</v>
+      </c>
+      <c r="O73" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="139" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B74" s="139" t="s">
+        <v>351</v>
+      </c>
+      <c r="C74" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D74" s="140" t="s">
+        <v>398</v>
+      </c>
+      <c r="E74" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F74" s="141" t="s">
+        <v>444</v>
+      </c>
+      <c r="G74" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H74" s="129" t="s">
+        <v>358</v>
+      </c>
+      <c r="I74" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J74" s="143" t="s">
+        <v>422</v>
+      </c>
+      <c r="K74" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L74" s="143" t="s">
+        <v>409</v>
+      </c>
+      <c r="M74" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N74" s="146" t="s">
+        <v>549</v>
+      </c>
+      <c r="O74" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B75" s="127" t="s">
+        <v>359</v>
+      </c>
+      <c r="C75" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D75" s="130" t="s">
+        <v>402</v>
+      </c>
+      <c r="E75" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F75" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="G75" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H75" s="129" t="s">
+        <v>368</v>
+      </c>
+      <c r="I75" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J75" s="130" t="s">
+        <v>599</v>
+      </c>
+      <c r="K75" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L75" s="130" t="s">
+        <v>411</v>
+      </c>
+      <c r="M75" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N75" s="129" t="s">
+        <v>550</v>
+      </c>
+      <c r="O75" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B76" s="127" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D76" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="E76" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F76" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="G76" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H76" s="129" t="s">
+        <v>438</v>
+      </c>
+      <c r="I76" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J76" s="130" t="s">
+        <v>600</v>
+      </c>
+      <c r="K76" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L76" s="130" t="s">
+        <v>411</v>
+      </c>
+      <c r="M76" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N76" s="129" t="s">
+        <v>551</v>
+      </c>
+      <c r="O76" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B77" s="144" t="s">
+        <v>364</v>
+      </c>
+      <c r="C77" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D77" s="147" t="s">
+        <v>404</v>
+      </c>
+      <c r="E77" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F77" s="148" t="s">
+        <v>438</v>
+      </c>
+      <c r="G77" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H77" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="I77" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J77" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="K77" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L77" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="M77" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N77" s="146" t="s">
+        <v>552</v>
+      </c>
+      <c r="O77" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B78" s="127" t="s">
+        <v>369</v>
+      </c>
+      <c r="C78" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D78" s="130" t="s">
+        <v>405</v>
+      </c>
+      <c r="E78" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F78" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="G78" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H78" s="129" t="s">
+        <v>269</v>
+      </c>
+      <c r="I78" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J78" s="130" t="s">
+        <v>601</v>
+      </c>
+      <c r="K78" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L78" s="130" t="s">
+        <v>411</v>
+      </c>
+      <c r="M78" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N78" s="129" t="s">
+        <v>554</v>
+      </c>
+      <c r="O78" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B79" s="144" t="s">
+        <v>568</v>
+      </c>
+      <c r="C79" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D79" s="147" t="s">
+        <v>557</v>
+      </c>
+      <c r="E79" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F79" s="148" t="s">
+        <v>556</v>
+      </c>
+      <c r="G79" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H79" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="I79" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J79" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="K79" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L79" s="147" t="s">
+        <v>409</v>
+      </c>
+      <c r="M79" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N79" s="146" t="s">
+        <v>558</v>
+      </c>
+      <c r="O79" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B80" s="127" t="s">
+        <v>567</v>
+      </c>
+      <c r="C80" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D80" s="130" t="s">
+        <v>555</v>
+      </c>
+      <c r="E80" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F80" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="G80" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H80" s="129" t="s">
+        <v>556</v>
+      </c>
+      <c r="I80" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J80" s="130" t="s">
+        <v>602</v>
+      </c>
+      <c r="K80" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L80" s="130" t="s">
+        <v>411</v>
+      </c>
+      <c r="M80" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N80" s="129" t="s">
+        <v>559</v>
+      </c>
+      <c r="O80" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B81" s="127" t="s">
+        <v>371</v>
+      </c>
+      <c r="C81" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D81" s="130" t="s">
+        <v>406</v>
+      </c>
+      <c r="E81" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F81" s="128" t="s">
+        <v>269</v>
+      </c>
+      <c r="G81" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H81" s="129" t="s">
+        <v>373</v>
+      </c>
+      <c r="I81" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="J81" s="130" t="s">
+        <v>427</v>
+      </c>
+      <c r="K81" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="L81" s="130" t="s">
+        <v>412</v>
+      </c>
+      <c r="M81" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="N81" s="129" t="s">
+        <v>553</v>
+      </c>
+      <c r="O81" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="68"/>
+      <c r="B96" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="68"/>
+      <c r="D96" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E96" s="150"/>
+      <c r="F96" s="85" t="s">
+        <v>453</v>
+      </c>
+      <c r="G96" s="131"/>
+      <c r="H96" s="88" t="s">
+        <v>446</v>
+      </c>
+      <c r="I96" s="132"/>
+      <c r="J96" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K96" s="69"/>
+      <c r="L96" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M96" s="150"/>
+      <c r="O96" s="68"/>
+    </row>
+    <row r="97" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="68"/>
+      <c r="B97" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="68"/>
+      <c r="D97" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E97" s="150"/>
+      <c r="F97" s="85" t="s">
+        <v>454</v>
+      </c>
+      <c r="G97" s="131"/>
+      <c r="H97" s="88" t="s">
+        <v>448</v>
+      </c>
+      <c r="I97" s="132"/>
+      <c r="J97" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K97" s="69"/>
+      <c r="L97" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M97" s="150"/>
+      <c r="O97" s="68"/>
+    </row>
+    <row r="98" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="68"/>
+      <c r="B98" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="68"/>
+      <c r="D98" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E98" s="150"/>
+      <c r="F98" s="85" t="s">
+        <v>455</v>
+      </c>
+      <c r="G98" s="131"/>
+      <c r="H98" s="88" t="s">
+        <v>449</v>
+      </c>
+      <c r="I98" s="132"/>
+      <c r="J98" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K98" s="117"/>
+      <c r="L98" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M98" s="150"/>
+      <c r="O98" s="68"/>
+    </row>
+    <row r="99" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="68"/>
+      <c r="B99" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" s="68"/>
+      <c r="D99" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99" s="150"/>
+      <c r="F99" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="G99" s="131"/>
+      <c r="H99" s="88" t="s">
+        <v>447</v>
+      </c>
+      <c r="I99" s="132"/>
+      <c r="J99" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K99" s="69"/>
+      <c r="L99" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M99" s="150"/>
+      <c r="O99" s="68"/>
+    </row>
+    <row r="100" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="68"/>
+      <c r="B100" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" s="68"/>
+      <c r="D100" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100" s="150"/>
+      <c r="F100" s="85" t="s">
+        <v>457</v>
+      </c>
+      <c r="G100" s="131"/>
+      <c r="H100" s="88" t="s">
+        <v>449</v>
+      </c>
+      <c r="I100" s="132"/>
+      <c r="J100" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K100" s="117"/>
+      <c r="L100" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M100" s="150"/>
+      <c r="O100" s="68"/>
+    </row>
+    <row r="101" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="68"/>
+      <c r="B101" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" s="68"/>
+      <c r="D101" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E101" s="150"/>
+      <c r="F101" s="85" t="s">
+        <v>458</v>
+      </c>
+      <c r="G101" s="131"/>
+      <c r="H101" s="88" t="s">
+        <v>459</v>
+      </c>
+      <c r="I101" s="132"/>
+      <c r="J101" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K101" s="117"/>
+      <c r="L101" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M101" s="150"/>
+      <c r="O101" s="68"/>
+    </row>
+    <row r="102" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="68"/>
+      <c r="B102" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" s="68"/>
+      <c r="D102" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E102" s="150"/>
+      <c r="F102" s="85" t="s">
+        <v>459</v>
+      </c>
+      <c r="G102" s="131"/>
+      <c r="H102" s="88" t="s">
+        <v>445</v>
+      </c>
+      <c r="I102" s="132"/>
+      <c r="J102" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K102" s="69"/>
+      <c r="L102" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M102" s="150"/>
+      <c r="O102" s="68"/>
+    </row>
+    <row r="103" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="68"/>
+      <c r="B103" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103" s="68"/>
+      <c r="D103" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E103" s="150"/>
+      <c r="F103" s="85" t="s">
+        <v>460</v>
+      </c>
+      <c r="G103" s="131"/>
+      <c r="H103" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="I103" s="132"/>
+      <c r="J103" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K103" s="69"/>
+      <c r="L103" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M103" s="150"/>
+      <c r="O103" s="68"/>
+    </row>
+    <row r="104" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="68"/>
+      <c r="B104" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" s="68"/>
+      <c r="D104" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E104" s="150"/>
+      <c r="F104" s="85" t="s">
+        <v>461</v>
+      </c>
+      <c r="G104" s="131"/>
+      <c r="H104" s="88" t="s">
+        <v>528</v>
+      </c>
+      <c r="I104" s="132"/>
+      <c r="J104" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K104" s="117"/>
+      <c r="L104" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M104" s="150"/>
+      <c r="O104" s="68"/>
+    </row>
+    <row r="105" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="68"/>
+      <c r="B105" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" s="68"/>
+      <c r="D105" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E105" s="150"/>
+      <c r="F105" s="85" t="s">
+        <v>462</v>
+      </c>
+      <c r="G105" s="131"/>
+      <c r="H105" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="I105" s="132"/>
+      <c r="J105" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K105" s="69"/>
+      <c r="L105" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M105" s="150"/>
+      <c r="O105" s="68"/>
+    </row>
+    <row r="106" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="68"/>
+      <c r="B106" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106" s="68"/>
+      <c r="D106" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E106" s="150"/>
+      <c r="F106" s="85" t="s">
+        <v>463</v>
+      </c>
+      <c r="G106" s="131"/>
+      <c r="H106" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="I106" s="132"/>
+      <c r="J106" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K106" s="117"/>
+      <c r="L106" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M106" s="150"/>
+      <c r="O106" s="68"/>
+    </row>
+    <row r="107" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="68"/>
+      <c r="B107" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" s="68"/>
+      <c r="D107" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E107" s="150"/>
+      <c r="F107" s="85" t="s">
+        <v>464</v>
+      </c>
+      <c r="G107" s="131"/>
+      <c r="H107" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="I107" s="132"/>
+      <c r="J107" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K107" s="117"/>
+      <c r="L107" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M107" s="150"/>
+      <c r="O107" s="68"/>
+    </row>
+    <row r="108" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="68"/>
+      <c r="B108" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="68"/>
+      <c r="D108" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E108" s="150"/>
+      <c r="F108" s="85" t="s">
+        <v>465</v>
+      </c>
+      <c r="G108" s="131"/>
+      <c r="H108" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="I108" s="132"/>
+      <c r="J108" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K108" s="69"/>
+      <c r="L108" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M108" s="150"/>
+      <c r="O108" s="68"/>
+    </row>
+    <row r="109" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="68"/>
+      <c r="B109" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" s="68"/>
+      <c r="D109" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E109" s="150"/>
+      <c r="F109" s="85" t="s">
+        <v>466</v>
+      </c>
+      <c r="G109" s="131"/>
+      <c r="H109" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="I109" s="132"/>
+      <c r="J109" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K109" s="69"/>
+      <c r="L109" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M109" s="150"/>
+      <c r="O109" s="68"/>
+    </row>
+    <row r="110" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="68"/>
+      <c r="B110" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C110" s="68"/>
+      <c r="D110" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E110" s="150"/>
+      <c r="F110" s="85" t="s">
+        <v>467</v>
+      </c>
+      <c r="G110" s="131"/>
+      <c r="H110" s="88" t="s">
+        <v>440</v>
+      </c>
+      <c r="I110" s="132"/>
+      <c r="J110" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K110" s="69"/>
+      <c r="L110" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M110" s="150"/>
+      <c r="O110" s="68"/>
+    </row>
+    <row r="111" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="68"/>
+      <c r="B111" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" s="68"/>
+      <c r="D111" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E111" s="150"/>
+      <c r="F111" s="85" t="s">
+        <v>468</v>
+      </c>
+      <c r="G111" s="131"/>
+      <c r="H111" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="I111" s="132"/>
+      <c r="J111" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K111" s="69"/>
+      <c r="L111" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M111" s="150"/>
+      <c r="O111" s="68"/>
+    </row>
+    <row r="112" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="68"/>
+      <c r="B112" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C112" s="68"/>
+      <c r="D112" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E112" s="150"/>
+      <c r="F112" s="85" t="s">
+        <v>469</v>
+      </c>
+      <c r="G112" s="131"/>
+      <c r="H112" s="88" t="s">
+        <v>332</v>
+      </c>
+      <c r="I112" s="132"/>
+      <c r="J112" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K112" s="117"/>
+      <c r="L112" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M112" s="150"/>
+      <c r="O112" s="68"/>
+    </row>
+    <row r="113" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="68"/>
+      <c r="B113" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C113" s="68"/>
+      <c r="D113" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E113" s="150"/>
+      <c r="F113" s="85" t="s">
+        <v>470</v>
+      </c>
+      <c r="G113" s="131"/>
+      <c r="H113" s="88" t="s">
+        <v>341</v>
+      </c>
+      <c r="I113" s="132"/>
+      <c r="J113" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K113" s="117"/>
+      <c r="L113" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M113" s="150"/>
+      <c r="O113" s="68"/>
+    </row>
+    <row r="114" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="68"/>
+      <c r="B114" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C114" s="68"/>
+      <c r="D114" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E114" s="150"/>
+      <c r="F114" s="85" t="s">
+        <v>471</v>
+      </c>
+      <c r="G114" s="131"/>
+      <c r="H114" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="I114" s="132"/>
+      <c r="J114" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K114" s="69"/>
+      <c r="L114" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M114" s="150"/>
+      <c r="O114" s="68"/>
+    </row>
+    <row r="115" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="68"/>
+      <c r="B115" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C115" s="68"/>
+      <c r="D115" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E115" s="150"/>
+      <c r="F115" s="85" t="s">
+        <v>472</v>
+      </c>
+      <c r="G115" s="131"/>
+      <c r="H115" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="I115" s="132"/>
+      <c r="J115" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K115" s="117"/>
+      <c r="L115" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M115" s="150"/>
+      <c r="O115" s="68"/>
+    </row>
+    <row r="116" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="68"/>
+      <c r="B116" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" s="68"/>
+      <c r="D116" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E116" s="150"/>
+      <c r="F116" s="85" t="s">
+        <v>473</v>
+      </c>
+      <c r="G116" s="131"/>
+      <c r="H116" s="88" t="s">
+        <v>341</v>
+      </c>
+      <c r="I116" s="132"/>
+      <c r="J116" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K116" s="117"/>
+      <c r="L116" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M116" s="150"/>
+      <c r="O116" s="68"/>
+    </row>
+    <row r="117" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="68"/>
+      <c r="B117" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" s="68"/>
+      <c r="D117" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E117" s="150"/>
+      <c r="F117" s="85" t="s">
+        <v>474</v>
+      </c>
+      <c r="G117" s="131"/>
+      <c r="H117" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="I117" s="132"/>
+      <c r="J117" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K117" s="69"/>
+      <c r="L117" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M117" s="150"/>
+      <c r="O117" s="68"/>
+    </row>
+    <row r="118" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="68"/>
+      <c r="B118" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" s="68"/>
+      <c r="D118" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E118" s="150"/>
+      <c r="F118" s="85" t="s">
+        <v>475</v>
+      </c>
+      <c r="G118" s="131"/>
+      <c r="H118" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="I118" s="132"/>
+      <c r="J118" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K118" s="69"/>
+      <c r="L118" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M118" s="150"/>
+      <c r="O118" s="68"/>
+    </row>
+    <row r="119" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="68"/>
+      <c r="B119" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="68"/>
+      <c r="D119" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E119" s="150"/>
+      <c r="F119" s="85" t="s">
+        <v>476</v>
+      </c>
+      <c r="G119" s="131"/>
+      <c r="H119" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="I119" s="132"/>
+      <c r="J119" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K119" s="69"/>
+      <c r="L119" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M119" s="150"/>
+      <c r="O119" s="68"/>
+    </row>
+    <row r="120" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="68"/>
+      <c r="B120" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" s="68"/>
+      <c r="D120" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E120" s="150"/>
+      <c r="F120" s="85" t="s">
+        <v>477</v>
+      </c>
+      <c r="G120" s="131"/>
+      <c r="H120" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="I120" s="132"/>
+      <c r="J120" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K120" s="69"/>
+      <c r="L120" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M120" s="150"/>
+      <c r="O120" s="68"/>
+    </row>
+    <row r="121" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="68"/>
+      <c r="B121" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" s="68"/>
+      <c r="D121" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E121" s="150"/>
+      <c r="F121" s="85" t="s">
+        <v>362</v>
+      </c>
+      <c r="G121" s="131"/>
+      <c r="H121" s="88" t="s">
+        <v>438</v>
+      </c>
+      <c r="I121" s="132"/>
+      <c r="J121" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K121" s="117"/>
+      <c r="L121" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M121" s="150"/>
+      <c r="O121" s="68"/>
+    </row>
+    <row r="122" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="68"/>
+      <c r="B122" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C122" s="68"/>
+      <c r="D122" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E122" s="150"/>
+      <c r="F122" s="85" t="s">
+        <v>478</v>
+      </c>
+      <c r="G122" s="131"/>
+      <c r="H122" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="I122" s="132"/>
+      <c r="J122" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K122" s="117"/>
+      <c r="L122" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M122" s="150"/>
+      <c r="O122" s="68"/>
+    </row>
+    <row r="123" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="68"/>
+      <c r="B123" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C123" s="68"/>
+      <c r="D123" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E123" s="150"/>
+      <c r="F123" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="G123" s="131"/>
+      <c r="H123" s="88" t="s">
+        <v>366</v>
+      </c>
+      <c r="I123" s="132"/>
+      <c r="J123" s="135" t="s">
+        <v>414</v>
+      </c>
+      <c r="K123" s="69"/>
+      <c r="L123" s="135" t="s">
+        <v>407</v>
+      </c>
+      <c r="M123" s="150"/>
+      <c r="O123" s="68"/>
+    </row>
+    <row r="124" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="68"/>
+      <c r="B124" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C124" s="68"/>
+      <c r="D124" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E124" s="150"/>
+      <c r="F124" s="85" t="s">
+        <v>370</v>
+      </c>
+      <c r="G124" s="131"/>
+      <c r="H124" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="I124" s="132"/>
+      <c r="J124" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K124" s="117"/>
+      <c r="L124" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M124" s="150"/>
+      <c r="O124" s="68"/>
+    </row>
+    <row r="125" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="68"/>
+      <c r="B125" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="C125" s="68"/>
+      <c r="D125" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E125" s="150"/>
+      <c r="F125" s="85" t="s">
+        <v>372</v>
+      </c>
+      <c r="G125" s="131"/>
+      <c r="H125" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="I125" s="132"/>
+      <c r="J125" s="136" t="s">
+        <v>414</v>
+      </c>
+      <c r="K125" s="117"/>
+      <c r="L125" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="M125" s="150"/>
+      <c r="O125" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F8" t="s">
+        <v>449</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F11" t="s">
+        <v>528</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D12" t="s">
+        <v>528</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F12" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>569</v>
+      </c>
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F13" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>569</v>
+      </c>
+      <c r="B14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F14" t="s">
+        <v>439</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D16" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>569</v>
+      </c>
+      <c r="B17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F17" t="s">
+        <v>440</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>569</v>
+      </c>
+      <c r="B18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F18" t="s">
+        <v>324</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>569</v>
+      </c>
+      <c r="B19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D19" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F19" t="s">
+        <v>341</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>569</v>
+      </c>
+      <c r="B20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F20" t="s">
+        <v>442</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>569</v>
+      </c>
+      <c r="B21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F21" t="s">
+        <v>441</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>569</v>
+      </c>
+      <c r="B22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D22" t="s">
+        <v>441</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F22" t="s">
+        <v>324</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>569</v>
+      </c>
+      <c r="B23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D23" t="s">
+        <v>442</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F23" t="s">
+        <v>341</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>569</v>
+      </c>
+      <c r="B24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F24" t="s">
+        <v>358</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>569</v>
+      </c>
+      <c r="B25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D25" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F25" t="s">
+        <v>444</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>569</v>
+      </c>
+      <c r="B26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D26" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F26" t="s">
+        <v>443</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>569</v>
+      </c>
+      <c r="B27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D27" t="s">
+        <v>443</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F27" t="s">
+        <v>324</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>569</v>
+      </c>
+      <c r="B28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D28" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F28" t="s">
+        <v>358</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>569</v>
+      </c>
+      <c r="B29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D29" t="s">
+        <v>358</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F29" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D30" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F30" t="s">
+        <v>438</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>569</v>
+      </c>
+      <c r="B31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D31" t="s">
+        <v>438</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>569</v>
+      </c>
+      <c r="B32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D32" t="s">
+        <v>368</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>569</v>
+      </c>
+      <c r="B33" t="s">
+        <v>568</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D33" t="s">
+        <v>556</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F33" t="s">
+        <v>324</v>
+      </c>
+      <c r="G33" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>569</v>
+      </c>
+      <c r="B34" t="s">
+        <v>567</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D34" t="s">
+        <v>368</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F34" t="s">
+        <v>556</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>569</v>
+      </c>
+      <c r="B35" t="s">
+        <v>371</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="D35" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>571</v>
+      </c>
+      <c r="F35" t="s">
+        <v>373</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="116" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="149"/>
+      <c r="B1" s="115" t="s">
         <v>521</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="149"/>
+      <c r="D1" s="115" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115" t="s">
-        <v>274</v>
-      </c>
+      <c r="E1" s="149"/>
       <c r="F1" s="115" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="115" t="s">
         <v>281</v>
       </c>
+      <c r="G1" s="149"/>
       <c r="H1" s="115" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="115" t="s">
-        <v>523</v>
-      </c>
+      <c r="I1" s="149"/>
       <c r="J1" s="115" t="s">
         <v>522</v>
       </c>
@@ -6213,1478 +11387,573 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>284</v>
-      </c>
-      <c r="C2" s="122" t="s">
-        <v>451</v>
-      </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="123" t="s">
-        <v>525</v>
-      </c>
-      <c r="F2" s="124" t="s">
-        <v>450</v>
-      </c>
-      <c r="G2" s="125" t="s">
-        <v>526</v>
-      </c>
-      <c r="H2" s="125" t="s">
-        <v>527</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="129" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="127" t="s">
-        <v>450</v>
-      </c>
-      <c r="F3" s="128" t="s">
-        <v>448</v>
-      </c>
-      <c r="G3" s="134" t="s">
-        <v>415</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>408</v>
-      </c>
-      <c r="I3" s="128" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="131" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="123" t="s">
-        <v>448</v>
-      </c>
-      <c r="F4" s="124" t="s">
-        <v>449</v>
-      </c>
-      <c r="G4" s="131" t="s">
-        <v>416</v>
-      </c>
-      <c r="H4" s="122" t="s">
-        <v>408</v>
-      </c>
-      <c r="I4" s="124" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>375</v>
-      </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="123" t="s">
-        <v>448</v>
-      </c>
-      <c r="F5" s="124" t="s">
-        <v>446</v>
-      </c>
-      <c r="G5" s="131" t="s">
-        <v>417</v>
-      </c>
-      <c r="H5" s="122" t="s">
-        <v>408</v>
-      </c>
-      <c r="I5" s="124" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="117" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="117" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>378</v>
-      </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="119" t="s">
-        <v>449</v>
-      </c>
-      <c r="F6" s="120" t="s">
-        <v>445</v>
-      </c>
-      <c r="G6" s="135" t="s">
-        <v>416</v>
-      </c>
-      <c r="H6" s="121" t="s">
-        <v>408</v>
-      </c>
-      <c r="I6" s="120" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="117" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="117" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="118" t="s">
-        <v>379</v>
-      </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="119" t="s">
-        <v>449</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>447</v>
-      </c>
-      <c r="G7" s="130" t="s">
-        <v>417</v>
-      </c>
-      <c r="H7" s="118" t="s">
-        <v>408</v>
-      </c>
-      <c r="I7" s="120" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="117" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="117" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="118" t="s">
-        <v>376</v>
-      </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="119" t="s">
-        <v>446</v>
-      </c>
-      <c r="F8" s="120" t="s">
-        <v>448</v>
-      </c>
-      <c r="G8" s="121" t="s">
-        <v>418</v>
-      </c>
-      <c r="H8" s="121" t="s">
-        <v>408</v>
-      </c>
-      <c r="I8" s="120" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="117" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="117" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="118" t="s">
-        <v>377</v>
-      </c>
-      <c r="D9" s="150"/>
-      <c r="E9" s="119" t="s">
-        <v>447</v>
-      </c>
-      <c r="F9" s="120" t="s">
-        <v>449</v>
-      </c>
-      <c r="G9" s="121" t="s">
-        <v>418</v>
-      </c>
-      <c r="H9" s="121" t="s">
-        <v>408</v>
-      </c>
-      <c r="I9" s="120" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="117" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="118" t="s">
-        <v>380</v>
-      </c>
-      <c r="D10" s="150"/>
-      <c r="E10" s="119" t="s">
-        <v>445</v>
-      </c>
-      <c r="F10" s="120" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10" s="121" t="s">
-        <v>419</v>
-      </c>
-      <c r="H10" s="121" t="s">
-        <v>409</v>
-      </c>
-      <c r="I10" s="120" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="122" t="s">
-        <v>385</v>
-      </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="123" t="s">
-        <v>308</v>
-      </c>
-      <c r="F11" s="124" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="122" t="s">
-        <v>420</v>
-      </c>
-      <c r="H11" s="122" t="s">
-        <v>410</v>
-      </c>
-      <c r="I11" s="124" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="122" t="s">
-        <v>386</v>
-      </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="123" t="s">
-        <v>308</v>
-      </c>
-      <c r="F12" s="124" t="s">
-        <v>528</v>
-      </c>
-      <c r="G12" s="125" t="s">
-        <v>421</v>
-      </c>
-      <c r="H12" s="125" t="s">
-        <v>410</v>
-      </c>
-      <c r="I12" s="124" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="141" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" s="142" t="s">
-        <v>381</v>
-      </c>
-      <c r="D13" s="151"/>
-      <c r="E13" s="143" t="s">
-        <v>528</v>
-      </c>
-      <c r="F13" s="143" t="s">
-        <v>308</v>
-      </c>
-      <c r="G13" s="142" t="s">
-        <v>422</v>
-      </c>
-      <c r="H13" s="142" t="s">
-        <v>409</v>
-      </c>
-      <c r="I13" s="143" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14" s="129" t="s">
-        <v>383</v>
-      </c>
-      <c r="D14" s="148"/>
-      <c r="E14" s="127" t="s">
-        <v>316</v>
-      </c>
-      <c r="F14" s="128" t="s">
-        <v>324</v>
-      </c>
-      <c r="G14" s="129" t="s">
-        <v>420</v>
-      </c>
-      <c r="H14" s="129" t="s">
-        <v>410</v>
-      </c>
-      <c r="I14" s="128" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="126" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="129" t="s">
-        <v>384</v>
-      </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="127" t="s">
-        <v>316</v>
-      </c>
-      <c r="F15" s="128" t="s">
-        <v>439</v>
-      </c>
-      <c r="G15" s="134" t="s">
-        <v>421</v>
-      </c>
-      <c r="H15" s="134" t="s">
-        <v>410</v>
-      </c>
-      <c r="I15" s="128" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="141" t="s">
-        <v>322</v>
-      </c>
-      <c r="C16" s="144" t="s">
-        <v>382</v>
-      </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="145" t="s">
-        <v>439</v>
-      </c>
-      <c r="F16" s="143" t="s">
-        <v>308</v>
-      </c>
-      <c r="G16" s="142" t="s">
-        <v>422</v>
-      </c>
-      <c r="H16" s="142" t="s">
-        <v>409</v>
-      </c>
-      <c r="I16" s="143" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="126" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" s="129" t="s">
-        <v>388</v>
-      </c>
-      <c r="D17" s="148"/>
-      <c r="E17" s="127" t="s">
-        <v>324</v>
-      </c>
-      <c r="F17" s="128" t="s">
-        <v>332</v>
-      </c>
-      <c r="G17" s="134" t="s">
-        <v>420</v>
-      </c>
-      <c r="H17" s="134" t="s">
-        <v>410</v>
-      </c>
-      <c r="I17" s="128" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="126" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="129" t="s">
-        <v>389</v>
-      </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="127" t="s">
-        <v>324</v>
-      </c>
-      <c r="F18" s="128" t="s">
-        <v>440</v>
-      </c>
-      <c r="G18" s="134" t="s">
-        <v>421</v>
-      </c>
-      <c r="H18" s="134" t="s">
-        <v>410</v>
-      </c>
-      <c r="I18" s="128" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="141" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="144" t="s">
-        <v>387</v>
-      </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="145" t="s">
-        <v>440</v>
-      </c>
-      <c r="F19" s="143" t="s">
-        <v>324</v>
-      </c>
-      <c r="G19" s="144" t="s">
-        <v>422</v>
-      </c>
-      <c r="H19" s="144" t="s">
-        <v>409</v>
-      </c>
-      <c r="I19" s="143" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="126" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" s="129" t="s">
-        <v>390</v>
-      </c>
-      <c r="D20" s="148"/>
-      <c r="E20" s="127" t="s">
-        <v>332</v>
-      </c>
-      <c r="F20" s="128" t="s">
-        <v>341</v>
-      </c>
-      <c r="G20" s="129" t="s">
-        <v>420</v>
-      </c>
-      <c r="H20" s="129" t="s">
-        <v>410</v>
-      </c>
-      <c r="I20" s="128" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="126" t="s">
-        <v>337</v>
-      </c>
-      <c r="C21" s="129" t="s">
-        <v>392</v>
-      </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="127" t="s">
-        <v>332</v>
-      </c>
-      <c r="F21" s="128" t="s">
-        <v>442</v>
-      </c>
-      <c r="G21" s="134" t="s">
-        <v>423</v>
-      </c>
-      <c r="H21" s="134" t="s">
-        <v>410</v>
-      </c>
-      <c r="I21" s="128" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="126" t="s">
-        <v>335</v>
-      </c>
-      <c r="C22" s="129" t="s">
-        <v>391</v>
-      </c>
-      <c r="D22" s="148"/>
-      <c r="E22" s="127" t="s">
-        <v>332</v>
-      </c>
-      <c r="F22" s="128" t="s">
-        <v>441</v>
-      </c>
-      <c r="G22" s="129" t="s">
-        <v>421</v>
-      </c>
-      <c r="H22" s="129" t="s">
-        <v>410</v>
-      </c>
-      <c r="I22" s="128" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="141" t="s">
-        <v>343</v>
-      </c>
-      <c r="C23" s="144" t="s">
-        <v>393</v>
-      </c>
-      <c r="D23" s="151"/>
-      <c r="E23" s="145" t="s">
-        <v>441</v>
-      </c>
-      <c r="F23" s="143" t="s">
-        <v>324</v>
-      </c>
-      <c r="G23" s="144" t="s">
-        <v>422</v>
-      </c>
-      <c r="H23" s="144" t="s">
-        <v>409</v>
-      </c>
-      <c r="I23" s="143" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="136" t="s">
-        <v>339</v>
-      </c>
-      <c r="C24" s="137" t="s">
-        <v>394</v>
-      </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="138" t="s">
-        <v>442</v>
-      </c>
-      <c r="F24" s="139" t="s">
-        <v>341</v>
-      </c>
-      <c r="G24" s="140" t="s">
-        <v>422</v>
-      </c>
-      <c r="H24" s="140" t="s">
-        <v>409</v>
-      </c>
-      <c r="I24" s="143" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="126" t="s">
-        <v>345</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>395</v>
-      </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="127" t="s">
-        <v>341</v>
-      </c>
-      <c r="F25" s="128" t="s">
-        <v>358</v>
-      </c>
-      <c r="G25" s="129" t="s">
-        <v>420</v>
-      </c>
-      <c r="H25" s="129" t="s">
-        <v>410</v>
-      </c>
-      <c r="I25" s="128" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="126" t="s">
-        <v>349</v>
-      </c>
-      <c r="C26" s="129" t="s">
-        <v>397</v>
-      </c>
-      <c r="D26" s="148"/>
-      <c r="E26" s="127" t="s">
-        <v>341</v>
-      </c>
-      <c r="F26" s="128" t="s">
-        <v>444</v>
-      </c>
-      <c r="G26" s="134" t="s">
-        <v>423</v>
-      </c>
-      <c r="H26" s="134" t="s">
-        <v>410</v>
-      </c>
-      <c r="I26" s="128" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="126" t="s">
-        <v>347</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>396</v>
-      </c>
-      <c r="D27" s="148"/>
-      <c r="E27" s="127" t="s">
-        <v>341</v>
-      </c>
-      <c r="F27" s="128" t="s">
-        <v>443</v>
-      </c>
-      <c r="G27" s="129" t="s">
-        <v>421</v>
-      </c>
-      <c r="H27" s="129" t="s">
-        <v>410</v>
-      </c>
-      <c r="I27" s="128" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="141" t="s">
-        <v>355</v>
-      </c>
-      <c r="C28" s="144" t="s">
-        <v>399</v>
-      </c>
-      <c r="D28" s="151"/>
-      <c r="E28" s="145" t="s">
-        <v>443</v>
-      </c>
-      <c r="F28" s="143" t="s">
-        <v>324</v>
-      </c>
-      <c r="G28" s="144" t="s">
-        <v>422</v>
-      </c>
-      <c r="H28" s="144" t="s">
-        <v>409</v>
-      </c>
-      <c r="I28" s="143" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="136" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="136" t="s">
-        <v>351</v>
-      </c>
-      <c r="C29" s="137" t="s">
-        <v>398</v>
-      </c>
-      <c r="D29" s="146"/>
-      <c r="E29" s="138" t="s">
-        <v>444</v>
-      </c>
-      <c r="F29" s="128" t="s">
-        <v>358</v>
-      </c>
-      <c r="G29" s="140" t="s">
-        <v>422</v>
-      </c>
-      <c r="H29" s="140" t="s">
-        <v>409</v>
-      </c>
-      <c r="I29" s="143" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="126" t="s">
-        <v>359</v>
-      </c>
-      <c r="C30" s="129" t="s">
-        <v>402</v>
-      </c>
-      <c r="D30" s="148"/>
-      <c r="E30" s="127" t="s">
-        <v>358</v>
-      </c>
-      <c r="F30" s="128" t="s">
-        <v>368</v>
-      </c>
-      <c r="G30" s="129" t="s">
-        <v>424</v>
-      </c>
-      <c r="H30" s="129" t="s">
-        <v>411</v>
-      </c>
-      <c r="I30" s="128" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="126" t="s">
-        <v>361</v>
-      </c>
-      <c r="C31" s="129" t="s">
-        <v>403</v>
-      </c>
-      <c r="D31" s="148"/>
-      <c r="E31" s="127" t="s">
-        <v>358</v>
-      </c>
-      <c r="F31" s="128" t="s">
-        <v>438</v>
-      </c>
-      <c r="G31" s="129" t="s">
-        <v>426</v>
-      </c>
-      <c r="H31" s="129" t="s">
-        <v>411</v>
-      </c>
-      <c r="I31" s="128" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="141" t="s">
-        <v>364</v>
-      </c>
-      <c r="C32" s="144" t="s">
-        <v>404</v>
-      </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="145" t="s">
-        <v>438</v>
-      </c>
-      <c r="F32" s="143" t="s">
-        <v>324</v>
-      </c>
-      <c r="G32" s="144" t="s">
-        <v>422</v>
-      </c>
-      <c r="H32" s="144" t="s">
-        <v>409</v>
-      </c>
-      <c r="I32" s="143" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="126" t="s">
-        <v>369</v>
-      </c>
-      <c r="C33" s="129" t="s">
-        <v>405</v>
-      </c>
-      <c r="D33" s="148"/>
-      <c r="E33" s="127" t="s">
-        <v>368</v>
-      </c>
-      <c r="F33" s="128" t="s">
-        <v>269</v>
-      </c>
-      <c r="G33" s="129" t="s">
-        <v>424</v>
-      </c>
-      <c r="H33" s="129" t="s">
-        <v>411</v>
-      </c>
-      <c r="I33" s="128" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="141" t="s">
-        <v>568</v>
-      </c>
-      <c r="C34" s="144" t="s">
-        <v>557</v>
-      </c>
-      <c r="D34" s="151"/>
-      <c r="E34" s="145" t="s">
-        <v>556</v>
-      </c>
-      <c r="F34" s="143" t="s">
-        <v>324</v>
-      </c>
-      <c r="G34" s="144" t="s">
-        <v>422</v>
-      </c>
-      <c r="H34" s="144" t="s">
-        <v>409</v>
-      </c>
-      <c r="I34" s="143" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="126" t="s">
-        <v>567</v>
-      </c>
-      <c r="C35" s="129" t="s">
-        <v>555</v>
-      </c>
-      <c r="D35" s="148"/>
-      <c r="E35" s="127" t="s">
-        <v>368</v>
-      </c>
-      <c r="F35" s="128" t="s">
-        <v>556</v>
-      </c>
-      <c r="G35" s="129" t="s">
-        <v>426</v>
-      </c>
-      <c r="H35" s="129" t="s">
-        <v>411</v>
-      </c>
-      <c r="I35" s="128" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="126" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="126" t="s">
-        <v>371</v>
-      </c>
-      <c r="C36" s="129" t="s">
-        <v>406</v>
-      </c>
-      <c r="D36" s="148"/>
-      <c r="E36" s="127" t="s">
-        <v>269</v>
-      </c>
-      <c r="F36" s="128" t="s">
-        <v>373</v>
-      </c>
-      <c r="G36" s="129" t="s">
-        <v>427</v>
-      </c>
-      <c r="H36" s="129" t="s">
-        <v>412</v>
-      </c>
-      <c r="I36" s="128" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C96" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D96" s="77"/>
-      <c r="E96" s="85" t="s">
-        <v>453</v>
-      </c>
-      <c r="F96" s="88" t="s">
-        <v>446</v>
-      </c>
-      <c r="G96" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H96" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C97" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D97" s="77"/>
-      <c r="E97" s="85" t="s">
-        <v>454</v>
-      </c>
-      <c r="F97" s="88" t="s">
-        <v>448</v>
-      </c>
-      <c r="G97" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H97" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C98" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D98" s="77"/>
-      <c r="E98" s="85" t="s">
-        <v>455</v>
-      </c>
-      <c r="F98" s="88" t="s">
-        <v>449</v>
-      </c>
-      <c r="G98" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H98" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C99" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D99" s="77"/>
-      <c r="E99" s="85" t="s">
-        <v>456</v>
-      </c>
-      <c r="F99" s="88" t="s">
-        <v>447</v>
-      </c>
-      <c r="G99" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H99" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C100" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D100" s="77"/>
-      <c r="E100" s="85" t="s">
-        <v>457</v>
-      </c>
-      <c r="F100" s="88" t="s">
-        <v>449</v>
-      </c>
-      <c r="G100" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H100" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C101" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D101" s="77"/>
-      <c r="E101" s="85" t="s">
-        <v>458</v>
-      </c>
-      <c r="F101" s="88" t="s">
-        <v>459</v>
-      </c>
-      <c r="G101" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H101" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C102" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D102" s="77"/>
-      <c r="E102" s="85" t="s">
-        <v>459</v>
-      </c>
-      <c r="F102" s="88" t="s">
-        <v>445</v>
-      </c>
-      <c r="G102" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H102" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C103" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D103" s="77"/>
-      <c r="E103" s="85" t="s">
-        <v>460</v>
-      </c>
-      <c r="F103" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="G103" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H103" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C104" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D104" s="77"/>
-      <c r="E104" s="85" t="s">
-        <v>461</v>
-      </c>
-      <c r="F104" s="88" t="s">
-        <v>528</v>
-      </c>
-      <c r="G104" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H104" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C105" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D105" s="77"/>
-      <c r="E105" s="85" t="s">
-        <v>462</v>
-      </c>
-      <c r="F105" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="G105" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H105" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C106" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D106" s="77"/>
-      <c r="E106" s="85" t="s">
-        <v>463</v>
-      </c>
-      <c r="F106" s="88" t="s">
-        <v>316</v>
-      </c>
-      <c r="G106" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H106" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C107" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D107" s="77"/>
-      <c r="E107" s="85" t="s">
-        <v>464</v>
-      </c>
-      <c r="F107" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="G107" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H107" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C108" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D108" s="77"/>
-      <c r="E108" s="85" t="s">
-        <v>465</v>
-      </c>
-      <c r="F108" s="88" t="s">
-        <v>308</v>
-      </c>
-      <c r="G108" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H108" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C109" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D109" s="77"/>
-      <c r="E109" s="85" t="s">
-        <v>466</v>
-      </c>
-      <c r="F109" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="G109" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H109" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C110" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D110" s="77"/>
-      <c r="E110" s="85" t="s">
-        <v>467</v>
-      </c>
-      <c r="F110" s="88" t="s">
-        <v>440</v>
-      </c>
-      <c r="G110" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H110" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C111" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D111" s="77"/>
-      <c r="E111" s="85" t="s">
-        <v>468</v>
-      </c>
-      <c r="F111" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="G111" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H111" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C112" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D112" s="77"/>
-      <c r="E112" s="85" t="s">
-        <v>469</v>
-      </c>
-      <c r="F112" s="88" t="s">
-        <v>332</v>
-      </c>
-      <c r="G112" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H112" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C113" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D113" s="77"/>
-      <c r="E113" s="85" t="s">
-        <v>470</v>
-      </c>
-      <c r="F113" s="88" t="s">
-        <v>341</v>
-      </c>
-      <c r="G113" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H113" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C114" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D114" s="77"/>
-      <c r="E114" s="85" t="s">
-        <v>471</v>
-      </c>
-      <c r="F114" s="88" t="s">
-        <v>441</v>
-      </c>
-      <c r="G114" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H114" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C115" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D115" s="77"/>
-      <c r="E115" s="85" t="s">
-        <v>472</v>
-      </c>
-      <c r="F115" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="G115" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H115" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C116" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D116" s="77"/>
-      <c r="E116" s="85" t="s">
-        <v>473</v>
-      </c>
-      <c r="F116" s="88" t="s">
-        <v>341</v>
-      </c>
-      <c r="G116" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H116" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C117" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D117" s="77"/>
-      <c r="E117" s="85" t="s">
-        <v>474</v>
-      </c>
-      <c r="F117" s="88" t="s">
-        <v>353</v>
-      </c>
-      <c r="G117" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H117" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C118" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D118" s="77"/>
-      <c r="E118" s="85" t="s">
-        <v>475</v>
-      </c>
-      <c r="F118" s="88" t="s">
-        <v>443</v>
-      </c>
-      <c r="G118" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H118" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C119" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D119" s="77"/>
-      <c r="E119" s="85" t="s">
-        <v>476</v>
-      </c>
-      <c r="F119" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="G119" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H119" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C120" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D120" s="77"/>
-      <c r="E120" s="85" t="s">
-        <v>477</v>
-      </c>
-      <c r="F120" s="88" t="s">
-        <v>353</v>
-      </c>
-      <c r="G120" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H120" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C121" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D121" s="77"/>
-      <c r="E121" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="F121" s="88" t="s">
-        <v>438</v>
-      </c>
-      <c r="G121" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H121" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C122" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D122" s="77"/>
-      <c r="E122" s="85" t="s">
-        <v>478</v>
-      </c>
-      <c r="F122" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="G122" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H122" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C123" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D123" s="77"/>
-      <c r="E123" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="F123" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="G123" s="132" t="s">
-        <v>414</v>
-      </c>
-      <c r="H123" s="132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C124" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D124" s="77"/>
-      <c r="E124" s="85" t="s">
-        <v>370</v>
-      </c>
-      <c r="F124" s="88" t="s">
-        <v>269</v>
-      </c>
-      <c r="G124" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H124" s="133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="C125" s="132" t="s">
-        <v>283</v>
-      </c>
-      <c r="D125" s="77"/>
-      <c r="E125" s="85" t="s">
-        <v>372</v>
-      </c>
-      <c r="F125" s="88" t="s">
-        <v>373</v>
-      </c>
-      <c r="G125" s="133" t="s">
-        <v>414</v>
-      </c>
-      <c r="H125" s="133" t="s">
-        <v>407</v>
+      <c r="A2" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>576</v>
+      </c>
+      <c r="E2" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" s="126" t="s">
+        <v>577</v>
+      </c>
+      <c r="G2" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H2" s="126" t="s">
+        <v>573</v>
+      </c>
+      <c r="I2" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="127" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>576</v>
+      </c>
+      <c r="E3" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>578</v>
+      </c>
+      <c r="G3" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>574</v>
+      </c>
+      <c r="I3" s="151" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>576</v>
+      </c>
+      <c r="C4" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="126" t="s">
+        <v>579</v>
+      </c>
+      <c r="G4" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>575</v>
+      </c>
+      <c r="I4" s="151" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="123" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" s="144" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="145" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B5" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B6" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B7" s="144" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" s="145" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>421</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B10" s="144" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D10" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B11" s="127" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D11" s="130" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B12" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="137" t="s">
+        <v>423</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>580</v>
+      </c>
+      <c r="B13" s="127" t="s">
+        <v>335</v>
+      </c>
+      <c r="C13" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" s="130" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B14" s="144" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D14" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>580</v>
+      </c>
+      <c r="B15" s="139" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="143" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" s="127" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="130" t="s">
+        <v>420</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" s="127" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>423</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18" s="127" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D18" s="130" t="s">
+        <v>421</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>580</v>
+      </c>
+      <c r="B19" s="144" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D19" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>580</v>
+      </c>
+      <c r="B20" s="139" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D20" s="143" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>580</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" s="130" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>580</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D22" s="130" t="s">
+        <v>426</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>580</v>
+      </c>
+      <c r="B23" s="144" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D23" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>580</v>
+      </c>
+      <c r="B24" s="127" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D24" s="130" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B25" s="144" t="s">
+        <v>568</v>
+      </c>
+      <c r="C25" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D25" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>580</v>
+      </c>
+      <c r="B26" s="127" t="s">
+        <v>567</v>
+      </c>
+      <c r="C26" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D26" s="130" t="s">
+        <v>426</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>580</v>
+      </c>
+      <c r="B27" s="127" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="152" t="s">
+        <v>519</v>
+      </c>
+      <c r="D27" s="130" t="s">
+        <v>427</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/all-in-one(May.9).xlsx
+++ b/all-in-one(May.9).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="132" windowWidth="18840" windowHeight="7488" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="132" windowWidth="18840" windowHeight="7488" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Use-Cases" sheetId="1" r:id="rId1"/>
@@ -3023,6 +3023,45 @@
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="4" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3083,45 +3122,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="4" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="4" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -3444,11 +3444,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3460,10 +3460,10 @@
       <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="93"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -3775,8 +3775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6276,9 +6276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6301,40 +6301,40 @@
     <col min="16" max="17" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="116" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="149"/>
-      <c r="B1" s="115" t="s">
+    <row r="1" spans="1:17" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="125"/>
+      <c r="B1" s="91" t="s">
         <v>521</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="115" t="s">
+      <c r="C1" s="125"/>
+      <c r="D1" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="115" t="s">
+      <c r="E1" s="125"/>
+      <c r="F1" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="149"/>
-      <c r="H1" s="115" t="s">
+      <c r="G1" s="125"/>
+      <c r="H1" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="149"/>
-      <c r="J1" s="115" t="s">
+      <c r="I1" s="125"/>
+      <c r="J1" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="K1" s="149"/>
-      <c r="L1" s="115" t="s">
+      <c r="K1" s="125"/>
+      <c r="L1" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="M1" s="149"/>
-      <c r="N1" s="115" t="s">
+      <c r="M1" s="125"/>
+      <c r="N1" s="91" t="s">
         <v>523</v>
       </c>
-      <c r="O1" s="149"/>
-      <c r="P1" s="115" t="s">
+      <c r="O1" s="125"/>
+      <c r="P1" s="91" t="s">
         <v>522</v>
       </c>
-      <c r="Q1" s="115" t="s">
+      <c r="Q1" s="91" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6345,90 +6345,90 @@
       <c r="B2" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D2" s="123" t="s">
+      <c r="C2" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="99" t="s">
         <v>451</v>
       </c>
-      <c r="E2" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F2" s="124" t="s">
+      <c r="E2" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" s="100" t="s">
         <v>525</v>
       </c>
-      <c r="G2" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H2" s="125" t="s">
+      <c r="G2" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H2" s="101" t="s">
         <v>450</v>
       </c>
-      <c r="I2" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J2" s="126" t="s">
+      <c r="I2" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J2" s="102" t="s">
         <v>526</v>
       </c>
-      <c r="K2" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L2" s="126" t="s">
+      <c r="K2" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L2" s="102" t="s">
         <v>527</v>
       </c>
-      <c r="M2" s="151" t="s">
+      <c r="M2" s="127" t="s">
         <v>519</v>
       </c>
       <c r="N2" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="O2" s="151" t="s">
+      <c r="O2" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="103" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D3" s="130" t="s">
+      <c r="C3" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" s="106" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F3" s="128" t="s">
+      <c r="E3" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F3" s="104" t="s">
         <v>450</v>
       </c>
-      <c r="G3" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H3" s="129" t="s">
+      <c r="G3" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H3" s="105" t="s">
         <v>448</v>
       </c>
-      <c r="I3" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J3" s="137" t="s">
+      <c r="I3" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J3" s="113" t="s">
         <v>415</v>
       </c>
-      <c r="K3" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L3" s="137" t="s">
+      <c r="K3" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L3" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="M3" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N3" s="129" t="s">
+      <c r="M3" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N3" s="105" t="s">
         <v>530</v>
       </c>
-      <c r="O3" s="151" t="s">
+      <c r="O3" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6439,43 +6439,43 @@
       <c r="B4" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D4" s="134" t="s">
+      <c r="C4" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="110" t="s">
         <v>374</v>
       </c>
-      <c r="E4" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F4" s="124" t="s">
+      <c r="E4" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="G4" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H4" s="125" t="s">
+      <c r="G4" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H4" s="101" t="s">
         <v>449</v>
       </c>
-      <c r="I4" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J4" s="134" t="s">
+      <c r="I4" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J4" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="K4" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L4" s="123" t="s">
+      <c r="K4" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L4" s="99" t="s">
         <v>408</v>
       </c>
-      <c r="M4" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N4" s="125" t="s">
+      <c r="M4" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N4" s="101" t="s">
         <v>531</v>
       </c>
-      <c r="O4" s="151" t="s">
+      <c r="O4" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6486,278 +6486,278 @@
       <c r="B5" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D5" s="134" t="s">
+      <c r="C5" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="110" t="s">
         <v>375</v>
       </c>
-      <c r="E5" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F5" s="124" t="s">
+      <c r="E5" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F5" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="G5" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H5" s="125" t="s">
+      <c r="G5" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H5" s="101" t="s">
         <v>446</v>
       </c>
-      <c r="I5" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J5" s="134" t="s">
+      <c r="I5" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J5" s="110" t="s">
         <v>417</v>
       </c>
-      <c r="K5" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L5" s="123" t="s">
+      <c r="K5" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L5" s="99" t="s">
         <v>408</v>
       </c>
-      <c r="M5" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N5" s="125" t="s">
+      <c r="M5" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N5" s="101" t="s">
         <v>566</v>
       </c>
-      <c r="O5" s="151" t="s">
+      <c r="O5" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D6" s="119" t="s">
+      <c r="C6" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="95" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F6" s="120" t="s">
+      <c r="E6" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F6" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="G6" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H6" s="121" t="s">
+      <c r="G6" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H6" s="97" t="s">
         <v>445</v>
       </c>
-      <c r="I6" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J6" s="138" t="s">
+      <c r="I6" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J6" s="114" t="s">
         <v>416</v>
       </c>
-      <c r="K6" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L6" s="122" t="s">
+      <c r="K6" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L6" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="M6" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N6" s="121" t="s">
+      <c r="M6" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N6" s="97" t="s">
         <v>532</v>
       </c>
-      <c r="O6" s="151" t="s">
+      <c r="O6" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="94" t="s">
         <v>299</v>
       </c>
-      <c r="C7" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D7" s="119" t="s">
+      <c r="C7" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" s="95" t="s">
         <v>379</v>
       </c>
-      <c r="E7" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F7" s="120" t="s">
+      <c r="E7" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F7" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="G7" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H7" s="121" t="s">
+      <c r="G7" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H7" s="97" t="s">
         <v>447</v>
       </c>
-      <c r="I7" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J7" s="133" t="s">
+      <c r="I7" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J7" s="109" t="s">
         <v>417</v>
       </c>
-      <c r="K7" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L7" s="119" t="s">
+      <c r="K7" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L7" s="95" t="s">
         <v>408</v>
       </c>
-      <c r="M7" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N7" s="121" t="s">
+      <c r="M7" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N7" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="O7" s="151" t="s">
+      <c r="O7" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D8" s="119" t="s">
+      <c r="C8" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" s="95" t="s">
         <v>376</v>
       </c>
-      <c r="E8" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F8" s="120" t="s">
+      <c r="E8" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F8" s="96" t="s">
         <v>446</v>
       </c>
-      <c r="G8" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H8" s="121" t="s">
+      <c r="G8" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H8" s="97" t="s">
         <v>448</v>
       </c>
-      <c r="I8" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J8" s="122" t="s">
+      <c r="I8" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J8" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="K8" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L8" s="122" t="s">
+      <c r="K8" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L8" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="M8" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N8" s="121" t="s">
+      <c r="M8" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N8" s="97" t="s">
         <v>535</v>
       </c>
-      <c r="O8" s="151" t="s">
+      <c r="O8" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="94" t="s">
         <v>302</v>
       </c>
-      <c r="C9" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D9" s="119" t="s">
+      <c r="C9" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="95" t="s">
         <v>377</v>
       </c>
-      <c r="E9" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F9" s="120" t="s">
+      <c r="E9" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F9" s="96" t="s">
         <v>447</v>
       </c>
-      <c r="G9" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H9" s="121" t="s">
+      <c r="G9" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H9" s="97" t="s">
         <v>449</v>
       </c>
-      <c r="I9" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J9" s="122" t="s">
+      <c r="I9" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J9" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="K9" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L9" s="122" t="s">
+      <c r="K9" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L9" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="M9" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N9" s="121" t="s">
+      <c r="M9" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N9" s="97" t="s">
         <v>536</v>
       </c>
-      <c r="O9" s="151" t="s">
+      <c r="O9" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="94" t="s">
         <v>306</v>
       </c>
-      <c r="C10" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D10" s="119" t="s">
+      <c r="C10" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D10" s="95" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F10" s="120" t="s">
+      <c r="E10" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F10" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="G10" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H10" s="121" t="s">
+      <c r="G10" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H10" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="I10" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J10" s="122" t="s">
+      <c r="I10" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J10" s="98" t="s">
         <v>419</v>
       </c>
-      <c r="K10" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L10" s="122" t="s">
+      <c r="K10" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L10" s="98" t="s">
         <v>409</v>
       </c>
-      <c r="M10" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N10" s="121" t="s">
+      <c r="M10" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N10" s="97" t="s">
         <v>533</v>
       </c>
-      <c r="O10" s="151" t="s">
+      <c r="O10" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6768,43 +6768,43 @@
       <c r="B11" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="C11" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D11" s="123" t="s">
+      <c r="C11" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D11" s="99" t="s">
         <v>385</v>
       </c>
-      <c r="E11" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F11" s="124" t="s">
+      <c r="E11" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F11" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="G11" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H11" s="125" t="s">
+      <c r="G11" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H11" s="101" t="s">
         <v>316</v>
       </c>
-      <c r="I11" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J11" s="123" t="s">
+      <c r="I11" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J11" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="K11" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L11" s="123" t="s">
+      <c r="K11" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L11" s="99" t="s">
         <v>410</v>
       </c>
-      <c r="M11" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N11" s="125" t="s">
+      <c r="M11" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N11" s="101" t="s">
         <v>534</v>
       </c>
-      <c r="O11" s="151" t="s">
+      <c r="O11" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6815,1213 +6815,1213 @@
       <c r="B12" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="C12" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D12" s="123" t="s">
+      <c r="C12" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="99" t="s">
         <v>386</v>
       </c>
-      <c r="E12" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F12" s="124" t="s">
+      <c r="E12" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F12" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="G12" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H12" s="125" t="s">
+      <c r="G12" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H12" s="101" t="s">
         <v>528</v>
       </c>
-      <c r="I12" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J12" s="126" t="s">
+      <c r="I12" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J12" s="102" t="s">
         <v>421</v>
       </c>
-      <c r="K12" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L12" s="126" t="s">
+      <c r="K12" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L12" s="102" t="s">
         <v>410</v>
       </c>
-      <c r="M12" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N12" s="125" t="s">
+      <c r="M12" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N12" s="101" t="s">
         <v>564</v>
       </c>
-      <c r="O12" s="151" t="s">
+      <c r="O12" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D13" s="145" t="s">
+      <c r="C13" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" s="121" t="s">
         <v>381</v>
       </c>
-      <c r="E13" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F13" s="146" t="s">
+      <c r="E13" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F13" s="122" t="s">
         <v>528</v>
       </c>
-      <c r="G13" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H13" s="146" t="s">
+      <c r="G13" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H13" s="122" t="s">
         <v>308</v>
       </c>
-      <c r="I13" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J13" s="145" t="s">
+      <c r="I13" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J13" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="K13" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L13" s="145" t="s">
+      <c r="K13" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="121" t="s">
         <v>409</v>
       </c>
-      <c r="M13" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N13" s="146" t="s">
+      <c r="M13" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N13" s="122" t="s">
         <v>544</v>
       </c>
-      <c r="O13" s="151" t="s">
+      <c r="O13" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="C14" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D14" s="130" t="s">
+      <c r="C14" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D14" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="E14" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F14" s="128" t="s">
+      <c r="E14" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="G14" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H14" s="129" t="s">
+      <c r="G14" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H14" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="I14" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J14" s="130" t="s">
+      <c r="I14" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J14" s="106" t="s">
         <v>420</v>
       </c>
-      <c r="K14" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L14" s="130" t="s">
+      <c r="K14" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L14" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="M14" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N14" s="129" t="s">
+      <c r="M14" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N14" s="105" t="s">
         <v>537</v>
       </c>
-      <c r="O14" s="151" t="s">
+      <c r="O14" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="103" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D15" s="130" t="s">
+      <c r="C15" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="106" t="s">
         <v>384</v>
       </c>
-      <c r="E15" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F15" s="128" t="s">
+      <c r="E15" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F15" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="G15" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H15" s="129" t="s">
+      <c r="G15" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H15" s="105" t="s">
         <v>439</v>
       </c>
-      <c r="I15" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J15" s="137" t="s">
+      <c r="I15" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J15" s="113" t="s">
         <v>421</v>
       </c>
-      <c r="K15" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L15" s="137" t="s">
+      <c r="K15" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L15" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M15" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N15" s="129" t="s">
+      <c r="M15" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N15" s="105" t="s">
         <v>563</v>
       </c>
-      <c r="O15" s="151" t="s">
+      <c r="O15" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="120" t="s">
         <v>322</v>
       </c>
-      <c r="C16" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D16" s="147" t="s">
+      <c r="C16" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="123" t="s">
         <v>382</v>
       </c>
-      <c r="E16" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F16" s="148" t="s">
+      <c r="E16" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F16" s="124" t="s">
         <v>439</v>
       </c>
-      <c r="G16" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H16" s="146" t="s">
+      <c r="G16" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H16" s="122" t="s">
         <v>308</v>
       </c>
-      <c r="I16" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J16" s="145" t="s">
+      <c r="I16" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J16" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="K16" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L16" s="145" t="s">
+      <c r="K16" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L16" s="121" t="s">
         <v>409</v>
       </c>
-      <c r="M16" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N16" s="146" t="s">
+      <c r="M16" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N16" s="122" t="s">
         <v>543</v>
       </c>
-      <c r="O16" s="151" t="s">
+      <c r="O16" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D17" s="130" t="s">
+      <c r="C17" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="E17" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F17" s="128" t="s">
+      <c r="E17" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F17" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="G17" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H17" s="129" t="s">
+      <c r="G17" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H17" s="105" t="s">
         <v>332</v>
       </c>
-      <c r="I17" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J17" s="137" t="s">
+      <c r="I17" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J17" s="113" t="s">
         <v>420</v>
       </c>
-      <c r="K17" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L17" s="137" t="s">
+      <c r="K17" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L17" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M17" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N17" s="129" t="s">
+      <c r="M17" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N17" s="105" t="s">
         <v>538</v>
       </c>
-      <c r="O17" s="151" t="s">
+      <c r="O17" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="C18" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D18" s="130" t="s">
+      <c r="C18" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D18" s="106" t="s">
         <v>389</v>
       </c>
-      <c r="E18" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F18" s="128" t="s">
+      <c r="E18" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F18" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="G18" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H18" s="129" t="s">
+      <c r="G18" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H18" s="105" t="s">
         <v>440</v>
       </c>
-      <c r="I18" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J18" s="137" t="s">
+      <c r="I18" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J18" s="113" t="s">
         <v>421</v>
       </c>
-      <c r="K18" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L18" s="137" t="s">
+      <c r="K18" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L18" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M18" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N18" s="129" t="s">
+      <c r="M18" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N18" s="105" t="s">
         <v>562</v>
       </c>
-      <c r="O18" s="151" t="s">
+      <c r="O18" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="120" t="s">
         <v>330</v>
       </c>
-      <c r="C19" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D19" s="147" t="s">
+      <c r="C19" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D19" s="123" t="s">
         <v>387</v>
       </c>
-      <c r="E19" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F19" s="148" t="s">
+      <c r="E19" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F19" s="124" t="s">
         <v>440</v>
       </c>
-      <c r="G19" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H19" s="146" t="s">
+      <c r="G19" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H19" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="I19" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J19" s="147" t="s">
+      <c r="I19" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J19" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="K19" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L19" s="147" t="s">
+      <c r="K19" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L19" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="M19" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N19" s="146" t="s">
+      <c r="M19" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N19" s="122" t="s">
         <v>542</v>
       </c>
-      <c r="O19" s="151" t="s">
+      <c r="O19" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="C20" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D20" s="130" t="s">
+      <c r="C20" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D20" s="106" t="s">
         <v>390</v>
       </c>
-      <c r="E20" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F20" s="128" t="s">
+      <c r="E20" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F20" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="G20" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H20" s="129" t="s">
+      <c r="G20" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H20" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="I20" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J20" s="130" t="s">
+      <c r="I20" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J20" s="106" t="s">
         <v>420</v>
       </c>
-      <c r="K20" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L20" s="130" t="s">
+      <c r="K20" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L20" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="M20" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N20" s="129" t="s">
+      <c r="M20" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N20" s="105" t="s">
         <v>539</v>
       </c>
-      <c r="O20" s="151" t="s">
+      <c r="O20" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="C21" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D21" s="130" t="s">
+      <c r="C21" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" s="106" t="s">
         <v>392</v>
       </c>
-      <c r="E21" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F21" s="128" t="s">
+      <c r="E21" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="G21" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H21" s="129" t="s">
+      <c r="G21" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H21" s="105" t="s">
         <v>442</v>
       </c>
-      <c r="I21" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J21" s="137" t="s">
+      <c r="I21" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J21" s="113" t="s">
         <v>423</v>
       </c>
-      <c r="K21" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L21" s="137" t="s">
+      <c r="K21" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L21" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M21" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N21" s="129" t="s">
+      <c r="M21" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N21" s="105" t="s">
         <v>540</v>
       </c>
-      <c r="O21" s="151" t="s">
+      <c r="O21" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="C22" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D22" s="130" t="s">
+      <c r="C22" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D22" s="106" t="s">
         <v>391</v>
       </c>
-      <c r="E22" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F22" s="128" t="s">
+      <c r="E22" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="G22" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H22" s="129" t="s">
+      <c r="G22" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H22" s="105" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J22" s="130" t="s">
+      <c r="I22" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J22" s="106" t="s">
         <v>421</v>
       </c>
-      <c r="K22" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L22" s="130" t="s">
+      <c r="K22" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L22" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="M22" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N22" s="129" t="s">
+      <c r="M22" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N22" s="105" t="s">
         <v>561</v>
       </c>
-      <c r="O22" s="151" t="s">
+      <c r="O22" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="120" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D23" s="147" t="s">
+      <c r="C23" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D23" s="123" t="s">
         <v>393</v>
       </c>
-      <c r="E23" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F23" s="148" t="s">
+      <c r="E23" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F23" s="124" t="s">
         <v>441</v>
       </c>
-      <c r="G23" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H23" s="146" t="s">
+      <c r="G23" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H23" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="I23" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J23" s="147" t="s">
+      <c r="I23" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J23" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="K23" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L23" s="147" t="s">
+      <c r="K23" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L23" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="M23" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N23" s="146" t="s">
+      <c r="M23" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N23" s="122" t="s">
         <v>541</v>
       </c>
-      <c r="O23" s="151" t="s">
+      <c r="O23" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="139" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="C24" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D24" s="140" t="s">
+      <c r="C24" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D24" s="116" t="s">
         <v>394</v>
       </c>
-      <c r="E24" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F24" s="141" t="s">
+      <c r="E24" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F24" s="117" t="s">
         <v>442</v>
       </c>
-      <c r="G24" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H24" s="142" t="s">
+      <c r="G24" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H24" s="118" t="s">
         <v>341</v>
       </c>
-      <c r="I24" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J24" s="143" t="s">
+      <c r="I24" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J24" s="119" t="s">
         <v>422</v>
       </c>
-      <c r="K24" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L24" s="143" t="s">
+      <c r="K24" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L24" s="119" t="s">
         <v>409</v>
       </c>
-      <c r="M24" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N24" s="146" t="s">
+      <c r="M24" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N24" s="122" t="s">
         <v>545</v>
       </c>
-      <c r="O24" s="151" t="s">
+      <c r="O24" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="103" t="s">
         <v>345</v>
       </c>
-      <c r="C25" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D25" s="130" t="s">
+      <c r="C25" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D25" s="106" t="s">
         <v>395</v>
       </c>
-      <c r="E25" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F25" s="128" t="s">
+      <c r="E25" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F25" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="G25" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H25" s="129" t="s">
+      <c r="G25" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H25" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="I25" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J25" s="130" t="s">
+      <c r="I25" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J25" s="106" t="s">
         <v>420</v>
       </c>
-      <c r="K25" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L25" s="130" t="s">
+      <c r="K25" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L25" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="M25" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N25" s="129" t="s">
+      <c r="M25" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N25" s="105" t="s">
         <v>546</v>
       </c>
-      <c r="O25" s="151" t="s">
+      <c r="O25" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="103" t="s">
         <v>349</v>
       </c>
-      <c r="C26" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D26" s="130" t="s">
+      <c r="C26" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D26" s="106" t="s">
         <v>397</v>
       </c>
-      <c r="E26" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F26" s="128" t="s">
+      <c r="E26" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="G26" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H26" s="129" t="s">
+      <c r="G26" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H26" s="105" t="s">
         <v>444</v>
       </c>
-      <c r="I26" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J26" s="137" t="s">
+      <c r="I26" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J26" s="113" t="s">
         <v>423</v>
       </c>
-      <c r="K26" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L26" s="137" t="s">
+      <c r="K26" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L26" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M26" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N26" s="129" t="s">
+      <c r="M26" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N26" s="105" t="s">
         <v>547</v>
       </c>
-      <c r="O26" s="151" t="s">
+      <c r="O26" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D27" s="130" t="s">
+      <c r="C27" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D27" s="106" t="s">
         <v>396</v>
       </c>
-      <c r="E27" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F27" s="128" t="s">
+      <c r="E27" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F27" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="G27" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H27" s="129" t="s">
+      <c r="G27" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H27" s="105" t="s">
         <v>443</v>
       </c>
-      <c r="I27" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J27" s="130" t="s">
+      <c r="I27" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J27" s="106" t="s">
         <v>421</v>
       </c>
-      <c r="K27" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L27" s="130" t="s">
+      <c r="K27" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L27" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="M27" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N27" s="129" t="s">
+      <c r="M27" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N27" s="105" t="s">
         <v>560</v>
       </c>
-      <c r="O27" s="151" t="s">
+      <c r="O27" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="120" t="s">
         <v>355</v>
       </c>
-      <c r="C28" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D28" s="147" t="s">
+      <c r="C28" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D28" s="123" t="s">
         <v>399</v>
       </c>
-      <c r="E28" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F28" s="148" t="s">
+      <c r="E28" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F28" s="124" t="s">
         <v>443</v>
       </c>
-      <c r="G28" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H28" s="146" t="s">
+      <c r="G28" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H28" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="I28" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J28" s="147" t="s">
+      <c r="I28" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J28" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="K28" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L28" s="147" t="s">
+      <c r="K28" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L28" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="M28" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N28" s="146" t="s">
+      <c r="M28" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N28" s="122" t="s">
         <v>548</v>
       </c>
-      <c r="O28" s="151" t="s">
+      <c r="O28" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="139" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="115" t="s">
         <v>351</v>
       </c>
-      <c r="C29" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D29" s="140" t="s">
+      <c r="C29" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D29" s="116" t="s">
         <v>398</v>
       </c>
-      <c r="E29" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F29" s="141" t="s">
+      <c r="E29" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F29" s="117" t="s">
         <v>444</v>
       </c>
-      <c r="G29" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H29" s="129" t="s">
+      <c r="G29" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H29" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="I29" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J29" s="143" t="s">
+      <c r="I29" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J29" s="119" t="s">
         <v>422</v>
       </c>
-      <c r="K29" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L29" s="143" t="s">
+      <c r="K29" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L29" s="119" t="s">
         <v>409</v>
       </c>
-      <c r="M29" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N29" s="146" t="s">
+      <c r="M29" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N29" s="122" t="s">
         <v>549</v>
       </c>
-      <c r="O29" s="151" t="s">
+      <c r="O29" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B30" s="127" t="s">
+      <c r="B30" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C30" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D30" s="130" t="s">
+      <c r="C30" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D30" s="106" t="s">
         <v>402</v>
       </c>
-      <c r="E30" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F30" s="128" t="s">
+      <c r="E30" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F30" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="G30" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H30" s="129" t="s">
+      <c r="G30" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H30" s="105" t="s">
         <v>368</v>
       </c>
-      <c r="I30" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J30" s="130" t="s">
+      <c r="I30" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J30" s="106" t="s">
         <v>424</v>
       </c>
-      <c r="K30" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L30" s="130" t="s">
+      <c r="K30" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L30" s="106" t="s">
         <v>411</v>
       </c>
-      <c r="M30" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N30" s="129" t="s">
+      <c r="M30" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N30" s="105" t="s">
         <v>550</v>
       </c>
-      <c r="O30" s="151" t="s">
+      <c r="O30" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="C31" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D31" s="130" t="s">
+      <c r="C31" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D31" s="106" t="s">
         <v>403</v>
       </c>
-      <c r="E31" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F31" s="128" t="s">
+      <c r="E31" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F31" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="G31" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H31" s="129" t="s">
+      <c r="G31" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H31" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="I31" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J31" s="130" t="s">
+      <c r="I31" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J31" s="106" t="s">
         <v>426</v>
       </c>
-      <c r="K31" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L31" s="130" t="s">
+      <c r="K31" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L31" s="106" t="s">
         <v>411</v>
       </c>
-      <c r="M31" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N31" s="129" t="s">
+      <c r="M31" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N31" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="O31" s="151" t="s">
+      <c r="O31" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="C32" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D32" s="147" t="s">
+      <c r="C32" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D32" s="123" t="s">
         <v>404</v>
       </c>
-      <c r="E32" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F32" s="148" t="s">
+      <c r="E32" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F32" s="124" t="s">
         <v>438</v>
       </c>
-      <c r="G32" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H32" s="146" t="s">
+      <c r="G32" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H32" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="I32" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J32" s="147" t="s">
+      <c r="I32" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J32" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="K32" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L32" s="147" t="s">
+      <c r="K32" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L32" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="M32" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N32" s="146" t="s">
+      <c r="M32" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N32" s="122" t="s">
         <v>552</v>
       </c>
-      <c r="O32" s="151" t="s">
+      <c r="O32" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="C33" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D33" s="130" t="s">
+      <c r="C33" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D33" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="E33" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F33" s="128" t="s">
+      <c r="E33" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F33" s="104" t="s">
         <v>368</v>
       </c>
-      <c r="G33" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H33" s="129" t="s">
+      <c r="G33" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H33" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="I33" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J33" s="130" t="s">
+      <c r="I33" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J33" s="106" t="s">
         <v>424</v>
       </c>
-      <c r="K33" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L33" s="130" t="s">
+      <c r="K33" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L33" s="106" t="s">
         <v>411</v>
       </c>
-      <c r="M33" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N33" s="129" t="s">
+      <c r="M33" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N33" s="105" t="s">
         <v>554</v>
       </c>
-      <c r="O33" s="151" t="s">
+      <c r="O33" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="120" t="s">
         <v>568</v>
       </c>
-      <c r="C34" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D34" s="147" t="s">
+      <c r="C34" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D34" s="123" t="s">
         <v>557</v>
       </c>
-      <c r="E34" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F34" s="148" t="s">
+      <c r="E34" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F34" s="124" t="s">
         <v>556</v>
       </c>
-      <c r="G34" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H34" s="146" t="s">
+      <c r="G34" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H34" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="I34" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J34" s="147" t="s">
+      <c r="I34" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J34" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="K34" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L34" s="147" t="s">
+      <c r="K34" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L34" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="M34" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N34" s="146" t="s">
+      <c r="M34" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N34" s="122" t="s">
         <v>558</v>
       </c>
-      <c r="O34" s="151" t="s">
+      <c r="O34" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B35" s="127" t="s">
+      <c r="B35" s="103" t="s">
         <v>567</v>
       </c>
-      <c r="C35" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D35" s="130" t="s">
+      <c r="C35" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D35" s="106" t="s">
         <v>555</v>
       </c>
-      <c r="E35" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F35" s="128" t="s">
+      <c r="E35" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F35" s="104" t="s">
         <v>368</v>
       </c>
-      <c r="G35" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H35" s="129" t="s">
+      <c r="G35" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H35" s="105" t="s">
         <v>556</v>
       </c>
-      <c r="I35" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J35" s="130" t="s">
+      <c r="I35" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J35" s="106" t="s">
         <v>426</v>
       </c>
-      <c r="K35" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L35" s="130" t="s">
+      <c r="K35" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L35" s="106" t="s">
         <v>411</v>
       </c>
-      <c r="M35" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N35" s="129" t="s">
+      <c r="M35" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N35" s="105" t="s">
         <v>559</v>
       </c>
-      <c r="O35" s="151" t="s">
+      <c r="O35" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="103" t="s">
         <v>371</v>
       </c>
-      <c r="C36" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D36" s="130" t="s">
+      <c r="C36" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D36" s="106" t="s">
         <v>406</v>
       </c>
-      <c r="E36" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F36" s="128" t="s">
+      <c r="E36" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F36" s="104" t="s">
         <v>269</v>
       </c>
-      <c r="G36" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H36" s="129" t="s">
+      <c r="G36" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H36" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="I36" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J36" s="130" t="s">
+      <c r="I36" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J36" s="106" t="s">
         <v>427</v>
       </c>
-      <c r="K36" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L36" s="130" t="s">
+      <c r="K36" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L36" s="106" t="s">
         <v>412</v>
       </c>
-      <c r="M36" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N36" s="129" t="s">
+      <c r="M36" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N36" s="105" t="s">
         <v>553</v>
       </c>
-      <c r="O36" s="151" t="s">
+      <c r="O36" s="127" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="129" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="116" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="149"/>
-      <c r="B46" s="115" t="s">
+    <row r="46" spans="1:17" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="125"/>
+      <c r="B46" s="91" t="s">
         <v>521</v>
       </c>
-      <c r="C46" s="149"/>
-      <c r="D46" s="115" t="s">
+      <c r="C46" s="125"/>
+      <c r="D46" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="E46" s="149"/>
-      <c r="F46" s="115" t="s">
+      <c r="E46" s="125"/>
+      <c r="F46" s="91" t="s">
         <v>274</v>
       </c>
-      <c r="G46" s="149"/>
-      <c r="H46" s="115" t="s">
+      <c r="G46" s="125"/>
+      <c r="H46" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="I46" s="149"/>
-      <c r="J46" s="115" t="s">
+      <c r="I46" s="125"/>
+      <c r="J46" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="K46" s="149"/>
-      <c r="L46" s="115" t="s">
+      <c r="K46" s="125"/>
+      <c r="L46" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="M46" s="149"/>
-      <c r="N46" s="115" t="s">
+      <c r="M46" s="125"/>
+      <c r="N46" s="91" t="s">
         <v>523</v>
       </c>
-      <c r="O46" s="149"/>
-      <c r="P46" s="115" t="s">
+      <c r="O46" s="125"/>
+      <c r="P46" s="91" t="s">
         <v>522</v>
       </c>
-      <c r="Q46" s="115" t="s">
+      <c r="Q46" s="91" t="s">
         <v>524</v>
       </c>
     </row>
@@ -8032,90 +8032,90 @@
       <c r="B47" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="C47" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D47" s="123" t="s">
+      <c r="C47" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D47" s="99" t="s">
         <v>451</v>
       </c>
-      <c r="E47" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F47" s="124" t="s">
+      <c r="E47" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F47" s="100" t="s">
         <v>525</v>
       </c>
-      <c r="G47" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H47" s="125" t="s">
+      <c r="G47" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H47" s="101" t="s">
         <v>450</v>
       </c>
-      <c r="I47" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J47" s="126" t="s">
+      <c r="I47" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J47" s="102" t="s">
         <v>526</v>
       </c>
-      <c r="K47" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L47" s="126" t="s">
+      <c r="K47" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L47" s="102" t="s">
         <v>527</v>
       </c>
-      <c r="M47" s="151" t="s">
+      <c r="M47" s="127" t="s">
         <v>519</v>
       </c>
       <c r="N47" s="62" t="s">
         <v>529</v>
       </c>
-      <c r="O47" s="151" t="s">
+      <c r="O47" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="103" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D48" s="130" t="s">
+      <c r="C48" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D48" s="106" t="s">
         <v>282</v>
       </c>
-      <c r="E48" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F48" s="128" t="s">
+      <c r="E48" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F48" s="104" t="s">
         <v>450</v>
       </c>
-      <c r="G48" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H48" s="129" t="s">
+      <c r="G48" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H48" s="105" t="s">
         <v>448</v>
       </c>
-      <c r="I48" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J48" s="137" t="s">
+      <c r="I48" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J48" s="113" t="s">
         <v>415</v>
       </c>
-      <c r="K48" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L48" s="137" t="s">
+      <c r="K48" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L48" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="M48" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N48" s="129" t="s">
+      <c r="M48" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N48" s="105" t="s">
         <v>530</v>
       </c>
-      <c r="O48" s="151" t="s">
+      <c r="O48" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8126,43 +8126,43 @@
       <c r="B49" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="C49" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D49" s="134" t="s">
+      <c r="C49" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D49" s="110" t="s">
         <v>374</v>
       </c>
-      <c r="E49" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F49" s="124" t="s">
+      <c r="E49" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F49" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="G49" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H49" s="125" t="s">
+      <c r="G49" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H49" s="101" t="s">
         <v>449</v>
       </c>
-      <c r="I49" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J49" s="134" t="s">
+      <c r="I49" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J49" s="110" t="s">
         <v>583</v>
       </c>
-      <c r="K49" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L49" s="123" t="s">
+      <c r="K49" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L49" s="99" t="s">
         <v>408</v>
       </c>
-      <c r="M49" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N49" s="125" t="s">
+      <c r="M49" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N49" s="101" t="s">
         <v>531</v>
       </c>
-      <c r="O49" s="151" t="s">
+      <c r="O49" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8173,278 +8173,278 @@
       <c r="B50" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="C50" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D50" s="134" t="s">
+      <c r="C50" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D50" s="110" t="s">
         <v>375</v>
       </c>
-      <c r="E50" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F50" s="124" t="s">
+      <c r="E50" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F50" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="G50" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H50" s="125" t="s">
+      <c r="G50" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H50" s="101" t="s">
         <v>446</v>
       </c>
-      <c r="I50" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J50" s="134" t="s">
+      <c r="I50" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J50" s="110" t="s">
         <v>584</v>
       </c>
-      <c r="K50" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L50" s="123" t="s">
+      <c r="K50" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L50" s="99" t="s">
         <v>408</v>
       </c>
-      <c r="M50" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N50" s="125" t="s">
+      <c r="M50" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N50" s="101" t="s">
         <v>566</v>
       </c>
-      <c r="O50" s="151" t="s">
+      <c r="O50" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="94" t="s">
         <v>297</v>
       </c>
-      <c r="C51" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D51" s="119" t="s">
+      <c r="C51" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D51" s="95" t="s">
         <v>378</v>
       </c>
-      <c r="E51" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F51" s="120" t="s">
+      <c r="E51" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F51" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="G51" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H51" s="121" t="s">
+      <c r="G51" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H51" s="97" t="s">
         <v>445</v>
       </c>
-      <c r="I51" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J51" s="138" t="s">
+      <c r="I51" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J51" s="114" t="s">
         <v>585</v>
       </c>
-      <c r="K51" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L51" s="122" t="s">
+      <c r="K51" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L51" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="M51" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N51" s="121" t="s">
+      <c r="M51" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N51" s="97" t="s">
         <v>532</v>
       </c>
-      <c r="O51" s="151" t="s">
+      <c r="O51" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B52" s="118" t="s">
+      <c r="B52" s="94" t="s">
         <v>299</v>
       </c>
-      <c r="C52" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D52" s="119" t="s">
+      <c r="C52" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D52" s="95" t="s">
         <v>379</v>
       </c>
-      <c r="E52" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F52" s="120" t="s">
+      <c r="E52" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F52" s="96" t="s">
         <v>449</v>
       </c>
-      <c r="G52" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H52" s="121" t="s">
+      <c r="G52" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H52" s="97" t="s">
         <v>447</v>
       </c>
-      <c r="I52" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J52" s="133" t="s">
+      <c r="I52" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J52" s="109" t="s">
         <v>586</v>
       </c>
-      <c r="K52" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L52" s="119" t="s">
+      <c r="K52" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L52" s="95" t="s">
         <v>408</v>
       </c>
-      <c r="M52" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N52" s="121" t="s">
+      <c r="M52" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N52" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="O52" s="151" t="s">
+      <c r="O52" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="C53" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D53" s="119" t="s">
+      <c r="C53" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D53" s="95" t="s">
         <v>376</v>
       </c>
-      <c r="E53" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F53" s="120" t="s">
+      <c r="E53" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F53" s="96" t="s">
         <v>446</v>
       </c>
-      <c r="G53" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H53" s="121" t="s">
+      <c r="G53" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H53" s="97" t="s">
         <v>448</v>
       </c>
-      <c r="I53" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J53" s="122" t="s">
+      <c r="I53" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J53" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="K53" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L53" s="122" t="s">
+      <c r="K53" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L53" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="M53" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N53" s="121" t="s">
+      <c r="M53" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N53" s="97" t="s">
         <v>535</v>
       </c>
-      <c r="O53" s="151" t="s">
+      <c r="O53" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B54" s="118" t="s">
+      <c r="B54" s="94" t="s">
         <v>302</v>
       </c>
-      <c r="C54" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D54" s="119" t="s">
+      <c r="C54" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D54" s="95" t="s">
         <v>377</v>
       </c>
-      <c r="E54" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F54" s="120" t="s">
+      <c r="E54" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F54" s="96" t="s">
         <v>447</v>
       </c>
-      <c r="G54" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H54" s="121" t="s">
+      <c r="G54" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H54" s="97" t="s">
         <v>449</v>
       </c>
-      <c r="I54" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J54" s="122" t="s">
+      <c r="I54" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J54" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="K54" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L54" s="122" t="s">
+      <c r="K54" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L54" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="M54" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N54" s="121" t="s">
+      <c r="M54" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N54" s="97" t="s">
         <v>536</v>
       </c>
-      <c r="O54" s="151" t="s">
+      <c r="O54" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B55" s="118" t="s">
+      <c r="B55" s="94" t="s">
         <v>306</v>
       </c>
-      <c r="C55" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D55" s="119" t="s">
+      <c r="C55" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D55" s="95" t="s">
         <v>380</v>
       </c>
-      <c r="E55" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F55" s="120" t="s">
+      <c r="E55" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F55" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="G55" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H55" s="121" t="s">
+      <c r="G55" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H55" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="I55" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J55" s="122" t="s">
+      <c r="I55" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J55" s="98" t="s">
         <v>419</v>
       </c>
-      <c r="K55" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L55" s="122" t="s">
+      <c r="K55" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L55" s="98" t="s">
         <v>409</v>
       </c>
-      <c r="M55" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N55" s="121" t="s">
+      <c r="M55" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N55" s="97" t="s">
         <v>533</v>
       </c>
-      <c r="O55" s="151" t="s">
+      <c r="O55" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8455,43 +8455,43 @@
       <c r="B56" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="C56" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D56" s="123" t="s">
+      <c r="C56" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D56" s="99" t="s">
         <v>385</v>
       </c>
-      <c r="E56" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F56" s="124" t="s">
+      <c r="E56" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F56" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="G56" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H56" s="125" t="s">
+      <c r="G56" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H56" s="101" t="s">
         <v>316</v>
       </c>
-      <c r="I56" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J56" s="123" t="s">
+      <c r="I56" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J56" s="99" t="s">
         <v>587</v>
       </c>
-      <c r="K56" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L56" s="123" t="s">
+      <c r="K56" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L56" s="99" t="s">
         <v>410</v>
       </c>
-      <c r="M56" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N56" s="125" t="s">
+      <c r="M56" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N56" s="101" t="s">
         <v>534</v>
       </c>
-      <c r="O56" s="151" t="s">
+      <c r="O56" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8502,1171 +8502,1171 @@
       <c r="B57" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="C57" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D57" s="123" t="s">
+      <c r="C57" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D57" s="99" t="s">
         <v>386</v>
       </c>
-      <c r="E57" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F57" s="124" t="s">
+      <c r="E57" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F57" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="G57" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H57" s="125" t="s">
+      <c r="G57" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H57" s="101" t="s">
         <v>528</v>
       </c>
-      <c r="I57" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J57" s="126" t="s">
+      <c r="I57" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J57" s="102" t="s">
         <v>588</v>
       </c>
-      <c r="K57" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L57" s="126" t="s">
+      <c r="K57" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L57" s="102" t="s">
         <v>410</v>
       </c>
-      <c r="M57" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N57" s="125" t="s">
+      <c r="M57" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N57" s="101" t="s">
         <v>564</v>
       </c>
-      <c r="O57" s="151" t="s">
+      <c r="O57" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B58" s="144" t="s">
+      <c r="B58" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D58" s="145" t="s">
+      <c r="C58" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D58" s="121" t="s">
         <v>381</v>
       </c>
-      <c r="E58" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F58" s="146" t="s">
+      <c r="E58" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F58" s="122" t="s">
         <v>528</v>
       </c>
-      <c r="G58" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H58" s="146" t="s">
+      <c r="G58" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H58" s="122" t="s">
         <v>308</v>
       </c>
-      <c r="I58" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J58" s="145" t="s">
+      <c r="I58" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J58" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="K58" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L58" s="145" t="s">
+      <c r="K58" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L58" s="121" t="s">
         <v>409</v>
       </c>
-      <c r="M58" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N58" s="146" t="s">
+      <c r="M58" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N58" s="122" t="s">
         <v>544</v>
       </c>
-      <c r="O58" s="151" t="s">
+      <c r="O58" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="C59" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D59" s="130" t="s">
+      <c r="C59" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D59" s="106" t="s">
         <v>383</v>
       </c>
-      <c r="E59" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F59" s="128" t="s">
+      <c r="E59" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F59" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="G59" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H59" s="129" t="s">
+      <c r="G59" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H59" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="I59" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J59" s="130" t="s">
+      <c r="I59" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J59" s="106" t="s">
         <v>589</v>
       </c>
-      <c r="K59" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L59" s="130" t="s">
+      <c r="K59" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L59" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="M59" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N59" s="129" t="s">
+      <c r="M59" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N59" s="105" t="s">
         <v>537</v>
       </c>
-      <c r="O59" s="151" t="s">
+      <c r="O59" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B60" s="127" t="s">
+      <c r="B60" s="103" t="s">
         <v>319</v>
       </c>
-      <c r="C60" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D60" s="130" t="s">
+      <c r="C60" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D60" s="106" t="s">
         <v>384</v>
       </c>
-      <c r="E60" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F60" s="128" t="s">
+      <c r="E60" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F60" s="104" t="s">
         <v>316</v>
       </c>
-      <c r="G60" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H60" s="129" t="s">
+      <c r="G60" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H60" s="105" t="s">
         <v>439</v>
       </c>
-      <c r="I60" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J60" s="137" t="s">
+      <c r="I60" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J60" s="113" t="s">
         <v>590</v>
       </c>
-      <c r="K60" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L60" s="137" t="s">
+      <c r="K60" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L60" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M60" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N60" s="129" t="s">
+      <c r="M60" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N60" s="105" t="s">
         <v>563</v>
       </c>
-      <c r="O60" s="151" t="s">
+      <c r="O60" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B61" s="144" t="s">
+      <c r="B61" s="120" t="s">
         <v>322</v>
       </c>
-      <c r="C61" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D61" s="147" t="s">
+      <c r="C61" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D61" s="123" t="s">
         <v>382</v>
       </c>
-      <c r="E61" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F61" s="148" t="s">
+      <c r="E61" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F61" s="124" t="s">
         <v>439</v>
       </c>
-      <c r="G61" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H61" s="146" t="s">
+      <c r="G61" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H61" s="122" t="s">
         <v>308</v>
       </c>
-      <c r="I61" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J61" s="145" t="s">
+      <c r="I61" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J61" s="121" t="s">
         <v>422</v>
       </c>
-      <c r="K61" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L61" s="145" t="s">
+      <c r="K61" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L61" s="121" t="s">
         <v>409</v>
       </c>
-      <c r="M61" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N61" s="146" t="s">
+      <c r="M61" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N61" s="122" t="s">
         <v>543</v>
       </c>
-      <c r="O61" s="151" t="s">
+      <c r="O61" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B62" s="127" t="s">
+      <c r="B62" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="C62" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D62" s="130" t="s">
+      <c r="C62" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D62" s="106" t="s">
         <v>388</v>
       </c>
-      <c r="E62" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F62" s="128" t="s">
+      <c r="E62" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F62" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="G62" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H62" s="129" t="s">
+      <c r="G62" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H62" s="105" t="s">
         <v>332</v>
       </c>
-      <c r="I62" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J62" s="137" t="s">
+      <c r="I62" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J62" s="113" t="s">
         <v>591</v>
       </c>
-      <c r="K62" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L62" s="137" t="s">
+      <c r="K62" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L62" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M62" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N62" s="129" t="s">
+      <c r="M62" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N62" s="105" t="s">
         <v>538</v>
       </c>
-      <c r="O62" s="151" t="s">
+      <c r="O62" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B63" s="127" t="s">
+      <c r="B63" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="C63" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D63" s="130" t="s">
+      <c r="C63" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D63" s="106" t="s">
         <v>389</v>
       </c>
-      <c r="E63" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F63" s="128" t="s">
+      <c r="E63" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F63" s="104" t="s">
         <v>324</v>
       </c>
-      <c r="G63" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H63" s="129" t="s">
+      <c r="G63" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H63" s="105" t="s">
         <v>440</v>
       </c>
-      <c r="I63" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J63" s="137" t="s">
+      <c r="I63" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J63" s="113" t="s">
         <v>592</v>
       </c>
-      <c r="K63" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L63" s="137" t="s">
+      <c r="K63" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L63" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M63" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N63" s="129" t="s">
+      <c r="M63" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N63" s="105" t="s">
         <v>562</v>
       </c>
-      <c r="O63" s="151" t="s">
+      <c r="O63" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B64" s="144" t="s">
+      <c r="B64" s="120" t="s">
         <v>330</v>
       </c>
-      <c r="C64" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D64" s="147" t="s">
+      <c r="C64" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D64" s="123" t="s">
         <v>387</v>
       </c>
-      <c r="E64" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F64" s="148" t="s">
+      <c r="E64" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F64" s="124" t="s">
         <v>440</v>
       </c>
-      <c r="G64" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H64" s="146" t="s">
+      <c r="G64" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H64" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="I64" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J64" s="147" t="s">
+      <c r="I64" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J64" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="K64" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L64" s="147" t="s">
+      <c r="K64" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L64" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="M64" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N64" s="146" t="s">
+      <c r="M64" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N64" s="122" t="s">
         <v>542</v>
       </c>
-      <c r="O64" s="151" t="s">
+      <c r="O64" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B65" s="127" t="s">
+      <c r="B65" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="C65" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D65" s="130" t="s">
+      <c r="C65" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D65" s="106" t="s">
         <v>390</v>
       </c>
-      <c r="E65" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F65" s="128" t="s">
+      <c r="E65" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F65" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="G65" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H65" s="129" t="s">
+      <c r="G65" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H65" s="105" t="s">
         <v>341</v>
       </c>
-      <c r="I65" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J65" s="130" t="s">
+      <c r="I65" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J65" s="106" t="s">
         <v>593</v>
       </c>
-      <c r="K65" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L65" s="130" t="s">
+      <c r="K65" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="M65" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N65" s="129" t="s">
+      <c r="M65" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N65" s="105" t="s">
         <v>539</v>
       </c>
-      <c r="O65" s="151" t="s">
+      <c r="O65" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B66" s="127" t="s">
+      <c r="B66" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="C66" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D66" s="130" t="s">
+      <c r="C66" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D66" s="106" t="s">
         <v>392</v>
       </c>
-      <c r="E66" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F66" s="128" t="s">
+      <c r="E66" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F66" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="G66" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H66" s="129" t="s">
+      <c r="G66" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H66" s="105" t="s">
         <v>442</v>
       </c>
-      <c r="I66" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J66" s="137" t="s">
+      <c r="I66" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J66" s="113" t="s">
         <v>594</v>
       </c>
-      <c r="K66" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L66" s="137" t="s">
+      <c r="K66" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L66" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M66" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N66" s="129" t="s">
+      <c r="M66" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N66" s="105" t="s">
         <v>540</v>
       </c>
-      <c r="O66" s="151" t="s">
+      <c r="O66" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B67" s="127" t="s">
+      <c r="B67" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="C67" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D67" s="130" t="s">
+      <c r="C67" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D67" s="106" t="s">
         <v>391</v>
       </c>
-      <c r="E67" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F67" s="128" t="s">
+      <c r="E67" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F67" s="104" t="s">
         <v>332</v>
       </c>
-      <c r="G67" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H67" s="129" t="s">
+      <c r="G67" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H67" s="105" t="s">
         <v>441</v>
       </c>
-      <c r="I67" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J67" s="130" t="s">
+      <c r="I67" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J67" s="106" t="s">
         <v>595</v>
       </c>
-      <c r="K67" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L67" s="130" t="s">
+      <c r="K67" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L67" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="M67" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N67" s="129" t="s">
+      <c r="M67" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N67" s="105" t="s">
         <v>561</v>
       </c>
-      <c r="O67" s="151" t="s">
+      <c r="O67" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B68" s="144" t="s">
+      <c r="B68" s="120" t="s">
         <v>343</v>
       </c>
-      <c r="C68" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D68" s="147" t="s">
+      <c r="C68" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D68" s="123" t="s">
         <v>393</v>
       </c>
-      <c r="E68" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F68" s="148" t="s">
+      <c r="E68" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F68" s="124" t="s">
         <v>441</v>
       </c>
-      <c r="G68" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H68" s="146" t="s">
+      <c r="G68" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H68" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="I68" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J68" s="147" t="s">
+      <c r="I68" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J68" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="K68" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L68" s="147" t="s">
+      <c r="K68" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L68" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="M68" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N68" s="146" t="s">
+      <c r="M68" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N68" s="122" t="s">
         <v>541</v>
       </c>
-      <c r="O68" s="151" t="s">
+      <c r="O68" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="139" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" s="115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B69" s="139" t="s">
+      <c r="B69" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="C69" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D69" s="140" t="s">
+      <c r="C69" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D69" s="116" t="s">
         <v>394</v>
       </c>
-      <c r="E69" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F69" s="141" t="s">
+      <c r="E69" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F69" s="117" t="s">
         <v>442</v>
       </c>
-      <c r="G69" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H69" s="142" t="s">
+      <c r="G69" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H69" s="118" t="s">
         <v>341</v>
       </c>
-      <c r="I69" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J69" s="143" t="s">
+      <c r="I69" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J69" s="119" t="s">
         <v>422</v>
       </c>
-      <c r="K69" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L69" s="143" t="s">
+      <c r="K69" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L69" s="119" t="s">
         <v>409</v>
       </c>
-      <c r="M69" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N69" s="146" t="s">
+      <c r="M69" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N69" s="122" t="s">
         <v>545</v>
       </c>
-      <c r="O69" s="151" t="s">
+      <c r="O69" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B70" s="127" t="s">
+      <c r="B70" s="103" t="s">
         <v>345</v>
       </c>
-      <c r="C70" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D70" s="130" t="s">
+      <c r="C70" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D70" s="106" t="s">
         <v>395</v>
       </c>
-      <c r="E70" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F70" s="128" t="s">
+      <c r="E70" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F70" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="G70" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H70" s="129" t="s">
+      <c r="G70" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H70" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="I70" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J70" s="130" t="s">
+      <c r="I70" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J70" s="106" t="s">
         <v>596</v>
       </c>
-      <c r="K70" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L70" s="130" t="s">
+      <c r="K70" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L70" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="M70" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N70" s="129" t="s">
+      <c r="M70" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N70" s="105" t="s">
         <v>546</v>
       </c>
-      <c r="O70" s="151" t="s">
+      <c r="O70" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B71" s="127" t="s">
+      <c r="B71" s="103" t="s">
         <v>349</v>
       </c>
-      <c r="C71" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D71" s="130" t="s">
+      <c r="C71" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D71" s="106" t="s">
         <v>397</v>
       </c>
-      <c r="E71" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F71" s="128" t="s">
+      <c r="E71" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F71" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="G71" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H71" s="129" t="s">
+      <c r="G71" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H71" s="105" t="s">
         <v>444</v>
       </c>
-      <c r="I71" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J71" s="137" t="s">
+      <c r="I71" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J71" s="113" t="s">
         <v>597</v>
       </c>
-      <c r="K71" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L71" s="137" t="s">
+      <c r="K71" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L71" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="M71" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N71" s="129" t="s">
+      <c r="M71" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N71" s="105" t="s">
         <v>547</v>
       </c>
-      <c r="O71" s="151" t="s">
+      <c r="O71" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B72" s="127" t="s">
+      <c r="B72" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="C72" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D72" s="130" t="s">
+      <c r="C72" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D72" s="106" t="s">
         <v>396</v>
       </c>
-      <c r="E72" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F72" s="128" t="s">
+      <c r="E72" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F72" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="G72" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H72" s="129" t="s">
+      <c r="G72" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H72" s="105" t="s">
         <v>443</v>
       </c>
-      <c r="I72" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J72" s="130" t="s">
+      <c r="I72" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J72" s="106" t="s">
         <v>598</v>
       </c>
-      <c r="K72" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L72" s="130" t="s">
+      <c r="K72" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L72" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="M72" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N72" s="129" t="s">
+      <c r="M72" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N72" s="105" t="s">
         <v>560</v>
       </c>
-      <c r="O72" s="151" t="s">
+      <c r="O72" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B73" s="144" t="s">
+      <c r="B73" s="120" t="s">
         <v>355</v>
       </c>
-      <c r="C73" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D73" s="147" t="s">
+      <c r="C73" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D73" s="123" t="s">
         <v>399</v>
       </c>
-      <c r="E73" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F73" s="148" t="s">
+      <c r="E73" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F73" s="124" t="s">
         <v>443</v>
       </c>
-      <c r="G73" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H73" s="146" t="s">
+      <c r="G73" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H73" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="I73" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J73" s="147" t="s">
+      <c r="I73" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J73" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="K73" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L73" s="147" t="s">
+      <c r="K73" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L73" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="M73" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N73" s="146" t="s">
+      <c r="M73" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N73" s="122" t="s">
         <v>548</v>
       </c>
-      <c r="O73" s="151" t="s">
+      <c r="O73" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="139" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" s="115" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B74" s="139" t="s">
+      <c r="B74" s="115" t="s">
         <v>351</v>
       </c>
-      <c r="C74" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D74" s="140" t="s">
+      <c r="C74" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D74" s="116" t="s">
         <v>398</v>
       </c>
-      <c r="E74" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F74" s="141" t="s">
+      <c r="E74" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F74" s="117" t="s">
         <v>444</v>
       </c>
-      <c r="G74" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H74" s="129" t="s">
+      <c r="G74" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H74" s="105" t="s">
         <v>358</v>
       </c>
-      <c r="I74" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J74" s="143" t="s">
+      <c r="I74" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J74" s="119" t="s">
         <v>422</v>
       </c>
-      <c r="K74" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L74" s="143" t="s">
+      <c r="K74" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L74" s="119" t="s">
         <v>409</v>
       </c>
-      <c r="M74" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N74" s="146" t="s">
+      <c r="M74" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N74" s="122" t="s">
         <v>549</v>
       </c>
-      <c r="O74" s="151" t="s">
+      <c r="O74" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B75" s="127" t="s">
+      <c r="B75" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C75" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D75" s="130" t="s">
+      <c r="C75" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D75" s="106" t="s">
         <v>402</v>
       </c>
-      <c r="E75" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F75" s="128" t="s">
+      <c r="E75" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F75" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="G75" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H75" s="129" t="s">
+      <c r="G75" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H75" s="105" t="s">
         <v>368</v>
       </c>
-      <c r="I75" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J75" s="130" t="s">
+      <c r="I75" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J75" s="106" t="s">
         <v>599</v>
       </c>
-      <c r="K75" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L75" s="130" t="s">
+      <c r="K75" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L75" s="106" t="s">
         <v>411</v>
       </c>
-      <c r="M75" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N75" s="129" t="s">
+      <c r="M75" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N75" s="105" t="s">
         <v>550</v>
       </c>
-      <c r="O75" s="151" t="s">
+      <c r="O75" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B76" s="127" t="s">
+      <c r="B76" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="C76" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D76" s="130" t="s">
+      <c r="C76" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D76" s="106" t="s">
         <v>403</v>
       </c>
-      <c r="E76" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F76" s="128" t="s">
+      <c r="E76" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F76" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="G76" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H76" s="129" t="s">
+      <c r="G76" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H76" s="105" t="s">
         <v>438</v>
       </c>
-      <c r="I76" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J76" s="130" t="s">
+      <c r="I76" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J76" s="106" t="s">
         <v>600</v>
       </c>
-      <c r="K76" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L76" s="130" t="s">
+      <c r="K76" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L76" s="106" t="s">
         <v>411</v>
       </c>
-      <c r="M76" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N76" s="129" t="s">
+      <c r="M76" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N76" s="105" t="s">
         <v>551</v>
       </c>
-      <c r="O76" s="151" t="s">
+      <c r="O76" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B77" s="144" t="s">
+      <c r="B77" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="C77" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D77" s="147" t="s">
+      <c r="C77" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D77" s="123" t="s">
         <v>404</v>
       </c>
-      <c r="E77" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F77" s="148" t="s">
+      <c r="E77" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F77" s="124" t="s">
         <v>438</v>
       </c>
-      <c r="G77" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H77" s="146" t="s">
+      <c r="G77" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H77" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="I77" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J77" s="147" t="s">
+      <c r="I77" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J77" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="K77" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L77" s="147" t="s">
+      <c r="K77" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L77" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="M77" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N77" s="146" t="s">
+      <c r="M77" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N77" s="122" t="s">
         <v>552</v>
       </c>
-      <c r="O77" s="151" t="s">
+      <c r="O77" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B78" s="127" t="s">
+      <c r="B78" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="C78" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D78" s="130" t="s">
+      <c r="C78" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D78" s="106" t="s">
         <v>405</v>
       </c>
-      <c r="E78" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F78" s="128" t="s">
+      <c r="E78" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F78" s="104" t="s">
         <v>368</v>
       </c>
-      <c r="G78" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H78" s="129" t="s">
+      <c r="G78" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H78" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="I78" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J78" s="130" t="s">
+      <c r="I78" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J78" s="106" t="s">
         <v>601</v>
       </c>
-      <c r="K78" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L78" s="130" t="s">
+      <c r="K78" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L78" s="106" t="s">
         <v>411</v>
       </c>
-      <c r="M78" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N78" s="129" t="s">
+      <c r="M78" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N78" s="105" t="s">
         <v>554</v>
       </c>
-      <c r="O78" s="151" t="s">
+      <c r="O78" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="144" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" s="120" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B79" s="144" t="s">
+      <c r="B79" s="120" t="s">
         <v>568</v>
       </c>
-      <c r="C79" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D79" s="147" t="s">
+      <c r="C79" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D79" s="123" t="s">
         <v>557</v>
       </c>
-      <c r="E79" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F79" s="148" t="s">
+      <c r="E79" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F79" s="124" t="s">
         <v>556</v>
       </c>
-      <c r="G79" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H79" s="146" t="s">
+      <c r="G79" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H79" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="I79" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J79" s="147" t="s">
+      <c r="I79" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J79" s="123" t="s">
         <v>422</v>
       </c>
-      <c r="K79" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L79" s="147" t="s">
+      <c r="K79" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L79" s="123" t="s">
         <v>409</v>
       </c>
-      <c r="M79" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N79" s="146" t="s">
+      <c r="M79" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N79" s="122" t="s">
         <v>558</v>
       </c>
-      <c r="O79" s="151" t="s">
+      <c r="O79" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B80" s="127" t="s">
+      <c r="B80" s="103" t="s">
         <v>567</v>
       </c>
-      <c r="C80" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D80" s="130" t="s">
+      <c r="C80" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D80" s="106" t="s">
         <v>555</v>
       </c>
-      <c r="E80" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F80" s="128" t="s">
+      <c r="E80" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F80" s="104" t="s">
         <v>368</v>
       </c>
-      <c r="G80" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H80" s="129" t="s">
+      <c r="G80" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H80" s="105" t="s">
         <v>556</v>
       </c>
-      <c r="I80" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J80" s="130" t="s">
+      <c r="I80" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J80" s="106" t="s">
         <v>602</v>
       </c>
-      <c r="K80" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L80" s="130" t="s">
+      <c r="K80" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L80" s="106" t="s">
         <v>411</v>
       </c>
-      <c r="M80" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N80" s="129" t="s">
+      <c r="M80" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N80" s="105" t="s">
         <v>559</v>
       </c>
-      <c r="O80" s="151" t="s">
+      <c r="O80" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="B81" s="127" t="s">
+      <c r="B81" s="103" t="s">
         <v>371</v>
       </c>
-      <c r="C81" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="D81" s="130" t="s">
+      <c r="C81" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="D81" s="106" t="s">
         <v>406</v>
       </c>
-      <c r="E81" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F81" s="128" t="s">
+      <c r="E81" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F81" s="104" t="s">
         <v>269</v>
       </c>
-      <c r="G81" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H81" s="129" t="s">
+      <c r="G81" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H81" s="105" t="s">
         <v>373</v>
       </c>
-      <c r="I81" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="J81" s="130" t="s">
+      <c r="I81" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="J81" s="106" t="s">
         <v>427</v>
       </c>
-      <c r="K81" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="L81" s="130" t="s">
+      <c r="K81" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="L81" s="106" t="s">
         <v>412</v>
       </c>
-      <c r="M81" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="N81" s="129" t="s">
+      <c r="M81" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="N81" s="105" t="s">
         <v>553</v>
       </c>
-      <c r="O81" s="151" t="s">
+      <c r="O81" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -9676,26 +9676,26 @@
         <v>283</v>
       </c>
       <c r="C96" s="68"/>
-      <c r="D96" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E96" s="150"/>
+      <c r="D96" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E96" s="126"/>
       <c r="F96" s="85" t="s">
         <v>453</v>
       </c>
-      <c r="G96" s="131"/>
+      <c r="G96" s="107"/>
       <c r="H96" s="88" t="s">
         <v>446</v>
       </c>
-      <c r="I96" s="132"/>
-      <c r="J96" s="135" t="s">
+      <c r="I96" s="108"/>
+      <c r="J96" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K96" s="69"/>
-      <c r="L96" s="135" t="s">
+      <c r="L96" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M96" s="150"/>
+      <c r="M96" s="126"/>
       <c r="O96" s="68"/>
     </row>
     <row r="97" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9704,26 +9704,26 @@
         <v>283</v>
       </c>
       <c r="C97" s="68"/>
-      <c r="D97" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E97" s="150"/>
+      <c r="D97" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E97" s="126"/>
       <c r="F97" s="85" t="s">
         <v>454</v>
       </c>
-      <c r="G97" s="131"/>
+      <c r="G97" s="107"/>
       <c r="H97" s="88" t="s">
         <v>448</v>
       </c>
-      <c r="I97" s="132"/>
-      <c r="J97" s="135" t="s">
+      <c r="I97" s="108"/>
+      <c r="J97" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K97" s="69"/>
-      <c r="L97" s="135" t="s">
+      <c r="L97" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M97" s="150"/>
+      <c r="M97" s="126"/>
       <c r="O97" s="68"/>
     </row>
     <row r="98" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9732,26 +9732,26 @@
         <v>283</v>
       </c>
       <c r="C98" s="68"/>
-      <c r="D98" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E98" s="150"/>
+      <c r="D98" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E98" s="126"/>
       <c r="F98" s="85" t="s">
         <v>455</v>
       </c>
-      <c r="G98" s="131"/>
+      <c r="G98" s="107"/>
       <c r="H98" s="88" t="s">
         <v>449</v>
       </c>
-      <c r="I98" s="132"/>
-      <c r="J98" s="136" t="s">
+      <c r="I98" s="108"/>
+      <c r="J98" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K98" s="117"/>
-      <c r="L98" s="136" t="s">
+      <c r="K98" s="93"/>
+      <c r="L98" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M98" s="150"/>
+      <c r="M98" s="126"/>
       <c r="O98" s="68"/>
     </row>
     <row r="99" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9760,26 +9760,26 @@
         <v>283</v>
       </c>
       <c r="C99" s="68"/>
-      <c r="D99" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E99" s="150"/>
+      <c r="D99" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99" s="126"/>
       <c r="F99" s="85" t="s">
         <v>456</v>
       </c>
-      <c r="G99" s="131"/>
+      <c r="G99" s="107"/>
       <c r="H99" s="88" t="s">
         <v>447</v>
       </c>
-      <c r="I99" s="132"/>
-      <c r="J99" s="135" t="s">
+      <c r="I99" s="108"/>
+      <c r="J99" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K99" s="69"/>
-      <c r="L99" s="135" t="s">
+      <c r="L99" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M99" s="150"/>
+      <c r="M99" s="126"/>
       <c r="O99" s="68"/>
     </row>
     <row r="100" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9788,26 +9788,26 @@
         <v>283</v>
       </c>
       <c r="C100" s="68"/>
-      <c r="D100" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E100" s="150"/>
+      <c r="D100" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100" s="126"/>
       <c r="F100" s="85" t="s">
         <v>457</v>
       </c>
-      <c r="G100" s="131"/>
+      <c r="G100" s="107"/>
       <c r="H100" s="88" t="s">
         <v>449</v>
       </c>
-      <c r="I100" s="132"/>
-      <c r="J100" s="136" t="s">
+      <c r="I100" s="108"/>
+      <c r="J100" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K100" s="117"/>
-      <c r="L100" s="136" t="s">
+      <c r="K100" s="93"/>
+      <c r="L100" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M100" s="150"/>
+      <c r="M100" s="126"/>
       <c r="O100" s="68"/>
     </row>
     <row r="101" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9816,26 +9816,26 @@
         <v>283</v>
       </c>
       <c r="C101" s="68"/>
-      <c r="D101" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E101" s="150"/>
+      <c r="D101" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E101" s="126"/>
       <c r="F101" s="85" t="s">
         <v>458</v>
       </c>
-      <c r="G101" s="131"/>
+      <c r="G101" s="107"/>
       <c r="H101" s="88" t="s">
         <v>459</v>
       </c>
-      <c r="I101" s="132"/>
-      <c r="J101" s="136" t="s">
+      <c r="I101" s="108"/>
+      <c r="J101" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K101" s="117"/>
-      <c r="L101" s="136" t="s">
+      <c r="K101" s="93"/>
+      <c r="L101" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M101" s="150"/>
+      <c r="M101" s="126"/>
       <c r="O101" s="68"/>
     </row>
     <row r="102" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9844,26 +9844,26 @@
         <v>283</v>
       </c>
       <c r="C102" s="68"/>
-      <c r="D102" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E102" s="150"/>
+      <c r="D102" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E102" s="126"/>
       <c r="F102" s="85" t="s">
         <v>459</v>
       </c>
-      <c r="G102" s="131"/>
+      <c r="G102" s="107"/>
       <c r="H102" s="88" t="s">
         <v>445</v>
       </c>
-      <c r="I102" s="132"/>
-      <c r="J102" s="135" t="s">
+      <c r="I102" s="108"/>
+      <c r="J102" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K102" s="69"/>
-      <c r="L102" s="135" t="s">
+      <c r="L102" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M102" s="150"/>
+      <c r="M102" s="126"/>
       <c r="O102" s="68"/>
     </row>
     <row r="103" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9872,26 +9872,26 @@
         <v>283</v>
       </c>
       <c r="C103" s="68"/>
-      <c r="D103" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E103" s="150"/>
+      <c r="D103" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E103" s="126"/>
       <c r="F103" s="85" t="s">
         <v>460</v>
       </c>
-      <c r="G103" s="131"/>
+      <c r="G103" s="107"/>
       <c r="H103" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="I103" s="132"/>
-      <c r="J103" s="135" t="s">
+      <c r="I103" s="108"/>
+      <c r="J103" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K103" s="69"/>
-      <c r="L103" s="135" t="s">
+      <c r="L103" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M103" s="150"/>
+      <c r="M103" s="126"/>
       <c r="O103" s="68"/>
     </row>
     <row r="104" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9900,26 +9900,26 @@
         <v>283</v>
       </c>
       <c r="C104" s="68"/>
-      <c r="D104" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E104" s="150"/>
+      <c r="D104" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E104" s="126"/>
       <c r="F104" s="85" t="s">
         <v>461</v>
       </c>
-      <c r="G104" s="131"/>
+      <c r="G104" s="107"/>
       <c r="H104" s="88" t="s">
         <v>528</v>
       </c>
-      <c r="I104" s="132"/>
-      <c r="J104" s="136" t="s">
+      <c r="I104" s="108"/>
+      <c r="J104" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K104" s="117"/>
-      <c r="L104" s="136" t="s">
+      <c r="K104" s="93"/>
+      <c r="L104" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M104" s="150"/>
+      <c r="M104" s="126"/>
       <c r="O104" s="68"/>
     </row>
     <row r="105" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9928,26 +9928,26 @@
         <v>283</v>
       </c>
       <c r="C105" s="68"/>
-      <c r="D105" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E105" s="150"/>
+      <c r="D105" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E105" s="126"/>
       <c r="F105" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="G105" s="131"/>
+      <c r="G105" s="107"/>
       <c r="H105" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="I105" s="132"/>
-      <c r="J105" s="135" t="s">
+      <c r="I105" s="108"/>
+      <c r="J105" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K105" s="69"/>
-      <c r="L105" s="135" t="s">
+      <c r="L105" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M105" s="150"/>
+      <c r="M105" s="126"/>
       <c r="O105" s="68"/>
     </row>
     <row r="106" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9956,26 +9956,26 @@
         <v>283</v>
       </c>
       <c r="C106" s="68"/>
-      <c r="D106" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E106" s="150"/>
+      <c r="D106" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E106" s="126"/>
       <c r="F106" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="G106" s="131"/>
+      <c r="G106" s="107"/>
       <c r="H106" s="88" t="s">
         <v>316</v>
       </c>
-      <c r="I106" s="132"/>
-      <c r="J106" s="136" t="s">
+      <c r="I106" s="108"/>
+      <c r="J106" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K106" s="117"/>
-      <c r="L106" s="136" t="s">
+      <c r="K106" s="93"/>
+      <c r="L106" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M106" s="150"/>
+      <c r="M106" s="126"/>
       <c r="O106" s="68"/>
     </row>
     <row r="107" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -9984,26 +9984,26 @@
         <v>283</v>
       </c>
       <c r="C107" s="68"/>
-      <c r="D107" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E107" s="150"/>
+      <c r="D107" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E107" s="126"/>
       <c r="F107" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="G107" s="131"/>
+      <c r="G107" s="107"/>
       <c r="H107" s="88" t="s">
         <v>439</v>
       </c>
-      <c r="I107" s="132"/>
-      <c r="J107" s="136" t="s">
+      <c r="I107" s="108"/>
+      <c r="J107" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K107" s="117"/>
-      <c r="L107" s="136" t="s">
+      <c r="K107" s="93"/>
+      <c r="L107" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M107" s="150"/>
+      <c r="M107" s="126"/>
       <c r="O107" s="68"/>
     </row>
     <row r="108" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10012,26 +10012,26 @@
         <v>283</v>
       </c>
       <c r="C108" s="68"/>
-      <c r="D108" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E108" s="150"/>
+      <c r="D108" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E108" s="126"/>
       <c r="F108" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="G108" s="131"/>
+      <c r="G108" s="107"/>
       <c r="H108" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="I108" s="132"/>
-      <c r="J108" s="135" t="s">
+      <c r="I108" s="108"/>
+      <c r="J108" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K108" s="69"/>
-      <c r="L108" s="135" t="s">
+      <c r="L108" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M108" s="150"/>
+      <c r="M108" s="126"/>
       <c r="O108" s="68"/>
     </row>
     <row r="109" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10040,26 +10040,26 @@
         <v>283</v>
       </c>
       <c r="C109" s="68"/>
-      <c r="D109" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E109" s="150"/>
+      <c r="D109" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E109" s="126"/>
       <c r="F109" s="85" t="s">
         <v>466</v>
       </c>
-      <c r="G109" s="131"/>
+      <c r="G109" s="107"/>
       <c r="H109" s="88" t="s">
         <v>324</v>
       </c>
-      <c r="I109" s="132"/>
-      <c r="J109" s="135" t="s">
+      <c r="I109" s="108"/>
+      <c r="J109" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K109" s="69"/>
-      <c r="L109" s="135" t="s">
+      <c r="L109" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M109" s="150"/>
+      <c r="M109" s="126"/>
       <c r="O109" s="68"/>
     </row>
     <row r="110" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10068,26 +10068,26 @@
         <v>283</v>
       </c>
       <c r="C110" s="68"/>
-      <c r="D110" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E110" s="150"/>
+      <c r="D110" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E110" s="126"/>
       <c r="F110" s="85" t="s">
         <v>467</v>
       </c>
-      <c r="G110" s="131"/>
+      <c r="G110" s="107"/>
       <c r="H110" s="88" t="s">
         <v>440</v>
       </c>
-      <c r="I110" s="132"/>
-      <c r="J110" s="135" t="s">
+      <c r="I110" s="108"/>
+      <c r="J110" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K110" s="69"/>
-      <c r="L110" s="135" t="s">
+      <c r="L110" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M110" s="150"/>
+      <c r="M110" s="126"/>
       <c r="O110" s="68"/>
     </row>
     <row r="111" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10096,26 +10096,26 @@
         <v>283</v>
       </c>
       <c r="C111" s="68"/>
-      <c r="D111" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E111" s="150"/>
+      <c r="D111" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E111" s="126"/>
       <c r="F111" s="85" t="s">
         <v>468</v>
       </c>
-      <c r="G111" s="131"/>
+      <c r="G111" s="107"/>
       <c r="H111" s="88" t="s">
         <v>324</v>
       </c>
-      <c r="I111" s="132"/>
-      <c r="J111" s="135" t="s">
+      <c r="I111" s="108"/>
+      <c r="J111" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K111" s="69"/>
-      <c r="L111" s="135" t="s">
+      <c r="L111" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M111" s="150"/>
+      <c r="M111" s="126"/>
       <c r="O111" s="68"/>
     </row>
     <row r="112" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10124,26 +10124,26 @@
         <v>283</v>
       </c>
       <c r="C112" s="68"/>
-      <c r="D112" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E112" s="150"/>
+      <c r="D112" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E112" s="126"/>
       <c r="F112" s="85" t="s">
         <v>469</v>
       </c>
-      <c r="G112" s="131"/>
+      <c r="G112" s="107"/>
       <c r="H112" s="88" t="s">
         <v>332</v>
       </c>
-      <c r="I112" s="132"/>
-      <c r="J112" s="136" t="s">
+      <c r="I112" s="108"/>
+      <c r="J112" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K112" s="117"/>
-      <c r="L112" s="136" t="s">
+      <c r="K112" s="93"/>
+      <c r="L112" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M112" s="150"/>
+      <c r="M112" s="126"/>
       <c r="O112" s="68"/>
     </row>
     <row r="113" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10152,26 +10152,26 @@
         <v>283</v>
       </c>
       <c r="C113" s="68"/>
-      <c r="D113" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E113" s="150"/>
+      <c r="D113" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E113" s="126"/>
       <c r="F113" s="85" t="s">
         <v>470</v>
       </c>
-      <c r="G113" s="131"/>
+      <c r="G113" s="107"/>
       <c r="H113" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="I113" s="132"/>
-      <c r="J113" s="136" t="s">
+      <c r="I113" s="108"/>
+      <c r="J113" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K113" s="117"/>
-      <c r="L113" s="136" t="s">
+      <c r="K113" s="93"/>
+      <c r="L113" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M113" s="150"/>
+      <c r="M113" s="126"/>
       <c r="O113" s="68"/>
     </row>
     <row r="114" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10180,26 +10180,26 @@
         <v>283</v>
       </c>
       <c r="C114" s="68"/>
-      <c r="D114" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E114" s="150"/>
+      <c r="D114" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E114" s="126"/>
       <c r="F114" s="85" t="s">
         <v>471</v>
       </c>
-      <c r="G114" s="131"/>
+      <c r="G114" s="107"/>
       <c r="H114" s="88" t="s">
         <v>441</v>
       </c>
-      <c r="I114" s="132"/>
-      <c r="J114" s="135" t="s">
+      <c r="I114" s="108"/>
+      <c r="J114" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K114" s="69"/>
-      <c r="L114" s="135" t="s">
+      <c r="L114" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M114" s="150"/>
+      <c r="M114" s="126"/>
       <c r="O114" s="68"/>
     </row>
     <row r="115" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10208,26 +10208,26 @@
         <v>283</v>
       </c>
       <c r="C115" s="68"/>
-      <c r="D115" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E115" s="150"/>
+      <c r="D115" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E115" s="126"/>
       <c r="F115" s="85" t="s">
         <v>472</v>
       </c>
-      <c r="G115" s="131"/>
+      <c r="G115" s="107"/>
       <c r="H115" s="88" t="s">
         <v>324</v>
       </c>
-      <c r="I115" s="132"/>
-      <c r="J115" s="136" t="s">
+      <c r="I115" s="108"/>
+      <c r="J115" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K115" s="117"/>
-      <c r="L115" s="136" t="s">
+      <c r="K115" s="93"/>
+      <c r="L115" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M115" s="150"/>
+      <c r="M115" s="126"/>
       <c r="O115" s="68"/>
     </row>
     <row r="116" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10236,26 +10236,26 @@
         <v>283</v>
       </c>
       <c r="C116" s="68"/>
-      <c r="D116" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E116" s="150"/>
+      <c r="D116" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E116" s="126"/>
       <c r="F116" s="85" t="s">
         <v>473</v>
       </c>
-      <c r="G116" s="131"/>
+      <c r="G116" s="107"/>
       <c r="H116" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="I116" s="132"/>
-      <c r="J116" s="136" t="s">
+      <c r="I116" s="108"/>
+      <c r="J116" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K116" s="117"/>
-      <c r="L116" s="136" t="s">
+      <c r="K116" s="93"/>
+      <c r="L116" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M116" s="150"/>
+      <c r="M116" s="126"/>
       <c r="O116" s="68"/>
     </row>
     <row r="117" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10264,26 +10264,26 @@
         <v>283</v>
       </c>
       <c r="C117" s="68"/>
-      <c r="D117" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E117" s="150"/>
+      <c r="D117" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E117" s="126"/>
       <c r="F117" s="85" t="s">
         <v>474</v>
       </c>
-      <c r="G117" s="131"/>
+      <c r="G117" s="107"/>
       <c r="H117" s="88" t="s">
         <v>353</v>
       </c>
-      <c r="I117" s="132"/>
-      <c r="J117" s="135" t="s">
+      <c r="I117" s="108"/>
+      <c r="J117" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K117" s="69"/>
-      <c r="L117" s="135" t="s">
+      <c r="L117" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M117" s="150"/>
+      <c r="M117" s="126"/>
       <c r="O117" s="68"/>
     </row>
     <row r="118" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10292,26 +10292,26 @@
         <v>283</v>
       </c>
       <c r="C118" s="68"/>
-      <c r="D118" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E118" s="150"/>
+      <c r="D118" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E118" s="126"/>
       <c r="F118" s="85" t="s">
         <v>475</v>
       </c>
-      <c r="G118" s="131"/>
+      <c r="G118" s="107"/>
       <c r="H118" s="88" t="s">
         <v>443</v>
       </c>
-      <c r="I118" s="132"/>
-      <c r="J118" s="135" t="s">
+      <c r="I118" s="108"/>
+      <c r="J118" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K118" s="69"/>
-      <c r="L118" s="135" t="s">
+      <c r="L118" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M118" s="150"/>
+      <c r="M118" s="126"/>
       <c r="O118" s="68"/>
     </row>
     <row r="119" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10320,26 +10320,26 @@
         <v>283</v>
       </c>
       <c r="C119" s="68"/>
-      <c r="D119" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E119" s="150"/>
+      <c r="D119" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E119" s="126"/>
       <c r="F119" s="85" t="s">
         <v>476</v>
       </c>
-      <c r="G119" s="131"/>
+      <c r="G119" s="107"/>
       <c r="H119" s="88" t="s">
         <v>324</v>
       </c>
-      <c r="I119" s="132"/>
-      <c r="J119" s="135" t="s">
+      <c r="I119" s="108"/>
+      <c r="J119" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K119" s="69"/>
-      <c r="L119" s="135" t="s">
+      <c r="L119" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M119" s="150"/>
+      <c r="M119" s="126"/>
       <c r="O119" s="68"/>
     </row>
     <row r="120" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10348,26 +10348,26 @@
         <v>283</v>
       </c>
       <c r="C120" s="68"/>
-      <c r="D120" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E120" s="150"/>
+      <c r="D120" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E120" s="126"/>
       <c r="F120" s="85" t="s">
         <v>477</v>
       </c>
-      <c r="G120" s="131"/>
+      <c r="G120" s="107"/>
       <c r="H120" s="88" t="s">
         <v>353</v>
       </c>
-      <c r="I120" s="132"/>
-      <c r="J120" s="135" t="s">
+      <c r="I120" s="108"/>
+      <c r="J120" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K120" s="69"/>
-      <c r="L120" s="135" t="s">
+      <c r="L120" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M120" s="150"/>
+      <c r="M120" s="126"/>
       <c r="O120" s="68"/>
     </row>
     <row r="121" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10376,26 +10376,26 @@
         <v>283</v>
       </c>
       <c r="C121" s="68"/>
-      <c r="D121" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E121" s="150"/>
+      <c r="D121" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E121" s="126"/>
       <c r="F121" s="85" t="s">
         <v>362</v>
       </c>
-      <c r="G121" s="131"/>
+      <c r="G121" s="107"/>
       <c r="H121" s="88" t="s">
         <v>438</v>
       </c>
-      <c r="I121" s="132"/>
-      <c r="J121" s="136" t="s">
+      <c r="I121" s="108"/>
+      <c r="J121" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K121" s="117"/>
-      <c r="L121" s="136" t="s">
+      <c r="K121" s="93"/>
+      <c r="L121" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M121" s="150"/>
+      <c r="M121" s="126"/>
       <c r="O121" s="68"/>
     </row>
     <row r="122" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10404,26 +10404,26 @@
         <v>283</v>
       </c>
       <c r="C122" s="68"/>
-      <c r="D122" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E122" s="150"/>
+      <c r="D122" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E122" s="126"/>
       <c r="F122" s="85" t="s">
         <v>478</v>
       </c>
-      <c r="G122" s="131"/>
+      <c r="G122" s="107"/>
       <c r="H122" s="88" t="s">
         <v>324</v>
       </c>
-      <c r="I122" s="132"/>
-      <c r="J122" s="136" t="s">
+      <c r="I122" s="108"/>
+      <c r="J122" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K122" s="117"/>
-      <c r="L122" s="136" t="s">
+      <c r="K122" s="93"/>
+      <c r="L122" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M122" s="150"/>
+      <c r="M122" s="126"/>
       <c r="O122" s="68"/>
     </row>
     <row r="123" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10432,26 +10432,26 @@
         <v>283</v>
       </c>
       <c r="C123" s="68"/>
-      <c r="D123" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E123" s="150"/>
+      <c r="D123" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E123" s="126"/>
       <c r="F123" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="G123" s="131"/>
+      <c r="G123" s="107"/>
       <c r="H123" s="88" t="s">
         <v>366</v>
       </c>
-      <c r="I123" s="132"/>
-      <c r="J123" s="135" t="s">
+      <c r="I123" s="108"/>
+      <c r="J123" s="111" t="s">
         <v>414</v>
       </c>
       <c r="K123" s="69"/>
-      <c r="L123" s="135" t="s">
+      <c r="L123" s="111" t="s">
         <v>407</v>
       </c>
-      <c r="M123" s="150"/>
+      <c r="M123" s="126"/>
       <c r="O123" s="68"/>
     </row>
     <row r="124" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10460,26 +10460,26 @@
         <v>283</v>
       </c>
       <c r="C124" s="68"/>
-      <c r="D124" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E124" s="150"/>
+      <c r="D124" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E124" s="126"/>
       <c r="F124" s="85" t="s">
         <v>370</v>
       </c>
-      <c r="G124" s="131"/>
+      <c r="G124" s="107"/>
       <c r="H124" s="88" t="s">
         <v>269</v>
       </c>
-      <c r="I124" s="132"/>
-      <c r="J124" s="136" t="s">
+      <c r="I124" s="108"/>
+      <c r="J124" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K124" s="117"/>
-      <c r="L124" s="136" t="s">
+      <c r="K124" s="93"/>
+      <c r="L124" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M124" s="150"/>
+      <c r="M124" s="126"/>
       <c r="O124" s="68"/>
     </row>
     <row r="125" spans="1:15" s="60" customFormat="1" x14ac:dyDescent="0.3">
@@ -10488,26 +10488,26 @@
         <v>283</v>
       </c>
       <c r="C125" s="68"/>
-      <c r="D125" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E125" s="150"/>
+      <c r="D125" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="E125" s="126"/>
       <c r="F125" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="G125" s="131"/>
+      <c r="G125" s="107"/>
       <c r="H125" s="88" t="s">
         <v>373</v>
       </c>
-      <c r="I125" s="132"/>
-      <c r="J125" s="136" t="s">
+      <c r="I125" s="108"/>
+      <c r="J125" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="K125" s="117"/>
-      <c r="L125" s="136" t="s">
+      <c r="K125" s="93"/>
+      <c r="L125" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="M125" s="150"/>
+      <c r="M125" s="126"/>
       <c r="O125" s="68"/>
     </row>
   </sheetData>
@@ -11361,28 +11361,28 @@
     <col min="8" max="8" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="116" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="149"/>
-      <c r="B1" s="115" t="s">
+    <row r="1" spans="1:11" s="92" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="125"/>
+      <c r="B1" s="91" t="s">
         <v>521</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="115" t="s">
+      <c r="C1" s="125"/>
+      <c r="D1" s="91" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="115" t="s">
+      <c r="E1" s="125"/>
+      <c r="F1" s="91" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="149"/>
-      <c r="H1" s="115" t="s">
+      <c r="G1" s="125"/>
+      <c r="H1" s="91" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="149"/>
-      <c r="J1" s="115" t="s">
+      <c r="I1" s="125"/>
+      <c r="J1" s="91" t="s">
         <v>522</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="91" t="s">
         <v>524</v>
       </c>
     </row>
@@ -11393,54 +11393,54 @@
       <c r="B2" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="127" t="s">
         <v>519</v>
       </c>
       <c r="D2" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="E2" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F2" s="126" t="s">
+      <c r="E2" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F2" s="102" t="s">
         <v>577</v>
       </c>
-      <c r="G2" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H2" s="126" t="s">
+      <c r="G2" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H2" s="102" t="s">
         <v>573</v>
       </c>
-      <c r="I2" s="151" t="s">
+      <c r="I2" s="127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="127" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="68" t="s">
         <v>429</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="127" t="s">
         <v>519</v>
       </c>
       <c r="D3" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="E3" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F3" s="126" t="s">
+      <c r="E3" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F3" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="G3" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H3" s="126" t="s">
+      <c r="G3" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H3" s="102" t="s">
         <v>574</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -11451,25 +11451,25 @@
       <c r="B4" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="127" t="s">
         <v>519</v>
       </c>
       <c r="D4" s="62" t="s">
         <v>576</v>
       </c>
-      <c r="E4" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="F4" s="126" t="s">
+      <c r="E4" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="102" t="s">
         <v>579</v>
       </c>
-      <c r="G4" s="151" t="s">
-        <v>519</v>
-      </c>
-      <c r="H4" s="126" t="s">
+      <c r="G4" s="127" t="s">
+        <v>519</v>
+      </c>
+      <c r="H4" s="102" t="s">
         <v>575</v>
       </c>
-      <c r="I4" s="151" t="s">
+      <c r="I4" s="127" t="s">
         <v>518</v>
       </c>
     </row>
@@ -11497,13 +11497,13 @@
       <c r="A1" t="s">
         <v>580</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="94" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D1" s="122" t="s">
+      <c r="C1" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1" s="98" t="s">
         <v>419</v>
       </c>
       <c r="E1" s="61" t="s">
@@ -11517,10 +11517,10 @@
       <c r="B2" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D2" s="123" t="s">
+      <c r="C2" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="99" t="s">
         <v>420</v>
       </c>
       <c r="E2" s="61" t="s">
@@ -11534,10 +11534,10 @@
       <c r="B3" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D3" s="102" t="s">
         <v>421</v>
       </c>
       <c r="E3" s="61" t="s">
@@ -11548,13 +11548,13 @@
       <c r="A4" t="s">
         <v>580</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="120" t="s">
         <v>314</v>
       </c>
-      <c r="C4" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D4" s="145" t="s">
+      <c r="C4" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="121" t="s">
         <v>422</v>
       </c>
       <c r="E4" s="61" t="s">
@@ -11565,13 +11565,13 @@
       <c r="A5" t="s">
         <v>580</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="C5" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D5" s="130" t="s">
+      <c r="C5" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="106" t="s">
         <v>420</v>
       </c>
       <c r="E5" s="61" t="s">
@@ -11582,13 +11582,13 @@
       <c r="A6" t="s">
         <v>580</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="103" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D6" s="137" t="s">
+      <c r="C6" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="113" t="s">
         <v>421</v>
       </c>
       <c r="E6" s="61" t="s">
@@ -11599,13 +11599,13 @@
       <c r="A7" t="s">
         <v>580</v>
       </c>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="120" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D7" s="145" t="s">
+      <c r="C7" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" s="121" t="s">
         <v>422</v>
       </c>
       <c r="E7" s="61" t="s">
@@ -11616,13 +11616,13 @@
       <c r="A8" t="s">
         <v>580</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D8" s="137" t="s">
+      <c r="C8" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" s="113" t="s">
         <v>420</v>
       </c>
       <c r="E8" s="61" t="s">
@@ -11633,13 +11633,13 @@
       <c r="A9" t="s">
         <v>580</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="C9" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D9" s="137" t="s">
+      <c r="C9" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="113" t="s">
         <v>421</v>
       </c>
       <c r="E9" s="61" t="s">
@@ -11650,13 +11650,13 @@
       <c r="A10" t="s">
         <v>580</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="120" t="s">
         <v>330</v>
       </c>
-      <c r="C10" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D10" s="147" t="s">
+      <c r="C10" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D10" s="123" t="s">
         <v>422</v>
       </c>
       <c r="E10" s="61" t="s">
@@ -11667,13 +11667,13 @@
       <c r="A11" t="s">
         <v>580</v>
       </c>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="C11" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D11" s="130" t="s">
+      <c r="C11" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D11" s="106" t="s">
         <v>420</v>
       </c>
       <c r="E11" s="61" t="s">
@@ -11684,13 +11684,13 @@
       <c r="A12" t="s">
         <v>580</v>
       </c>
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D12" s="137" t="s">
+      <c r="C12" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="113" t="s">
         <v>423</v>
       </c>
       <c r="E12" s="61" t="s">
@@ -11701,13 +11701,13 @@
       <c r="A13" t="s">
         <v>580</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="C13" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D13" s="130" t="s">
+      <c r="C13" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" s="106" t="s">
         <v>421</v>
       </c>
       <c r="E13" s="61" t="s">
@@ -11718,13 +11718,13 @@
       <c r="A14" t="s">
         <v>580</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="120" t="s">
         <v>343</v>
       </c>
-      <c r="C14" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D14" s="147" t="s">
+      <c r="C14" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D14" s="123" t="s">
         <v>422</v>
       </c>
       <c r="E14" s="61" t="s">
@@ -11735,13 +11735,13 @@
       <c r="A15" t="s">
         <v>580</v>
       </c>
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D15" s="143" t="s">
+      <c r="C15" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="119" t="s">
         <v>422</v>
       </c>
       <c r="E15" s="61" t="s">
@@ -11752,13 +11752,13 @@
       <c r="A16" t="s">
         <v>580</v>
       </c>
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="103" t="s">
         <v>345</v>
       </c>
-      <c r="C16" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D16" s="130" t="s">
+      <c r="C16" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="106" t="s">
         <v>420</v>
       </c>
       <c r="E16" s="61" t="s">
@@ -11769,13 +11769,13 @@
       <c r="A17" t="s">
         <v>580</v>
       </c>
-      <c r="B17" s="127" t="s">
+      <c r="B17" s="103" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D17" s="137" t="s">
+      <c r="C17" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" s="113" t="s">
         <v>423</v>
       </c>
       <c r="E17" s="61" t="s">
@@ -11786,13 +11786,13 @@
       <c r="A18" t="s">
         <v>580</v>
       </c>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="103" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D18" s="130" t="s">
+      <c r="C18" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D18" s="106" t="s">
         <v>421</v>
       </c>
       <c r="E18" s="61" t="s">
@@ -11803,13 +11803,13 @@
       <c r="A19" t="s">
         <v>580</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="120" t="s">
         <v>355</v>
       </c>
-      <c r="C19" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D19" s="147" t="s">
+      <c r="C19" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D19" s="123" t="s">
         <v>422</v>
       </c>
       <c r="E19" s="61" t="s">
@@ -11820,13 +11820,13 @@
       <c r="A20" t="s">
         <v>580</v>
       </c>
-      <c r="B20" s="139" t="s">
+      <c r="B20" s="115" t="s">
         <v>351</v>
       </c>
-      <c r="C20" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D20" s="143" t="s">
+      <c r="C20" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D20" s="119" t="s">
         <v>422</v>
       </c>
       <c r="E20" s="61" t="s">
@@ -11837,13 +11837,13 @@
       <c r="A21" t="s">
         <v>580</v>
       </c>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C21" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D21" s="130" t="s">
+      <c r="C21" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" s="106" t="s">
         <v>424</v>
       </c>
       <c r="E21" s="61" t="s">
@@ -11854,13 +11854,13 @@
       <c r="A22" t="s">
         <v>580</v>
       </c>
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="C22" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D22" s="130" t="s">
+      <c r="C22" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D22" s="106" t="s">
         <v>426</v>
       </c>
       <c r="E22" s="61" t="s">
@@ -11871,13 +11871,13 @@
       <c r="A23" t="s">
         <v>580</v>
       </c>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="120" t="s">
         <v>364</v>
       </c>
-      <c r="C23" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D23" s="147" t="s">
+      <c r="C23" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D23" s="123" t="s">
         <v>422</v>
       </c>
       <c r="E23" s="61" t="s">
@@ -11888,13 +11888,13 @@
       <c r="A24" t="s">
         <v>580</v>
       </c>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="C24" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D24" s="130" t="s">
+      <c r="C24" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D24" s="106" t="s">
         <v>424</v>
       </c>
       <c r="E24" s="61" t="s">
@@ -11905,13 +11905,13 @@
       <c r="A25" t="s">
         <v>580</v>
       </c>
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="120" t="s">
         <v>568</v>
       </c>
-      <c r="C25" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D25" s="147" t="s">
+      <c r="C25" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D25" s="123" t="s">
         <v>422</v>
       </c>
       <c r="E25" s="61" t="s">
@@ -11922,13 +11922,13 @@
       <c r="A26" t="s">
         <v>580</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="103" t="s">
         <v>567</v>
       </c>
-      <c r="C26" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D26" s="130" t="s">
+      <c r="C26" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D26" s="106" t="s">
         <v>426</v>
       </c>
       <c r="E26" s="61" t="s">
@@ -11939,13 +11939,13 @@
       <c r="A27" t="s">
         <v>580</v>
       </c>
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="103" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="152" t="s">
-        <v>519</v>
-      </c>
-      <c r="D27" s="130" t="s">
+      <c r="C27" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="D27" s="106" t="s">
         <v>427</v>
       </c>
       <c r="E27" s="61" t="s">
@@ -11974,36 +11974,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
       <c r="L2" s="15" t="s">
         <v>79</v>
       </c>
@@ -12012,18 +12012,18 @@
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
       <c r="L3" s="14" t="s">
         <v>59</v>
       </c>
@@ -12032,18 +12032,18 @@
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
       <c r="L4" s="14" t="s">
         <v>57</v>
       </c>
@@ -12052,18 +12052,18 @@
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
       <c r="L5" s="14" t="s">
         <v>58</v>
       </c>
@@ -12072,18 +12072,18 @@
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
       <c r="L6" s="14" t="s">
         <v>66</v>
       </c>
@@ -12092,18 +12092,18 @@
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="14" t="s">
         <v>60</v>
       </c>
@@ -12112,18 +12112,18 @@
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
       <c r="L8" s="14" t="s">
         <v>61</v>
       </c>
@@ -12132,18 +12132,18 @@
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
       <c r="L9" s="14" t="s">
         <v>68</v>
       </c>
@@ -12152,18 +12152,18 @@
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
       <c r="L10" s="14" t="s">
         <v>69</v>
       </c>
@@ -12172,36 +12172,36 @@
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
       <c r="L12" s="14" t="s">
         <v>74</v>
       </c>
@@ -12210,18 +12210,18 @@
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
       <c r="L13" s="14" t="s">
         <v>75</v>
       </c>
@@ -12230,18 +12230,18 @@
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
       <c r="L14" s="14" t="s">
         <v>76</v>
       </c>
@@ -12250,18 +12250,18 @@
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
       <c r="L15" s="14" t="s">
         <v>77</v>
       </c>
@@ -12270,18 +12270,18 @@
       <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
       <c r="L16" s="14" t="s">
         <v>78</v>
       </c>
@@ -12331,19 +12331,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -12354,7 +12354,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="138" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -12362,37 +12362,37 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
+      <c r="A4" s="139"/>
       <c r="B4" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
+      <c r="A5" s="139"/>
       <c r="B5" s="21" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="100"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
+      <c r="A7" s="139"/>
       <c r="B7" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="101"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="138" t="s">
         <v>107</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -12400,19 +12400,19 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
+      <c r="A10" s="139"/>
       <c r="B10" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="101"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="138" t="s">
         <v>109</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -12420,7 +12420,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="101"/>
+      <c r="A13" s="140"/>
       <c r="B13" s="22" t="s">
         <v>108</v>
       </c>
@@ -12471,28 +12471,28 @@
       <c r="B1" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
       <c r="I1" s="23" t="s">
         <v>128</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
@@ -12754,22 +12754,22 @@
       <c r="E15" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="108">
+      <c r="K15" s="147">
         <v>1</v>
       </c>
-      <c r="L15" s="106" t="s">
+      <c r="L15" s="145" t="s">
         <v>170</v>
       </c>
-      <c r="M15" s="110" t="s">
+      <c r="M15" s="149" t="s">
         <v>169</v>
       </c>
-      <c r="N15" s="108"/>
+      <c r="N15" s="147"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K16" s="109"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="109"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="148"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
@@ -13324,8 +13324,8 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13358,10 +13358,10 @@
       <c r="F1" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="114"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="47" t="s">
         <v>270</v>
       </c>
@@ -13385,7 +13385,7 @@
       <c r="H2" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="152" t="s">
         <v>254</v>
       </c>
     </row>
@@ -13405,10 +13405,10 @@
       <c r="G3" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="151" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="113"/>
+      <c r="I3" s="152"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
@@ -13426,8 +13426,8 @@
       <c r="G4" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="152"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
@@ -13445,8 +13445,8 @@
       <c r="G5" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="113"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="152"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
@@ -13464,8 +13464,8 @@
       <c r="G6" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
@@ -13483,8 +13483,8 @@
       <c r="G7" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112" t="s">
+      <c r="H7" s="151"/>
+      <c r="I7" s="151" t="s">
         <v>269</v>
       </c>
     </row>
@@ -13504,8 +13504,8 @@
       <c r="G8" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
@@ -13563,10 +13563,10 @@
       <c r="G11" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="112" t="s">
+      <c r="H11" s="151" t="s">
         <v>241</v>
       </c>
-      <c r="I11" s="112" t="s">
+      <c r="I11" s="151" t="s">
         <v>254</v>
       </c>
     </row>
@@ -13586,8 +13586,8 @@
       <c r="G12" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
@@ -13605,8 +13605,8 @@
       <c r="G13" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
@@ -13624,8 +13624,8 @@
       <c r="G14" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
@@ -13643,8 +13643,8 @@
       <c r="G15" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="48" t="s">
@@ -13662,8 +13662,8 @@
       <c r="G16" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
@@ -13681,8 +13681,8 @@
       <c r="G17" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112" t="s">
+      <c r="H17" s="151"/>
+      <c r="I17" s="151" t="s">
         <v>269</v>
       </c>
     </row>
@@ -13702,8 +13702,8 @@
       <c r="G18" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
@@ -13721,8 +13721,8 @@
       <c r="G19" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
@@ -13740,10 +13740,10 @@
       <c r="G20" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H20" s="112" t="s">
+      <c r="H20" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="I20" s="113" t="s">
+      <c r="I20" s="152" t="s">
         <v>255</v>
       </c>
     </row>
@@ -13763,8 +13763,8 @@
       <c r="G21" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
@@ -13782,8 +13782,8 @@
       <c r="G22" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
@@ -13801,8 +13801,8 @@
       <c r="G23" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
@@ -13820,8 +13820,8 @@
       <c r="G24" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
@@ -13839,10 +13839,10 @@
       <c r="G25" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H25" s="112" t="s">
+      <c r="H25" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="112"/>
+      <c r="I25" s="151"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
@@ -13860,8 +13860,8 @@
       <c r="G26" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
@@ -13879,8 +13879,8 @@
       <c r="G27" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
@@ -13898,8 +13898,8 @@
       <c r="G28" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
@@ -13917,8 +13917,8 @@
       <c r="G29" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
@@ -13936,10 +13936,10 @@
       <c r="G30" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H30" s="112" t="s">
+      <c r="H30" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="112"/>
+      <c r="I30" s="151"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
@@ -13957,8 +13957,8 @@
       <c r="G31" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
@@ -13976,8 +13976,8 @@
       <c r="G32" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
@@ -13995,8 +13995,8 @@
       <c r="G33" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
@@ -14014,8 +14014,8 @@
       <c r="G34" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
@@ -14033,8 +14033,8 @@
       <c r="G35" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
@@ -14052,8 +14052,8 @@
       <c r="G36" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
@@ -14071,8 +14071,8 @@
       <c r="G37" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="48" t="s">
@@ -14090,8 +14090,8 @@
       <c r="G38" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H38" s="112"/>
-      <c r="I38" s="112"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
@@ -14109,8 +14109,8 @@
       <c r="G39" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="48" t="s">
@@ -14128,10 +14128,10 @@
       <c r="G40" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H40" s="112" t="s">
+      <c r="H40" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="112"/>
+      <c r="I40" s="151"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
@@ -14149,8 +14149,8 @@
       <c r="G41" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
@@ -14168,8 +14168,8 @@
       <c r="G42" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
@@ -14187,8 +14187,8 @@
       <c r="G43" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
@@ -14206,8 +14206,8 @@
       <c r="G44" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
@@ -14225,10 +14225,10 @@
       <c r="G45" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="H45" s="112" t="s">
+      <c r="H45" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="I45" s="112"/>
+      <c r="I45" s="151"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
@@ -14246,8 +14246,8 @@
       <c r="G46" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
@@ -14265,8 +14265,8 @@
       <c r="G47" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="48" t="s">
@@ -14284,8 +14284,8 @@
       <c r="G48" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H48" s="112"/>
-      <c r="I48" s="112"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
@@ -14303,8 +14303,8 @@
       <c r="G49" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H49" s="112"/>
-      <c r="I49" s="112"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
@@ -14322,8 +14322,8 @@
       <c r="G50" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
@@ -14341,8 +14341,8 @@
       <c r="G51" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
@@ -14360,7 +14360,7 @@
       <c r="G52" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="H52" s="112" t="s">
+      <c r="H52" s="151" t="s">
         <v>268</v>
       </c>
       <c r="I52" s="48"/>
@@ -14381,7 +14381,7 @@
       <c r="G53" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="H53" s="112"/>
+      <c r="H53" s="151"/>
       <c r="I53" s="48"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -14400,17 +14400,11 @@
       <c r="G54" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="H54" s="112"/>
+      <c r="H54" s="151"/>
       <c r="I54" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="H45:H51"/>
-    <mergeCell ref="H30:H39"/>
-    <mergeCell ref="H11:H19"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="I17:I19"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I2:I6"/>
     <mergeCell ref="H40:H44"/>
@@ -14419,6 +14413,12 @@
     <mergeCell ref="H3:H8"/>
     <mergeCell ref="H20:H24"/>
     <mergeCell ref="H25:H29"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="H45:H51"/>
+    <mergeCell ref="H30:H39"/>
+    <mergeCell ref="H11:H19"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16244,7 +16244,7 @@
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
